--- a/data/Kürzel-Ämter-ACC-EX-2021-02-08.xlsx
+++ b/data/Kürzel-Ämter-ACC-EX-2021-02-08.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr/Österreichische Akademie der Wissenschaften/ACDH-CH_p_TheVienneseCourt_ProsopographicalPortal_ElitesRuleRepresentation - Dokumente/Datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oeawacat.sharepoint.com/sites/ACDH-CH_p_TheVienneseCourt_ProsopographicalPortal_ElitesRule/Shared Documents/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25318633-E595-430E-8F3A-5ECF9B181234}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{E7394F60-CEDF-E748-9C01-8DB5CB1B067E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B2244C6-278D-E246-A2FB-9A001BF2431F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="21620" windowHeight="21100" xr2:uid="{337A3A7B-02D0-488A-92D5-A2468C5D770F}"/>
   </bookViews>
@@ -9010,7 +9010,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10642,7 +10642,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10940,32 +10940,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B85A28-8A9E-6340-8EC5-56FA6354860F}">
   <dimension ref="A1:XFA613"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A195" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G202" sqref="G202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="3.83203125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="5" customWidth="1"/>
     <col min="6" max="6" width="28" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="5" customWidth="1"/>
     <col min="8" max="8" width="15" style="34" customWidth="1"/>
     <col min="9" max="9" width="14" style="5" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" customWidth="1"/>
+    <col min="10" max="10" width="25.5" customWidth="1"/>
     <col min="11" max="11" width="23" style="9" customWidth="1"/>
-    <col min="12" max="12" width="27.85546875" style="10" customWidth="1"/>
+    <col min="12" max="12" width="27.83203125" style="10" customWidth="1"/>
     <col min="13" max="13" width="86" style="9" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" style="9"/>
-    <col min="16" max="16" width="90.42578125" style="9" customWidth="1"/>
-    <col min="17" max="17" width="98.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.5" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="9"/>
+    <col min="16" max="16" width="90.5" style="9" customWidth="1"/>
+    <col min="17" max="17" width="98.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="42" customHeight="1" thickBot="1">
+    <row r="1" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -10984,7 +10984,7 @@
       <c r="H1" s="8"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:16" ht="32.25" customHeight="1">
+    <row r="2" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="5"/>
       <c r="D2" s="124" t="s">
         <v>4</v>
@@ -10995,7 +10995,7 @@
       <c r="H2" s="125"/>
       <c r="I2" s="126"/>
     </row>
-    <row r="3" spans="1:16" ht="117.95" customHeight="1">
+    <row r="3" spans="1:16" ht="118" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
@@ -11045,7 +11045,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="30">
+    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>21</v>
       </c>
@@ -11077,7 +11077,7 @@
       <c r="O4" s="21"/>
       <c r="P4" s="21"/>
     </row>
-    <row r="5" spans="1:16" ht="30">
+    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
         <v>21</v>
       </c>
@@ -11109,7 +11109,7 @@
       <c r="O5" s="31"/>
       <c r="P5" s="31"/>
     </row>
-    <row r="6" spans="1:16" ht="30">
+    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>21</v>
       </c>
@@ -11141,7 +11141,7 @@
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
     </row>
-    <row r="7" spans="1:16" ht="30">
+    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
         <v>21</v>
       </c>
@@ -11173,7 +11173,7 @@
       <c r="O7" s="31"/>
       <c r="P7" s="31"/>
     </row>
-    <row r="8" spans="1:16" ht="30">
+    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>21</v>
       </c>
@@ -11205,7 +11205,7 @@
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
     </row>
-    <row r="9" spans="1:16" ht="30">
+    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
         <v>21</v>
       </c>
@@ -11237,7 +11237,7 @@
       <c r="O9" s="31"/>
       <c r="P9" s="31"/>
     </row>
-    <row r="10" spans="1:16" ht="30">
+    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>21</v>
       </c>
@@ -11269,7 +11269,7 @@
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
     </row>
-    <row r="11" spans="1:16" ht="30">
+    <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
         <v>21</v>
       </c>
@@ -11301,7 +11301,7 @@
       <c r="O11" s="31"/>
       <c r="P11" s="31"/>
     </row>
-    <row r="12" spans="1:16" ht="30">
+    <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>21</v>
       </c>
@@ -11333,7 +11333,7 @@
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
     </row>
-    <row r="13" spans="1:16" ht="30">
+    <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
         <v>21</v>
       </c>
@@ -11365,7 +11365,7 @@
       <c r="O13" s="31"/>
       <c r="P13" s="31"/>
     </row>
-    <row r="14" spans="1:16" ht="30">
+    <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>21</v>
       </c>
@@ -11397,7 +11397,7 @@
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
     </row>
-    <row r="15" spans="1:16" ht="30">
+    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
         <v>21</v>
       </c>
@@ -11429,7 +11429,7 @@
       <c r="O15" s="31"/>
       <c r="P15" s="31"/>
     </row>
-    <row r="16" spans="1:16" ht="150">
+    <row r="16" spans="1:16" ht="150" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
         <v>21</v>
       </c>
@@ -11462,7 +11462,7 @@
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
     </row>
-    <row r="17" spans="1:16" ht="30">
+    <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="35" t="s">
         <v>21</v>
       </c>
@@ -11494,7 +11494,7 @@
       <c r="O17" s="31"/>
       <c r="P17" s="31"/>
     </row>
-    <row r="18" spans="1:16" ht="30">
+    <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
         <v>21</v>
       </c>
@@ -11526,7 +11526,7 @@
       <c r="O18" s="21"/>
       <c r="P18" s="21"/>
     </row>
-    <row r="19" spans="1:16" ht="30">
+    <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="s">
         <v>21</v>
       </c>
@@ -11558,7 +11558,7 @@
       <c r="O19" s="31"/>
       <c r="P19" s="31"/>
     </row>
-    <row r="20" spans="1:16" ht="30">
+    <row r="20" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
         <v>21</v>
       </c>
@@ -11590,7 +11590,7 @@
       <c r="O20" s="21"/>
       <c r="P20" s="21"/>
     </row>
-    <row r="21" spans="1:16" ht="30">
+    <row r="21" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="35" t="s">
         <v>21</v>
       </c>
@@ -11622,7 +11622,7 @@
       <c r="O21" s="31"/>
       <c r="P21" s="31"/>
     </row>
-    <row r="22" spans="1:16" ht="111.95" customHeight="1">
+    <row r="22" spans="1:16" ht="112" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
         <v>21</v>
       </c>
@@ -11654,7 +11654,7 @@
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
     </row>
-    <row r="23" spans="1:16" ht="30">
+    <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="35" t="s">
         <v>21</v>
       </c>
@@ -11686,7 +11686,7 @@
       <c r="O23" s="31"/>
       <c r="P23" s="31"/>
     </row>
-    <row r="24" spans="1:16" ht="30">
+    <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
         <v>21</v>
       </c>
@@ -11718,7 +11718,7 @@
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
     </row>
-    <row r="25" spans="1:16" ht="30">
+    <row r="25" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="35" t="s">
         <v>21</v>
       </c>
@@ -11750,7 +11750,7 @@
       <c r="O25" s="31"/>
       <c r="P25" s="31"/>
     </row>
-    <row r="26" spans="1:16" ht="30">
+    <row r="26" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
         <v>21</v>
       </c>
@@ -11782,7 +11782,7 @@
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
     </row>
-    <row r="27" spans="1:16" ht="60">
+    <row r="27" spans="1:16" ht="60" x14ac:dyDescent="0.2">
       <c r="A27" s="35" t="s">
         <v>21</v>
       </c>
@@ -11814,7 +11814,7 @@
       <c r="O27" s="31"/>
       <c r="P27" s="31"/>
     </row>
-    <row r="28" spans="1:16" ht="30">
+    <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
         <v>21</v>
       </c>
@@ -11846,7 +11846,7 @@
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
     </row>
-    <row r="29" spans="1:16" ht="30">
+    <row r="29" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="35" t="s">
         <v>21</v>
       </c>
@@ -11876,7 +11876,7 @@
       <c r="O29" s="31"/>
       <c r="P29" s="31"/>
     </row>
-    <row r="30" spans="1:16" ht="30">
+    <row r="30" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" s="25" t="s">
         <v>21</v>
       </c>
@@ -11908,7 +11908,7 @@
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
     </row>
-    <row r="31" spans="1:16" ht="30">
+    <row r="31" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="35" t="s">
         <v>21</v>
       </c>
@@ -11940,7 +11940,7 @@
       <c r="O31" s="31"/>
       <c r="P31" s="31"/>
     </row>
-    <row r="32" spans="1:16" ht="30">
+    <row r="32" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
         <v>21</v>
       </c>
@@ -11972,7 +11972,7 @@
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
     </row>
-    <row r="33" spans="1:16" ht="30">
+    <row r="33" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="35" t="s">
         <v>21</v>
       </c>
@@ -12004,7 +12004,7 @@
       <c r="O33" s="31"/>
       <c r="P33" s="31"/>
     </row>
-    <row r="34" spans="1:16" ht="30">
+    <row r="34" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
         <v>21</v>
       </c>
@@ -12036,7 +12036,7 @@
       <c r="O34" s="21"/>
       <c r="P34" s="21"/>
     </row>
-    <row r="35" spans="1:16" ht="30">
+    <row r="35" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" s="35" t="s">
         <v>21</v>
       </c>
@@ -12068,7 +12068,7 @@
       <c r="O35" s="31"/>
       <c r="P35" s="31"/>
     </row>
-    <row r="36" spans="1:16" ht="30">
+    <row r="36" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="35" t="s">
         <v>21</v>
       </c>
@@ -12100,7 +12100,7 @@
       <c r="O36" s="31"/>
       <c r="P36" s="31"/>
     </row>
-    <row r="37" spans="1:16" ht="30">
+    <row r="37" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
         <v>21</v>
       </c>
@@ -12134,7 +12134,7 @@
       <c r="O37" s="21"/>
       <c r="P37" s="21"/>
     </row>
-    <row r="38" spans="1:16" ht="30">
+    <row r="38" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" s="35" t="s">
         <v>21</v>
       </c>
@@ -12166,7 +12166,7 @@
       <c r="O38" s="31"/>
       <c r="P38" s="31"/>
     </row>
-    <row r="39" spans="1:16" ht="30">
+    <row r="39" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
         <v>21</v>
       </c>
@@ -12198,7 +12198,7 @@
       <c r="O39" s="21"/>
       <c r="P39" s="21"/>
     </row>
-    <row r="40" spans="1:16" ht="30">
+    <row r="40" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" s="25" t="s">
         <v>21</v>
       </c>
@@ -12230,7 +12230,7 @@
       <c r="O40" s="21"/>
       <c r="P40" s="21"/>
     </row>
-    <row r="41" spans="1:16" ht="30">
+    <row r="41" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" s="25" t="s">
         <v>21</v>
       </c>
@@ -12262,7 +12262,7 @@
       <c r="O41" s="21"/>
       <c r="P41" s="21"/>
     </row>
-    <row r="42" spans="1:16" ht="30">
+    <row r="42" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" s="25" t="s">
         <v>21</v>
       </c>
@@ -12294,7 +12294,7 @@
       <c r="O42" s="21"/>
       <c r="P42" s="21"/>
     </row>
-    <row r="43" spans="1:16" ht="30">
+    <row r="43" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
         <v>21</v>
       </c>
@@ -12326,7 +12326,7 @@
       <c r="O43" s="21"/>
       <c r="P43" s="21"/>
     </row>
-    <row r="44" spans="1:16" ht="30">
+    <row r="44" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A44" s="35" t="s">
         <v>21</v>
       </c>
@@ -12358,7 +12358,7 @@
       <c r="O44" s="31"/>
       <c r="P44" s="31"/>
     </row>
-    <row r="45" spans="1:16" ht="30">
+    <row r="45" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A45" s="35" t="s">
         <v>21</v>
       </c>
@@ -12390,7 +12390,7 @@
       <c r="O45" s="31"/>
       <c r="P45" s="31"/>
     </row>
-    <row r="46" spans="1:16" ht="30">
+    <row r="46" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
         <v>21</v>
       </c>
@@ -12422,7 +12422,7 @@
       <c r="O46" s="21"/>
       <c r="P46" s="21"/>
     </row>
-    <row r="47" spans="1:16" ht="45">
+    <row r="47" spans="1:16" ht="45" x14ac:dyDescent="0.2">
       <c r="A47" s="35" t="s">
         <v>21</v>
       </c>
@@ -12454,7 +12454,7 @@
       <c r="O47" s="31"/>
       <c r="P47" s="31"/>
     </row>
-    <row r="48" spans="1:16" ht="30">
+    <row r="48" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" s="25" t="s">
         <v>21</v>
       </c>
@@ -12486,7 +12486,7 @@
       <c r="O48" s="21"/>
       <c r="P48" s="21"/>
     </row>
-    <row r="49" spans="1:16" ht="75">
+    <row r="49" spans="1:16" ht="75" x14ac:dyDescent="0.2">
       <c r="A49" s="35" t="s">
         <v>21</v>
       </c>
@@ -12518,7 +12518,7 @@
       <c r="O49" s="31"/>
       <c r="P49" s="31"/>
     </row>
-    <row r="50" spans="1:16" ht="30">
+    <row r="50" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A50" s="35" t="s">
         <v>21</v>
       </c>
@@ -12550,7 +12550,7 @@
       <c r="O50" s="31"/>
       <c r="P50" s="31"/>
     </row>
-    <row r="51" spans="1:16" ht="30">
+    <row r="51" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A51" s="25" t="s">
         <v>21</v>
       </c>
@@ -12582,7 +12582,7 @@
       <c r="O51" s="21"/>
       <c r="P51" s="21"/>
     </row>
-    <row r="52" spans="1:16" ht="30">
+    <row r="52" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A52" s="35" t="s">
         <v>21</v>
       </c>
@@ -12614,7 +12614,7 @@
       <c r="O52" s="31"/>
       <c r="P52" s="31"/>
     </row>
-    <row r="53" spans="1:16" ht="30">
+    <row r="53" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A53" s="25" t="s">
         <v>21</v>
       </c>
@@ -12646,7 +12646,7 @@
       <c r="O53" s="21"/>
       <c r="P53" s="21"/>
     </row>
-    <row r="54" spans="1:16" ht="30">
+    <row r="54" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A54" s="35" t="s">
         <v>21</v>
       </c>
@@ -12678,7 +12678,7 @@
       <c r="O54" s="31"/>
       <c r="P54" s="31"/>
     </row>
-    <row r="55" spans="1:16" ht="30">
+    <row r="55" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A55" s="25" t="s">
         <v>21</v>
       </c>
@@ -12710,7 +12710,7 @@
       <c r="O55" s="21"/>
       <c r="P55" s="21"/>
     </row>
-    <row r="56" spans="1:16" ht="30">
+    <row r="56" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A56" s="35" t="s">
         <v>21</v>
       </c>
@@ -12742,7 +12742,7 @@
       <c r="O56" s="31"/>
       <c r="P56" s="31"/>
     </row>
-    <row r="57" spans="1:16" ht="30">
+    <row r="57" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A57" s="25" t="s">
         <v>21</v>
       </c>
@@ -12774,7 +12774,7 @@
       <c r="O57" s="21"/>
       <c r="P57" s="21"/>
     </row>
-    <row r="58" spans="1:16" ht="45">
+    <row r="58" spans="1:16" ht="45" x14ac:dyDescent="0.2">
       <c r="A58" s="25" t="s">
         <v>21</v>
       </c>
@@ -12806,7 +12806,7 @@
       <c r="O58" s="21"/>
       <c r="P58" s="21"/>
     </row>
-    <row r="59" spans="1:16" ht="30">
+    <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A59" s="35" t="s">
         <v>21</v>
       </c>
@@ -12838,7 +12838,7 @@
       <c r="O59" s="31"/>
       <c r="P59" s="31"/>
     </row>
-    <row r="60" spans="1:16" ht="30">
+    <row r="60" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A60" s="25" t="s">
         <v>21</v>
       </c>
@@ -12870,7 +12870,7 @@
       <c r="O60" s="21"/>
       <c r="P60" s="21"/>
     </row>
-    <row r="61" spans="1:16" ht="30">
+    <row r="61" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A61" s="25" t="s">
         <v>21</v>
       </c>
@@ -12902,7 +12902,7 @@
       <c r="O61" s="21"/>
       <c r="P61" s="21"/>
     </row>
-    <row r="62" spans="1:16" ht="30">
+    <row r="62" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A62" s="35" t="s">
         <v>21</v>
       </c>
@@ -12934,7 +12934,7 @@
       <c r="O62" s="31"/>
       <c r="P62" s="31"/>
     </row>
-    <row r="63" spans="1:16" ht="30">
+    <row r="63" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A63" s="35" t="s">
         <v>21</v>
       </c>
@@ -12966,7 +12966,7 @@
       <c r="O63" s="31"/>
       <c r="P63" s="31"/>
     </row>
-    <row r="64" spans="1:16" ht="30">
+    <row r="64" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A64" s="25" t="s">
         <v>21</v>
       </c>
@@ -12998,7 +12998,7 @@
       <c r="O64" s="21"/>
       <c r="P64" s="21"/>
     </row>
-    <row r="65" spans="1:16" ht="45">
+    <row r="65" spans="1:16" ht="45" x14ac:dyDescent="0.2">
       <c r="A65" s="35" t="s">
         <v>21</v>
       </c>
@@ -13030,7 +13030,7 @@
       <c r="O65" s="31"/>
       <c r="P65" s="31"/>
     </row>
-    <row r="66" spans="1:16" ht="30">
+    <row r="66" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A66" s="25" t="s">
         <v>21</v>
       </c>
@@ -13062,7 +13062,7 @@
       <c r="O66" s="21"/>
       <c r="P66" s="21"/>
     </row>
-    <row r="67" spans="1:16" ht="30">
+    <row r="67" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A67" s="25" t="s">
         <v>21</v>
       </c>
@@ -13094,7 +13094,7 @@
       <c r="O67" s="21"/>
       <c r="P67" s="21"/>
     </row>
-    <row r="68" spans="1:16" ht="30">
+    <row r="68" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A68" s="25" t="s">
         <v>21</v>
       </c>
@@ -13126,7 +13126,7 @@
       <c r="O68" s="21"/>
       <c r="P68" s="21"/>
     </row>
-    <row r="69" spans="1:16" ht="30">
+    <row r="69" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A69" s="35" t="s">
         <v>21</v>
       </c>
@@ -13158,7 +13158,7 @@
       <c r="O69" s="31"/>
       <c r="P69" s="31"/>
     </row>
-    <row r="70" spans="1:16" ht="30">
+    <row r="70" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A70" s="25" t="s">
         <v>21</v>
       </c>
@@ -13190,7 +13190,7 @@
       <c r="O70" s="21"/>
       <c r="P70" s="21"/>
     </row>
-    <row r="71" spans="1:16" ht="30">
+    <row r="71" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A71" s="25" t="s">
         <v>21</v>
       </c>
@@ -13224,7 +13224,7 @@
       <c r="O71" s="21"/>
       <c r="P71" s="21"/>
     </row>
-    <row r="72" spans="1:16" ht="30">
+    <row r="72" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A72" s="35" t="s">
         <v>21</v>
       </c>
@@ -13256,7 +13256,7 @@
       <c r="O72" s="31"/>
       <c r="P72" s="31"/>
     </row>
-    <row r="73" spans="1:16" ht="48">
+    <row r="73" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A73" s="25" t="s">
         <v>21</v>
       </c>
@@ -13290,7 +13290,7 @@
       <c r="O73" s="21"/>
       <c r="P73" s="21"/>
     </row>
-    <row r="74" spans="1:16" ht="30">
+    <row r="74" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A74" s="35" t="s">
         <v>21</v>
       </c>
@@ -13322,7 +13322,7 @@
       <c r="O74" s="31"/>
       <c r="P74" s="31"/>
     </row>
-    <row r="75" spans="1:16" ht="30">
+    <row r="75" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A75" s="25" t="s">
         <v>21</v>
       </c>
@@ -13354,7 +13354,7 @@
       <c r="O75" s="21"/>
       <c r="P75" s="21"/>
     </row>
-    <row r="76" spans="1:16" ht="30">
+    <row r="76" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A76" s="25" t="s">
         <v>21</v>
       </c>
@@ -13386,7 +13386,7 @@
       <c r="O76" s="21"/>
       <c r="P76" s="21"/>
     </row>
-    <row r="77" spans="1:16" ht="45">
+    <row r="77" spans="1:16" ht="45" x14ac:dyDescent="0.2">
       <c r="A77" s="35" t="s">
         <v>21</v>
       </c>
@@ -13418,7 +13418,7 @@
       <c r="O77" s="31"/>
       <c r="P77" s="31"/>
     </row>
-    <row r="78" spans="1:16" ht="30">
+    <row r="78" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A78" s="35" t="s">
         <v>21</v>
       </c>
@@ -13450,7 +13450,7 @@
       <c r="O78" s="31"/>
       <c r="P78" s="31"/>
     </row>
-    <row r="79" spans="1:16" ht="30">
+    <row r="79" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A79" s="25" t="s">
         <v>21</v>
       </c>
@@ -13482,7 +13482,7 @@
       <c r="O79" s="21"/>
       <c r="P79" s="21"/>
     </row>
-    <row r="80" spans="1:16" ht="30">
+    <row r="80" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A80" s="35" t="s">
         <v>21</v>
       </c>
@@ -13514,7 +13514,7 @@
       <c r="O80" s="31"/>
       <c r="P80" s="31"/>
     </row>
-    <row r="81" spans="1:16381" ht="30">
+    <row r="81" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
       <c r="A81" s="25" t="s">
         <v>21</v>
       </c>
@@ -13546,7 +13546,7 @@
       <c r="O81" s="21"/>
       <c r="P81" s="21"/>
     </row>
-    <row r="82" spans="1:16381" ht="30">
+    <row r="82" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
       <c r="A82" s="25" t="s">
         <v>21</v>
       </c>
@@ -13578,7 +13578,7 @@
       <c r="O82" s="21"/>
       <c r="P82" s="21"/>
     </row>
-    <row r="83" spans="1:16381" ht="30">
+    <row r="83" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
       <c r="A83" s="35" t="s">
         <v>21</v>
       </c>
@@ -13610,7 +13610,7 @@
       <c r="O83" s="31"/>
       <c r="P83" s="31"/>
     </row>
-    <row r="84" spans="1:16381" ht="30">
+    <row r="84" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
       <c r="A84" s="25" t="s">
         <v>21</v>
       </c>
@@ -13642,7 +13642,7 @@
       <c r="O84" s="21"/>
       <c r="P84" s="21"/>
     </row>
-    <row r="85" spans="1:16381" ht="30">
+    <row r="85" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
       <c r="A85" s="35" t="s">
         <v>21</v>
       </c>
@@ -13674,7 +13674,7 @@
       <c r="O85" s="31"/>
       <c r="P85" s="31"/>
     </row>
-    <row r="86" spans="1:16381" ht="30">
+    <row r="86" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
       <c r="A86" s="25" t="s">
         <v>21</v>
       </c>
@@ -13706,7 +13706,7 @@
       <c r="O86" s="21"/>
       <c r="P86" s="21"/>
     </row>
-    <row r="87" spans="1:16381" ht="30">
+    <row r="87" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
       <c r="A87" s="35" t="s">
         <v>21</v>
       </c>
@@ -13738,7 +13738,7 @@
       <c r="O87" s="31"/>
       <c r="P87" s="31"/>
     </row>
-    <row r="88" spans="1:16381" ht="30">
+    <row r="88" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
       <c r="A88" s="25" t="s">
         <v>21</v>
       </c>
@@ -13770,7 +13770,7 @@
       <c r="O88" s="21"/>
       <c r="P88" s="21"/>
     </row>
-    <row r="89" spans="1:16381" ht="30">
+    <row r="89" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
       <c r="A89" s="35" t="s">
         <v>21</v>
       </c>
@@ -13802,7 +13802,7 @@
       <c r="O89" s="31"/>
       <c r="P89" s="31"/>
     </row>
-    <row r="90" spans="1:16381" ht="30">
+    <row r="90" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
       <c r="A90" s="25" t="s">
         <v>21</v>
       </c>
@@ -13834,7 +13834,7 @@
       <c r="O90" s="21"/>
       <c r="P90" s="21"/>
     </row>
-    <row r="91" spans="1:16381" ht="30">
+    <row r="91" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
       <c r="A91" s="35" t="s">
         <v>21</v>
       </c>
@@ -13866,7 +13866,7 @@
       <c r="O91" s="31"/>
       <c r="P91" s="31"/>
     </row>
-    <row r="92" spans="1:16381" ht="30">
+    <row r="92" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
       <c r="A92" s="25" t="s">
         <v>21</v>
       </c>
@@ -13898,7 +13898,7 @@
       <c r="O92" s="21"/>
       <c r="P92" s="21"/>
     </row>
-    <row r="93" spans="1:16381" ht="32.1">
+    <row r="93" spans="1:16381" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="35" t="s">
         <v>21</v>
       </c>
@@ -13930,7 +13930,7 @@
       <c r="O93" s="31"/>
       <c r="P93" s="31"/>
     </row>
-    <row r="94" spans="1:16381" ht="30">
+    <row r="94" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
       <c r="A94" s="25" t="s">
         <v>21</v>
       </c>
@@ -13964,7 +13964,7 @@
       <c r="O94" s="21"/>
       <c r="P94" s="21"/>
     </row>
-    <row r="95" spans="1:16381" ht="30">
+    <row r="95" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
       <c r="A95" s="25" t="s">
         <v>21</v>
       </c>
@@ -13996,7 +13996,7 @@
       <c r="O95" s="21"/>
       <c r="P95" s="21"/>
     </row>
-    <row r="96" spans="1:16381" s="22" customFormat="1" ht="30">
+    <row r="96" spans="1:16381" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A96" s="25" t="s">
         <v>21</v>
       </c>
@@ -30395,7 +30395,7 @@
       <c r="XEZ96"/>
       <c r="XFA96"/>
     </row>
-    <row r="97" spans="1:16381" s="22" customFormat="1" ht="30">
+    <row r="97" spans="1:16381" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A97" s="35" t="s">
         <v>21</v>
       </c>
@@ -46794,7 +46794,7 @@
       <c r="XEZ97"/>
       <c r="XFA97"/>
     </row>
-    <row r="98" spans="1:16381" s="22" customFormat="1" ht="30">
+    <row r="98" spans="1:16381" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A98" s="25" t="s">
         <v>21</v>
       </c>
@@ -63193,7 +63193,7 @@
       <c r="XEZ98"/>
       <c r="XFA98"/>
     </row>
-    <row r="99" spans="1:16381" ht="30">
+    <row r="99" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
       <c r="A99" s="35" t="s">
         <v>21</v>
       </c>
@@ -63225,7 +63225,7 @@
       <c r="O99" s="31"/>
       <c r="P99" s="31"/>
     </row>
-    <row r="100" spans="1:16381" ht="30">
+    <row r="100" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
       <c r="A100" s="35" t="s">
         <v>21</v>
       </c>
@@ -63259,7 +63259,7 @@
       <c r="O100" s="31"/>
       <c r="P100" s="31"/>
     </row>
-    <row r="101" spans="1:16381" ht="30">
+    <row r="101" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
       <c r="A101" s="25" t="s">
         <v>21</v>
       </c>
@@ -63294,7 +63294,7 @@
       <c r="P101" s="21"/>
       <c r="XFA101" s="23"/>
     </row>
-    <row r="102" spans="1:16381" ht="30">
+    <row r="102" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
       <c r="A102" s="35" t="s">
         <v>21</v>
       </c>
@@ -63328,7 +63328,7 @@
       <c r="O102" s="31"/>
       <c r="P102" s="31"/>
     </row>
-    <row r="103" spans="1:16381" ht="30">
+    <row r="103" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
       <c r="A103" s="25" t="s">
         <v>21</v>
       </c>
@@ -63360,7 +63360,7 @@
       <c r="O103" s="21"/>
       <c r="P103" s="21"/>
     </row>
-    <row r="104" spans="1:16381" ht="30">
+    <row r="104" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
       <c r="A104" s="25" t="s">
         <v>21</v>
       </c>
@@ -63392,7 +63392,7 @@
       <c r="O104" s="21"/>
       <c r="P104" s="21"/>
     </row>
-    <row r="105" spans="1:16381" ht="30">
+    <row r="105" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
       <c r="A105" s="25" t="s">
         <v>21</v>
       </c>
@@ -63424,7 +63424,7 @@
       <c r="O105" s="21"/>
       <c r="P105" s="21"/>
     </row>
-    <row r="106" spans="1:16381" ht="30">
+    <row r="106" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
       <c r="A106" s="25" t="s">
         <v>21</v>
       </c>
@@ -63456,7 +63456,7 @@
       <c r="O106" s="21"/>
       <c r="P106" s="21"/>
     </row>
-    <row r="107" spans="1:16381" ht="36">
+    <row r="107" spans="1:16381" ht="36" x14ac:dyDescent="0.2">
       <c r="A107" s="35" t="s">
         <v>21</v>
       </c>
@@ -63490,7 +63490,7 @@
       <c r="O107" s="31"/>
       <c r="P107" s="31"/>
     </row>
-    <row r="108" spans="1:16381" ht="30">
+    <row r="108" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
       <c r="A108" s="35" t="s">
         <v>21</v>
       </c>
@@ -63524,7 +63524,7 @@
       <c r="O108" s="31"/>
       <c r="P108" s="31"/>
     </row>
-    <row r="109" spans="1:16381" ht="30">
+    <row r="109" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
       <c r="A109" s="35" t="s">
         <v>21</v>
       </c>
@@ -63556,7 +63556,7 @@
       <c r="O109" s="31"/>
       <c r="P109" s="31"/>
     </row>
-    <row r="110" spans="1:16381" ht="30">
+    <row r="110" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
       <c r="A110" s="25" t="s">
         <v>21</v>
       </c>
@@ -63590,7 +63590,7 @@
       <c r="O110" s="21"/>
       <c r="P110" s="21"/>
     </row>
-    <row r="111" spans="1:16381" ht="36">
+    <row r="111" spans="1:16381" ht="36" x14ac:dyDescent="0.2">
       <c r="A111" s="35" t="s">
         <v>21</v>
       </c>
@@ -63626,7 +63626,7 @@
       <c r="O111" s="31"/>
       <c r="P111" s="31"/>
     </row>
-    <row r="112" spans="1:16381" ht="30">
+    <row r="112" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
       <c r="A112" s="35" t="s">
         <v>21</v>
       </c>
@@ -63658,7 +63658,7 @@
       <c r="O112" s="31"/>
       <c r="P112" s="31"/>
     </row>
-    <row r="113" spans="1:16" ht="36">
+    <row r="113" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A113" s="25" t="s">
         <v>21</v>
       </c>
@@ -63696,7 +63696,7 @@
       <c r="O113" s="21"/>
       <c r="P113" s="21"/>
     </row>
-    <row r="114" spans="1:16" ht="30">
+    <row r="114" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A114" s="35" t="s">
         <v>21</v>
       </c>
@@ -63734,7 +63734,7 @@
       <c r="O114" s="31"/>
       <c r="P114" s="31"/>
     </row>
-    <row r="115" spans="1:16" ht="36">
+    <row r="115" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A115" s="25" t="s">
         <v>21</v>
       </c>
@@ -63768,7 +63768,7 @@
       <c r="O115" s="21"/>
       <c r="P115" s="21"/>
     </row>
-    <row r="116" spans="1:16" ht="30">
+    <row r="116" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A116" s="25" t="s">
         <v>21</v>
       </c>
@@ -63800,7 +63800,7 @@
       <c r="O116" s="21"/>
       <c r="P116" s="21"/>
     </row>
-    <row r="117" spans="1:16" ht="60">
+    <row r="117" spans="1:16" ht="60" x14ac:dyDescent="0.2">
       <c r="A117" s="25" t="s">
         <v>21</v>
       </c>
@@ -63834,7 +63834,7 @@
       <c r="O117" s="21"/>
       <c r="P117" s="21"/>
     </row>
-    <row r="118" spans="1:16" ht="180">
+    <row r="118" spans="1:16" ht="180" x14ac:dyDescent="0.2">
       <c r="A118" s="25" t="s">
         <v>21</v>
       </c>
@@ -63868,7 +63868,7 @@
       <c r="O118" s="21"/>
       <c r="P118" s="21"/>
     </row>
-    <row r="119" spans="1:16" ht="30">
+    <row r="119" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A119" s="35" t="s">
         <v>21</v>
       </c>
@@ -63900,7 +63900,7 @@
       <c r="O119" s="31"/>
       <c r="P119" s="31"/>
     </row>
-    <row r="120" spans="1:16" ht="30">
+    <row r="120" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A120" s="35" t="s">
         <v>21</v>
       </c>
@@ -63932,7 +63932,7 @@
       <c r="O120" s="31"/>
       <c r="P120" s="31"/>
     </row>
-    <row r="121" spans="1:16" ht="30">
+    <row r="121" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A121" s="35" t="s">
         <v>21</v>
       </c>
@@ -63964,7 +63964,7 @@
       <c r="O121" s="31"/>
       <c r="P121" s="31"/>
     </row>
-    <row r="122" spans="1:16" ht="30">
+    <row r="122" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A122" s="25" t="s">
         <v>21</v>
       </c>
@@ -63996,7 +63996,7 @@
       <c r="O122" s="21"/>
       <c r="P122" s="21"/>
     </row>
-    <row r="123" spans="1:16" ht="30">
+    <row r="123" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A123" s="35" t="s">
         <v>21</v>
       </c>
@@ -64028,7 +64028,7 @@
       <c r="O123" s="31"/>
       <c r="P123" s="31"/>
     </row>
-    <row r="124" spans="1:16" ht="30">
+    <row r="124" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A124" s="25" t="s">
         <v>21</v>
       </c>
@@ -64060,7 +64060,7 @@
       <c r="O124" s="21"/>
       <c r="P124" s="21"/>
     </row>
-    <row r="125" spans="1:16" ht="30">
+    <row r="125" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A125" s="35" t="s">
         <v>21</v>
       </c>
@@ -64092,7 +64092,7 @@
       <c r="O125" s="31"/>
       <c r="P125" s="31"/>
     </row>
-    <row r="126" spans="1:16" ht="30">
+    <row r="126" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A126" s="25" t="s">
         <v>21</v>
       </c>
@@ -64124,7 +64124,7 @@
       <c r="O126" s="21"/>
       <c r="P126" s="21"/>
     </row>
-    <row r="127" spans="1:16" ht="30">
+    <row r="127" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A127" s="35" t="s">
         <v>21</v>
       </c>
@@ -64156,7 +64156,7 @@
       <c r="O127" s="31"/>
       <c r="P127" s="31"/>
     </row>
-    <row r="128" spans="1:16" ht="30">
+    <row r="128" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A128" s="25" t="s">
         <v>21</v>
       </c>
@@ -64188,7 +64188,7 @@
       <c r="O128" s="21"/>
       <c r="P128" s="21"/>
     </row>
-    <row r="129" spans="1:16" ht="75">
+    <row r="129" spans="1:16" ht="75" x14ac:dyDescent="0.2">
       <c r="A129" s="35" t="s">
         <v>21</v>
       </c>
@@ -64220,7 +64220,7 @@
       <c r="O129" s="31"/>
       <c r="P129" s="31"/>
     </row>
-    <row r="130" spans="1:16" ht="30">
+    <row r="130" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A130" s="35" t="s">
         <v>21</v>
       </c>
@@ -64252,7 +64252,7 @@
       <c r="O130" s="31"/>
       <c r="P130" s="31"/>
     </row>
-    <row r="131" spans="1:16" ht="30">
+    <row r="131" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A131" s="25" t="s">
         <v>21</v>
       </c>
@@ -64284,7 +64284,7 @@
       <c r="O131" s="21"/>
       <c r="P131" s="21"/>
     </row>
-    <row r="132" spans="1:16" ht="30">
+    <row r="132" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A132" s="35" t="s">
         <v>21</v>
       </c>
@@ -64316,7 +64316,7 @@
       <c r="O132" s="31"/>
       <c r="P132" s="31"/>
     </row>
-    <row r="133" spans="1:16" ht="60">
+    <row r="133" spans="1:16" ht="60" x14ac:dyDescent="0.2">
       <c r="A133" s="35" t="s">
         <v>21</v>
       </c>
@@ -64352,7 +64352,7 @@
       <c r="O133" s="31"/>
       <c r="P133" s="31"/>
     </row>
-    <row r="134" spans="1:16" ht="120">
+    <row r="134" spans="1:16" ht="120" x14ac:dyDescent="0.2">
       <c r="A134" s="35" t="s">
         <v>21</v>
       </c>
@@ -64386,7 +64386,7 @@
       <c r="O134" s="31"/>
       <c r="P134" s="31"/>
     </row>
-    <row r="135" spans="1:16" ht="30">
+    <row r="135" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A135" s="40" t="s">
         <v>21</v>
       </c>
@@ -64420,7 +64420,7 @@
       <c r="O135" s="39"/>
       <c r="P135" s="39"/>
     </row>
-    <row r="136" spans="1:16" ht="30">
+    <row r="136" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A136" s="35" t="s">
         <v>21</v>
       </c>
@@ -64454,7 +64454,7 @@
       <c r="O136" s="31"/>
       <c r="P136" s="31"/>
     </row>
-    <row r="137" spans="1:16" ht="24">
+    <row r="137" spans="1:16" ht="24" x14ac:dyDescent="0.2">
       <c r="A137" s="25" t="s">
         <v>320</v>
       </c>
@@ -64488,7 +64488,7 @@
       <c r="O137" s="21"/>
       <c r="P137" s="21"/>
     </row>
-    <row r="138" spans="1:16" ht="72">
+    <row r="138" spans="1:16" ht="72" x14ac:dyDescent="0.2">
       <c r="A138" s="35" t="s">
         <v>324</v>
       </c>
@@ -64518,7 +64518,7 @@
       <c r="O138" s="31"/>
       <c r="P138" s="31"/>
     </row>
-    <row r="139" spans="1:16" ht="36">
+    <row r="139" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A139" s="25" t="s">
         <v>21</v>
       </c>
@@ -64556,7 +64556,7 @@
       <c r="O139" s="39"/>
       <c r="P139" s="39"/>
     </row>
-    <row r="140" spans="1:16" ht="30">
+    <row r="140" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A140" s="25" t="s">
         <v>21</v>
       </c>
@@ -64590,7 +64590,7 @@
       <c r="O140" s="39"/>
       <c r="P140" s="39"/>
     </row>
-    <row r="141" spans="1:16" ht="72">
+    <row r="141" spans="1:16" ht="72" x14ac:dyDescent="0.2">
       <c r="A141" s="35" t="s">
         <v>21</v>
       </c>
@@ -64628,7 +64628,7 @@
       <c r="O141" s="45"/>
       <c r="P141" s="45"/>
     </row>
-    <row r="142" spans="1:16" ht="30">
+    <row r="142" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A142" s="35" t="s">
         <v>21</v>
       </c>
@@ -64666,7 +64666,7 @@
       <c r="O142" s="31"/>
       <c r="P142" s="31"/>
     </row>
-    <row r="143" spans="1:16" ht="305.10000000000002">
+    <row r="143" spans="1:16" ht="305" x14ac:dyDescent="0.2">
       <c r="A143" s="25" t="s">
         <v>21</v>
       </c>
@@ -64702,7 +64702,7 @@
       <c r="O143" s="21"/>
       <c r="P143" s="21"/>
     </row>
-    <row r="144" spans="1:16" ht="30">
+    <row r="144" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A144" s="35" t="s">
         <v>21</v>
       </c>
@@ -64734,7 +64734,7 @@
       <c r="O144" s="31"/>
       <c r="P144" s="31"/>
     </row>
-    <row r="145" spans="1:16" ht="30">
+    <row r="145" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A145" s="25" t="s">
         <v>21</v>
       </c>
@@ -64766,7 +64766,7 @@
       <c r="O145" s="21"/>
       <c r="P145" s="21"/>
     </row>
-    <row r="146" spans="1:16" ht="30">
+    <row r="146" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A146" s="35" t="s">
         <v>21</v>
       </c>
@@ -64798,7 +64798,7 @@
       <c r="O146" s="31"/>
       <c r="P146" s="31"/>
     </row>
-    <row r="147" spans="1:16" ht="30">
+    <row r="147" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A147" s="25" t="s">
         <v>21</v>
       </c>
@@ -64830,7 +64830,7 @@
       <c r="O147" s="21"/>
       <c r="P147" s="21"/>
     </row>
-    <row r="148" spans="1:16" ht="30">
+    <row r="148" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A148" s="35" t="s">
         <v>21</v>
       </c>
@@ -64862,7 +64862,7 @@
       <c r="O148" s="31"/>
       <c r="P148" s="31"/>
     </row>
-    <row r="149" spans="1:16" ht="30">
+    <row r="149" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A149" s="25" t="s">
         <v>21</v>
       </c>
@@ -64894,7 +64894,7 @@
       <c r="O149" s="21"/>
       <c r="P149" s="21"/>
     </row>
-    <row r="150" spans="1:16" ht="30">
+    <row r="150" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A150" s="35" t="s">
         <v>21</v>
       </c>
@@ -64926,7 +64926,7 @@
       <c r="O150" s="31"/>
       <c r="P150" s="31"/>
     </row>
-    <row r="151" spans="1:16" ht="30">
+    <row r="151" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A151" s="25" t="s">
         <v>21</v>
       </c>
@@ -64958,7 +64958,7 @@
       <c r="O151" s="21"/>
       <c r="P151" s="21"/>
     </row>
-    <row r="152" spans="1:16" ht="30">
+    <row r="152" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A152" s="35" t="s">
         <v>21</v>
       </c>
@@ -64990,7 +64990,7 @@
       <c r="O152" s="31"/>
       <c r="P152" s="31"/>
     </row>
-    <row r="153" spans="1:16" ht="30">
+    <row r="153" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A153" s="25" t="s">
         <v>21</v>
       </c>
@@ -65022,7 +65022,7 @@
       <c r="O153" s="21"/>
       <c r="P153" s="21"/>
     </row>
-    <row r="154" spans="1:16" ht="30">
+    <row r="154" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A154" s="35" t="s">
         <v>21</v>
       </c>
@@ -65054,7 +65054,7 @@
       <c r="O154" s="31"/>
       <c r="P154" s="31"/>
     </row>
-    <row r="155" spans="1:16" ht="30">
+    <row r="155" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A155" s="25" t="s">
         <v>21</v>
       </c>
@@ -65086,7 +65086,7 @@
       <c r="O155" s="21"/>
       <c r="P155" s="21"/>
     </row>
-    <row r="156" spans="1:16" ht="30">
+    <row r="156" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A156" s="35" t="s">
         <v>21</v>
       </c>
@@ -65118,7 +65118,7 @@
       <c r="O156" s="31"/>
       <c r="P156" s="31"/>
     </row>
-    <row r="157" spans="1:16" ht="30">
+    <row r="157" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A157" s="25" t="s">
         <v>21</v>
       </c>
@@ -65150,7 +65150,7 @@
       <c r="O157" s="21"/>
       <c r="P157" s="21"/>
     </row>
-    <row r="158" spans="1:16" ht="30">
+    <row r="158" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A158" s="35" t="s">
         <v>21</v>
       </c>
@@ -65182,7 +65182,7 @@
       <c r="O158" s="31"/>
       <c r="P158" s="31"/>
     </row>
-    <row r="159" spans="1:16" ht="30">
+    <row r="159" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A159" s="25" t="s">
         <v>21</v>
       </c>
@@ -65214,7 +65214,7 @@
       <c r="O159" s="21"/>
       <c r="P159" s="21"/>
     </row>
-    <row r="160" spans="1:16" ht="30">
+    <row r="160" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A160" s="35" t="s">
         <v>21</v>
       </c>
@@ -65246,7 +65246,7 @@
       <c r="O160" s="31"/>
       <c r="P160" s="31"/>
     </row>
-    <row r="161" spans="1:16" ht="60">
+    <row r="161" spans="1:16" ht="60" x14ac:dyDescent="0.2">
       <c r="A161" s="25" t="s">
         <v>21</v>
       </c>
@@ -65278,7 +65278,7 @@
       <c r="O161" s="21"/>
       <c r="P161" s="21"/>
     </row>
-    <row r="162" spans="1:16" ht="30">
+    <row r="162" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A162" s="35" t="s">
         <v>21</v>
       </c>
@@ -65310,7 +65310,7 @@
       <c r="O162" s="31"/>
       <c r="P162" s="31"/>
     </row>
-    <row r="163" spans="1:16" ht="30">
+    <row r="163" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A163" s="25" t="s">
         <v>21</v>
       </c>
@@ -65342,7 +65342,7 @@
       <c r="O163" s="21"/>
       <c r="P163" s="21"/>
     </row>
-    <row r="164" spans="1:16" ht="30">
+    <row r="164" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A164" s="35" t="s">
         <v>21</v>
       </c>
@@ -65374,7 +65374,7 @@
       <c r="O164" s="31"/>
       <c r="P164" s="31"/>
     </row>
-    <row r="165" spans="1:16" ht="75">
+    <row r="165" spans="1:16" ht="75" x14ac:dyDescent="0.2">
       <c r="A165" s="25" t="s">
         <v>21</v>
       </c>
@@ -65406,7 +65406,7 @@
       <c r="O165" s="21"/>
       <c r="P165" s="21"/>
     </row>
-    <row r="166" spans="1:16" ht="45">
+    <row r="166" spans="1:16" ht="45" x14ac:dyDescent="0.2">
       <c r="A166" s="35" t="s">
         <v>21</v>
       </c>
@@ -65438,7 +65438,7 @@
       <c r="O166" s="31"/>
       <c r="P166" s="31"/>
     </row>
-    <row r="167" spans="1:16" ht="30">
+    <row r="167" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A167" s="25" t="s">
         <v>21</v>
       </c>
@@ -65470,7 +65470,7 @@
       <c r="O167" s="21"/>
       <c r="P167" s="21"/>
     </row>
-    <row r="168" spans="1:16" ht="30">
+    <row r="168" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A168" s="35" t="s">
         <v>21</v>
       </c>
@@ -65502,7 +65502,7 @@
       <c r="O168" s="31"/>
       <c r="P168" s="31"/>
     </row>
-    <row r="169" spans="1:16" ht="30">
+    <row r="169" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A169" s="25" t="s">
         <v>21</v>
       </c>
@@ -65534,7 +65534,7 @@
       <c r="O169" s="21"/>
       <c r="P169" s="21"/>
     </row>
-    <row r="170" spans="1:16" ht="30">
+    <row r="170" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A170" s="35" t="s">
         <v>21</v>
       </c>
@@ -65566,7 +65566,7 @@
       <c r="O170" s="31"/>
       <c r="P170" s="31"/>
     </row>
-    <row r="171" spans="1:16" ht="30">
+    <row r="171" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A171" s="25" t="s">
         <v>21</v>
       </c>
@@ -65598,7 +65598,7 @@
       <c r="O171" s="21"/>
       <c r="P171" s="21"/>
     </row>
-    <row r="172" spans="1:16" ht="30">
+    <row r="172" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A172" s="35" t="s">
         <v>21</v>
       </c>
@@ -65630,7 +65630,7 @@
       <c r="O172" s="31"/>
       <c r="P172" s="31"/>
     </row>
-    <row r="173" spans="1:16" ht="30">
+    <row r="173" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A173" s="25" t="s">
         <v>21</v>
       </c>
@@ -65662,7 +65662,7 @@
       <c r="O173" s="21"/>
       <c r="P173" s="21"/>
     </row>
-    <row r="174" spans="1:16" ht="30">
+    <row r="174" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A174" s="35" t="s">
         <v>21</v>
       </c>
@@ -65694,7 +65694,7 @@
       <c r="O174" s="31"/>
       <c r="P174" s="31"/>
     </row>
-    <row r="175" spans="1:16" ht="30">
+    <row r="175" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A175" s="25" t="s">
         <v>21</v>
       </c>
@@ -65726,7 +65726,7 @@
       <c r="O175" s="21"/>
       <c r="P175" s="21"/>
     </row>
-    <row r="176" spans="1:16" ht="30">
+    <row r="176" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A176" s="25" t="s">
         <v>21</v>
       </c>
@@ -65760,7 +65760,7 @@
       <c r="O176" s="21"/>
       <c r="P176" s="21"/>
     </row>
-    <row r="177" spans="1:16" ht="30">
+    <row r="177" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A177" s="35" t="s">
         <v>21</v>
       </c>
@@ -65792,7 +65792,7 @@
       <c r="O177" s="31"/>
       <c r="P177" s="31"/>
     </row>
-    <row r="178" spans="1:16" ht="30">
+    <row r="178" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A178" s="35" t="s">
         <v>21</v>
       </c>
@@ -65824,7 +65824,7 @@
       <c r="O178" s="31"/>
       <c r="P178" s="31"/>
     </row>
-    <row r="179" spans="1:16" ht="30">
+    <row r="179" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A179" s="25" t="s">
         <v>21</v>
       </c>
@@ -65856,7 +65856,7 @@
       <c r="O179" s="21"/>
       <c r="P179" s="21"/>
     </row>
-    <row r="180" spans="1:16" ht="48">
+    <row r="180" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A180" s="35" t="s">
         <v>21</v>
       </c>
@@ -65894,7 +65894,7 @@
       <c r="O180" s="31"/>
       <c r="P180" s="31"/>
     </row>
-    <row r="181" spans="1:16" ht="30">
+    <row r="181" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A181" s="25" t="s">
         <v>21</v>
       </c>
@@ -65932,7 +65932,7 @@
       <c r="O181" s="21"/>
       <c r="P181" s="21"/>
     </row>
-    <row r="182" spans="1:16" ht="48">
+    <row r="182" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A182" s="25" t="s">
         <v>21</v>
       </c>
@@ -65968,7 +65968,7 @@
       <c r="O182" s="21"/>
       <c r="P182" s="21"/>
     </row>
-    <row r="183" spans="1:16" ht="240">
+    <row r="183" spans="1:16" ht="240" x14ac:dyDescent="0.2">
       <c r="A183" s="35" t="s">
         <v>21</v>
       </c>
@@ -66006,7 +66006,7 @@
       <c r="O183" s="31"/>
       <c r="P183" s="31"/>
     </row>
-    <row r="184" spans="1:16" ht="409.6">
+    <row r="184" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A184" s="25" t="s">
         <v>21</v>
       </c>
@@ -66046,7 +66046,7 @@
       <c r="O184" s="21"/>
       <c r="P184" s="21"/>
     </row>
-    <row r="185" spans="1:16" ht="32.1">
+    <row r="185" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A185" s="25" t="s">
         <v>21</v>
       </c>
@@ -66084,7 +66084,7 @@
       <c r="O185" s="21"/>
       <c r="P185" s="21"/>
     </row>
-    <row r="186" spans="1:16" ht="303.95">
+    <row r="186" spans="1:16" ht="304" x14ac:dyDescent="0.2">
       <c r="A186" s="35" t="s">
         <v>21</v>
       </c>
@@ -66124,7 +66124,7 @@
       <c r="O186" s="31"/>
       <c r="P186" s="31"/>
     </row>
-    <row r="187" spans="1:16" ht="30">
+    <row r="187" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A187" s="35" t="s">
         <v>21</v>
       </c>
@@ -66160,7 +66160,7 @@
       <c r="O187" s="31"/>
       <c r="P187" s="31"/>
     </row>
-    <row r="188" spans="1:16" ht="93.95">
+    <row r="188" spans="1:16" ht="94" x14ac:dyDescent="0.2">
       <c r="A188" s="25" t="s">
         <v>21</v>
       </c>
@@ -66196,7 +66196,7 @@
       <c r="O188" s="21"/>
       <c r="P188" s="21"/>
     </row>
-    <row r="189" spans="1:16" ht="32.1">
+    <row r="189" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A189" s="35" t="s">
         <v>21</v>
       </c>
@@ -66232,7 +66232,7 @@
       <c r="O189" s="31"/>
       <c r="P189" s="31"/>
     </row>
-    <row r="190" spans="1:16" ht="216">
+    <row r="190" spans="1:16" ht="204" x14ac:dyDescent="0.2">
       <c r="A190" s="25" t="s">
         <v>21</v>
       </c>
@@ -66270,7 +66270,7 @@
       <c r="O190" s="21"/>
       <c r="P190" s="21"/>
     </row>
-    <row r="191" spans="1:16" ht="84">
+    <row r="191" spans="1:16" ht="72" x14ac:dyDescent="0.2">
       <c r="A191" s="35" t="s">
         <v>21</v>
       </c>
@@ -66308,7 +66308,7 @@
       <c r="O191" s="31"/>
       <c r="P191" s="31"/>
     </row>
-    <row r="192" spans="1:16" ht="228">
+    <row r="192" spans="1:16" ht="228" x14ac:dyDescent="0.2">
       <c r="A192" s="35" t="s">
         <v>21</v>
       </c>
@@ -66356,7 +66356,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="60">
+    <row r="193" spans="1:16" ht="60" x14ac:dyDescent="0.2">
       <c r="A193" s="25" t="s">
         <v>21</v>
       </c>
@@ -66394,7 +66394,7 @@
       <c r="O193" s="21"/>
       <c r="P193" s="21"/>
     </row>
-    <row r="194" spans="1:16" ht="36">
+    <row r="194" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A194" s="52" t="s">
         <v>324</v>
       </c>
@@ -66428,7 +66428,7 @@
       <c r="O194" s="21"/>
       <c r="P194" s="21"/>
     </row>
-    <row r="195" spans="1:16" ht="72">
+    <row r="195" spans="1:16" ht="72" x14ac:dyDescent="0.2">
       <c r="A195" s="35" t="s">
         <v>21</v>
       </c>
@@ -66470,7 +66470,7 @@
       <c r="O195" s="31"/>
       <c r="P195" s="31"/>
     </row>
-    <row r="196" spans="1:16" ht="30">
+    <row r="196" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A196" s="35" t="s">
         <v>21</v>
       </c>
@@ -66508,7 +66508,7 @@
       <c r="O196" s="31"/>
       <c r="P196" s="31"/>
     </row>
-    <row r="197" spans="1:16" ht="60">
+    <row r="197" spans="1:16" ht="60" x14ac:dyDescent="0.2">
       <c r="A197" s="25" t="s">
         <v>21</v>
       </c>
@@ -66546,7 +66546,7 @@
       <c r="O197" s="21"/>
       <c r="P197" s="21"/>
     </row>
-    <row r="198" spans="1:16" ht="75">
+    <row r="198" spans="1:16" ht="75" x14ac:dyDescent="0.2">
       <c r="A198" s="25" t="s">
         <v>21</v>
       </c>
@@ -66584,7 +66584,7 @@
       <c r="O198" s="21"/>
       <c r="P198" s="21"/>
     </row>
-    <row r="199" spans="1:16" ht="30">
+    <row r="199" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A199" s="35" t="s">
         <v>21</v>
       </c>
@@ -66622,7 +66622,7 @@
       <c r="O199" s="31"/>
       <c r="P199" s="31"/>
     </row>
-    <row r="200" spans="1:16" ht="30">
+    <row r="200" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A200" s="25" t="s">
         <v>21</v>
       </c>
@@ -66658,7 +66658,7 @@
       <c r="O200" s="21"/>
       <c r="P200" s="21"/>
     </row>
-    <row r="201" spans="1:16" ht="30">
+    <row r="201" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A201" s="35" t="s">
         <v>21</v>
       </c>
@@ -66696,7 +66696,7 @@
       <c r="O201" s="31"/>
       <c r="P201" s="31"/>
     </row>
-    <row r="202" spans="1:16" ht="72">
+    <row r="202" spans="1:16" ht="72" x14ac:dyDescent="0.2">
       <c r="A202" s="25" t="s">
         <v>21</v>
       </c>
@@ -66734,7 +66734,7 @@
       <c r="O202" s="21"/>
       <c r="P202" s="21"/>
     </row>
-    <row r="203" spans="1:16" ht="30">
+    <row r="203" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A203" s="25" t="s">
         <v>21</v>
       </c>
@@ -66766,7 +66766,7 @@
       <c r="O203" s="21"/>
       <c r="P203" s="21"/>
     </row>
-    <row r="204" spans="1:16" ht="327.95">
+    <row r="204" spans="1:16" ht="328" x14ac:dyDescent="0.2">
       <c r="A204" s="35" t="s">
         <v>21</v>
       </c>
@@ -66806,7 +66806,7 @@
       <c r="O204" s="31"/>
       <c r="P204" s="31"/>
     </row>
-    <row r="205" spans="1:16" ht="60">
+    <row r="205" spans="1:16" ht="60" x14ac:dyDescent="0.2">
       <c r="A205" s="25" t="s">
         <v>21</v>
       </c>
@@ -66840,7 +66840,7 @@
       <c r="O205" s="21"/>
       <c r="P205" s="21"/>
     </row>
-    <row r="206" spans="1:16" ht="111.95">
+    <row r="206" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A206" s="35" t="s">
         <v>21</v>
       </c>
@@ -66880,7 +66880,7 @@
       <c r="O206" s="31"/>
       <c r="P206" s="31"/>
     </row>
-    <row r="207" spans="1:16" ht="36">
+    <row r="207" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A207" s="35" t="s">
         <v>21</v>
       </c>
@@ -66914,7 +66914,7 @@
       <c r="O207" s="31"/>
       <c r="P207" s="31"/>
     </row>
-    <row r="208" spans="1:16" ht="36">
+    <row r="208" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A208" s="35" t="s">
         <v>21</v>
       </c>
@@ -66948,7 +66948,7 @@
       <c r="O208" s="31"/>
       <c r="P208" s="31"/>
     </row>
-    <row r="209" spans="1:16" ht="32.1">
+    <row r="209" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A209" s="25" t="s">
         <v>21</v>
       </c>
@@ -66982,7 +66982,7 @@
       <c r="O209" s="21"/>
       <c r="P209" s="21"/>
     </row>
-    <row r="210" spans="1:16" ht="36">
+    <row r="210" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A210" s="35" t="s">
         <v>21</v>
       </c>
@@ -67016,7 +67016,7 @@
       <c r="O210" s="31"/>
       <c r="P210" s="31"/>
     </row>
-    <row r="211" spans="1:16" ht="63.95">
+    <row r="211" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A211" s="25" t="s">
         <v>21</v>
       </c>
@@ -67052,7 +67052,7 @@
       <c r="O211" s="21"/>
       <c r="P211" s="21"/>
     </row>
-    <row r="212" spans="1:16" ht="36">
+    <row r="212" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A212" s="35" t="s">
         <v>21</v>
       </c>
@@ -67086,7 +67086,7 @@
       <c r="O212" s="31"/>
       <c r="P212" s="31"/>
     </row>
-    <row r="213" spans="1:16" ht="105">
+    <row r="213" spans="1:16" ht="105" x14ac:dyDescent="0.2">
       <c r="A213" s="25" t="s">
         <v>21</v>
       </c>
@@ -67122,7 +67122,7 @@
       <c r="O213" s="21"/>
       <c r="P213" s="21"/>
     </row>
-    <row r="214" spans="1:16" ht="48">
+    <row r="214" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A214" s="25" t="s">
         <v>21</v>
       </c>
@@ -67160,7 +67160,7 @@
       <c r="O214" s="21"/>
       <c r="P214" s="21"/>
     </row>
-    <row r="215" spans="1:16" ht="365.1">
+    <row r="215" spans="1:16" ht="365" x14ac:dyDescent="0.2">
       <c r="A215" s="25" t="s">
         <v>21</v>
       </c>
@@ -67195,7 +67195,7 @@
       <c r="O215" s="21"/>
       <c r="P215" s="21"/>
     </row>
-    <row r="216" spans="1:16" ht="30">
+    <row r="216" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A216" s="25" t="s">
         <v>21</v>
       </c>
@@ -67231,7 +67231,7 @@
       <c r="O216" s="21"/>
       <c r="P216" s="21"/>
     </row>
-    <row r="217" spans="1:16" ht="30">
+    <row r="217" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A217" s="25" t="s">
         <v>21</v>
       </c>
@@ -67263,7 +67263,7 @@
       <c r="O217" s="21"/>
       <c r="P217" s="21"/>
     </row>
-    <row r="218" spans="1:16" ht="30">
+    <row r="218" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A218" s="25" t="s">
         <v>21</v>
       </c>
@@ -67299,7 +67299,7 @@
       <c r="O218" s="21"/>
       <c r="P218" s="21"/>
     </row>
-    <row r="219" spans="1:16" ht="30">
+    <row r="219" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A219" s="25" t="s">
         <v>21</v>
       </c>
@@ -67331,7 +67331,7 @@
       <c r="O219" s="21"/>
       <c r="P219" s="21"/>
     </row>
-    <row r="220" spans="1:16" ht="32.1">
+    <row r="220" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A220" s="25" t="s">
         <v>21</v>
       </c>
@@ -67365,7 +67365,7 @@
       <c r="O220" s="21"/>
       <c r="P220" s="21"/>
     </row>
-    <row r="221" spans="1:16" ht="32.1">
+    <row r="221" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A221" s="25" t="s">
         <v>21</v>
       </c>
@@ -67395,7 +67395,7 @@
       <c r="O221" s="21"/>
       <c r="P221" s="21"/>
     </row>
-    <row r="222" spans="1:16" ht="30">
+    <row r="222" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A222" s="35" t="s">
         <v>21</v>
       </c>
@@ -67429,7 +67429,7 @@
       <c r="O222" s="31"/>
       <c r="P222" s="31"/>
     </row>
-    <row r="223" spans="1:16" ht="48">
+    <row r="223" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A223" s="35" t="s">
         <v>21</v>
       </c>
@@ -67463,7 +67463,7 @@
       <c r="O223" s="31"/>
       <c r="P223" s="31"/>
     </row>
-    <row r="224" spans="1:16" ht="192">
+    <row r="224" spans="1:16" ht="192" x14ac:dyDescent="0.2">
       <c r="A224" s="35" t="s">
         <v>21</v>
       </c>
@@ -67501,7 +67501,7 @@
       <c r="O224" s="31"/>
       <c r="P224" s="31"/>
     </row>
-    <row r="225" spans="1:16" ht="240">
+    <row r="225" spans="1:16" ht="240" x14ac:dyDescent="0.2">
       <c r="A225" s="25" t="s">
         <v>21</v>
       </c>
@@ -67537,7 +67537,7 @@
       <c r="O225" s="21"/>
       <c r="P225" s="21"/>
     </row>
-    <row r="226" spans="1:16" ht="30">
+    <row r="226" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A226" s="25" t="s">
         <v>21</v>
       </c>
@@ -67573,7 +67573,7 @@
       <c r="O226" s="21"/>
       <c r="P226" s="21"/>
     </row>
-    <row r="227" spans="1:16" ht="30">
+    <row r="227" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A227" s="35" t="s">
         <v>21</v>
       </c>
@@ -67607,7 +67607,7 @@
       <c r="O227" s="31"/>
       <c r="P227" s="31"/>
     </row>
-    <row r="228" spans="1:16" ht="30">
+    <row r="228" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A228" s="25" t="s">
         <v>21</v>
       </c>
@@ -67647,7 +67647,7 @@
       <c r="O228" s="51"/>
       <c r="P228" s="51"/>
     </row>
-    <row r="229" spans="1:16" ht="96">
+    <row r="229" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A229" s="25" t="s">
         <v>21</v>
       </c>
@@ -67689,7 +67689,7 @@
       <c r="O229" s="21"/>
       <c r="P229" s="21"/>
     </row>
-    <row r="230" spans="1:16" ht="30">
+    <row r="230" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A230" s="25" t="s">
         <v>21</v>
       </c>
@@ -67723,7 +67723,7 @@
       <c r="O230" s="21"/>
       <c r="P230" s="21"/>
     </row>
-    <row r="231" spans="1:16" ht="48">
+    <row r="231" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A231" s="25" t="s">
         <v>21</v>
       </c>
@@ -67759,7 +67759,7 @@
       <c r="O231" s="21"/>
       <c r="P231" s="21"/>
     </row>
-    <row r="232" spans="1:16" ht="30">
+    <row r="232" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A232" s="25" t="s">
         <v>21</v>
       </c>
@@ -67791,7 +67791,7 @@
       <c r="O232" s="21"/>
       <c r="P232" s="21"/>
     </row>
-    <row r="233" spans="1:16" s="24" customFormat="1" ht="96">
+    <row r="233" spans="1:16" s="24" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A233" s="25" t="s">
         <v>21</v>
       </c>
@@ -67833,7 +67833,7 @@
       <c r="O233" s="21"/>
       <c r="P233" s="21"/>
     </row>
-    <row r="234" spans="1:16" ht="30">
+    <row r="234" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A234" s="25" t="s">
         <v>21</v>
       </c>
@@ -67869,7 +67869,7 @@
       <c r="O234" s="21"/>
       <c r="P234" s="21"/>
     </row>
-    <row r="235" spans="1:16" ht="156">
+    <row r="235" spans="1:16" ht="156" x14ac:dyDescent="0.2">
       <c r="A235" s="35" t="s">
         <v>21</v>
       </c>
@@ -67907,7 +67907,7 @@
       <c r="O235" s="31"/>
       <c r="P235" s="31"/>
     </row>
-    <row r="236" spans="1:16" ht="393.95">
+    <row r="236" spans="1:16" ht="394" x14ac:dyDescent="0.2">
       <c r="A236" s="25" t="s">
         <v>21</v>
       </c>
@@ -67955,7 +67955,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="30">
+    <row r="237" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A237" s="25" t="s">
         <v>21</v>
       </c>
@@ -67991,7 +67991,7 @@
       <c r="O237" s="21"/>
       <c r="P237" s="21"/>
     </row>
-    <row r="238" spans="1:16" ht="30">
+    <row r="238" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A238" s="35" t="s">
         <v>21</v>
       </c>
@@ -68027,7 +68027,7 @@
       <c r="O238" s="31"/>
       <c r="P238" s="31"/>
     </row>
-    <row r="239" spans="1:16" ht="32.1">
+    <row r="239" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A239" s="25" t="s">
         <v>21</v>
       </c>
@@ -68059,7 +68059,7 @@
       <c r="O239" s="21"/>
       <c r="P239" s="21"/>
     </row>
-    <row r="240" spans="1:16" ht="63.95">
+    <row r="240" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A240" s="35" t="s">
         <v>21</v>
       </c>
@@ -68097,7 +68097,7 @@
       <c r="O240" s="31"/>
       <c r="P240" s="31"/>
     </row>
-    <row r="241" spans="1:16" ht="72">
+    <row r="241" spans="1:16" ht="72" x14ac:dyDescent="0.2">
       <c r="A241" s="25" t="s">
         <v>21</v>
       </c>
@@ -68131,7 +68131,7 @@
       <c r="O241" s="21"/>
       <c r="P241" s="21"/>
     </row>
-    <row r="242" spans="1:16" ht="72">
+    <row r="242" spans="1:16" ht="72" x14ac:dyDescent="0.2">
       <c r="A242" s="25" t="s">
         <v>21</v>
       </c>
@@ -68171,7 +68171,7 @@
       <c r="O242" s="21"/>
       <c r="P242" s="21"/>
     </row>
-    <row r="243" spans="1:16" ht="36">
+    <row r="243" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A243" s="25" t="s">
         <v>21</v>
       </c>
@@ -68207,7 +68207,7 @@
       <c r="O243" s="21"/>
       <c r="P243" s="21"/>
     </row>
-    <row r="244" spans="1:16" ht="36">
+    <row r="244" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A244" s="35" t="s">
         <v>21</v>
       </c>
@@ -68241,7 +68241,7 @@
       <c r="O244" s="31"/>
       <c r="P244" s="31"/>
     </row>
-    <row r="245" spans="1:16" ht="168">
+    <row r="245" spans="1:16" ht="168" x14ac:dyDescent="0.2">
       <c r="A245" s="25" t="s">
         <v>21</v>
       </c>
@@ -68281,7 +68281,7 @@
       <c r="O245" s="31"/>
       <c r="P245" s="31"/>
     </row>
-    <row r="246" spans="1:16" ht="60">
+    <row r="246" spans="1:16" ht="60" x14ac:dyDescent="0.2">
       <c r="A246" s="25" t="s">
         <v>21</v>
       </c>
@@ -68323,7 +68323,7 @@
       <c r="O246" s="21"/>
       <c r="P246" s="21"/>
     </row>
-    <row r="247" spans="1:16" ht="108">
+    <row r="247" spans="1:16" ht="108" x14ac:dyDescent="0.2">
       <c r="A247" s="25" t="s">
         <v>21</v>
       </c>
@@ -68361,7 +68361,7 @@
       <c r="O247" s="21"/>
       <c r="P247" s="21"/>
     </row>
-    <row r="248" spans="1:16" ht="144">
+    <row r="248" spans="1:16" ht="128" x14ac:dyDescent="0.2">
       <c r="A248" s="25" t="s">
         <v>21</v>
       </c>
@@ -68401,7 +68401,7 @@
       <c r="O248" s="21"/>
       <c r="P248" s="21"/>
     </row>
-    <row r="249" spans="1:16" ht="30">
+    <row r="249" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A249" s="35" t="s">
         <v>21</v>
       </c>
@@ -68433,7 +68433,7 @@
       <c r="O249" s="31"/>
       <c r="P249" s="31"/>
     </row>
-    <row r="250" spans="1:16" ht="30">
+    <row r="250" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A250" s="25" t="s">
         <v>21</v>
       </c>
@@ -68467,7 +68467,7 @@
       <c r="O250" s="21"/>
       <c r="P250" s="21"/>
     </row>
-    <row r="251" spans="1:16" ht="30">
+    <row r="251" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A251" s="35" t="s">
         <v>21</v>
       </c>
@@ -68501,7 +68501,7 @@
       <c r="O251" s="31"/>
       <c r="P251" s="31"/>
     </row>
-    <row r="252" spans="1:16" ht="30">
+    <row r="252" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A252" s="25" t="s">
         <v>21</v>
       </c>
@@ -68533,7 +68533,7 @@
       <c r="O252" s="21"/>
       <c r="P252" s="21"/>
     </row>
-    <row r="253" spans="1:16" ht="30">
+    <row r="253" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A253" s="25" t="s">
         <v>21</v>
       </c>
@@ -68567,7 +68567,7 @@
       <c r="O253" s="21"/>
       <c r="P253" s="21"/>
     </row>
-    <row r="254" spans="1:16" ht="45">
+    <row r="254" spans="1:16" ht="45" x14ac:dyDescent="0.2">
       <c r="A254" s="35" t="s">
         <v>21</v>
       </c>
@@ -68601,7 +68601,7 @@
       <c r="O254" s="31"/>
       <c r="P254" s="31"/>
     </row>
-    <row r="255" spans="1:16" ht="132">
+    <row r="255" spans="1:16" ht="132" x14ac:dyDescent="0.2">
       <c r="A255" s="35" t="s">
         <v>21</v>
       </c>
@@ -68639,7 +68639,7 @@
       <c r="O255" s="31"/>
       <c r="P255" s="31"/>
     </row>
-    <row r="256" spans="1:16" ht="30">
+    <row r="256" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A256" s="25" t="s">
         <v>21</v>
       </c>
@@ -68673,7 +68673,7 @@
       <c r="O256" s="21"/>
       <c r="P256" s="21"/>
     </row>
-    <row r="257" spans="1:16" ht="30">
+    <row r="257" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A257" s="25" t="s">
         <v>21</v>
       </c>
@@ -68705,7 +68705,7 @@
       <c r="O257" s="21"/>
       <c r="P257" s="21"/>
     </row>
-    <row r="258" spans="1:16" ht="30">
+    <row r="258" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A258" s="35" t="s">
         <v>21</v>
       </c>
@@ -68739,7 +68739,7 @@
       <c r="O258" s="31"/>
       <c r="P258" s="31"/>
     </row>
-    <row r="259" spans="1:16" ht="30">
+    <row r="259" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A259" s="25" t="s">
         <v>21</v>
       </c>
@@ -68773,7 +68773,7 @@
       <c r="O259" s="21"/>
       <c r="P259" s="21"/>
     </row>
-    <row r="260" spans="1:16" ht="30">
+    <row r="260" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A260" s="25" t="s">
         <v>21</v>
       </c>
@@ -68807,7 +68807,7 @@
       <c r="O260" s="21"/>
       <c r="P260" s="21"/>
     </row>
-    <row r="261" spans="1:16" ht="30">
+    <row r="261" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A261" s="25" t="s">
         <v>21</v>
       </c>
@@ -68839,7 +68839,7 @@
       <c r="O261" s="21"/>
       <c r="P261" s="21"/>
     </row>
-    <row r="262" spans="1:16" ht="30">
+    <row r="262" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A262" s="25" t="s">
         <v>21</v>
       </c>
@@ -68871,7 +68871,7 @@
       <c r="O262" s="21"/>
       <c r="P262" s="21"/>
     </row>
-    <row r="263" spans="1:16" ht="409.6">
+    <row r="263" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A263" s="25" t="s">
         <v>21</v>
       </c>
@@ -68908,7 +68908,7 @@
       <c r="O263" s="21"/>
       <c r="P263" s="21"/>
     </row>
-    <row r="264" spans="1:16" ht="30">
+    <row r="264" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A264" s="25" t="s">
         <v>21</v>
       </c>
@@ -68944,7 +68944,7 @@
       <c r="O264" s="21"/>
       <c r="P264" s="21"/>
     </row>
-    <row r="265" spans="1:16" ht="30">
+    <row r="265" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A265" s="25" t="s">
         <v>21</v>
       </c>
@@ -68978,7 +68978,7 @@
       <c r="O265" s="21"/>
       <c r="P265" s="21"/>
     </row>
-    <row r="266" spans="1:16" ht="30">
+    <row r="266" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A266" s="25" t="s">
         <v>21</v>
       </c>
@@ -69010,7 +69010,7 @@
       <c r="O266" s="21"/>
       <c r="P266" s="21"/>
     </row>
-    <row r="267" spans="1:16" ht="60">
+    <row r="267" spans="1:16" ht="60" x14ac:dyDescent="0.2">
       <c r="A267" s="35" t="s">
         <v>21</v>
       </c>
@@ -69046,7 +69046,7 @@
       <c r="O267" s="31"/>
       <c r="P267" s="31"/>
     </row>
-    <row r="268" spans="1:16" ht="30">
+    <row r="268" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A268" s="35" t="s">
         <v>21</v>
       </c>
@@ -69082,7 +69082,7 @@
       <c r="O268" s="31"/>
       <c r="P268" s="31"/>
     </row>
-    <row r="269" spans="1:16" ht="30">
+    <row r="269" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A269" s="25" t="s">
         <v>21</v>
       </c>
@@ -69114,7 +69114,7 @@
       <c r="O269" s="21"/>
       <c r="P269" s="21"/>
     </row>
-    <row r="270" spans="1:16" ht="60">
+    <row r="270" spans="1:16" ht="60" x14ac:dyDescent="0.2">
       <c r="A270" s="25" t="s">
         <v>21</v>
       </c>
@@ -69148,7 +69148,7 @@
       <c r="O270" s="21"/>
       <c r="P270" s="21"/>
     </row>
-    <row r="271" spans="1:16" ht="30">
+    <row r="271" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A271" s="35" t="s">
         <v>21</v>
       </c>
@@ -69184,7 +69184,7 @@
       <c r="O271" s="31"/>
       <c r="P271" s="31"/>
     </row>
-    <row r="272" spans="1:16" ht="30">
+    <row r="272" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A272" s="35" t="s">
         <v>21</v>
       </c>
@@ -69216,7 +69216,7 @@
       <c r="O272" s="31"/>
       <c r="P272" s="31"/>
     </row>
-    <row r="273" spans="1:16" ht="30">
+    <row r="273" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A273" s="25" t="s">
         <v>21</v>
       </c>
@@ -69248,7 +69248,7 @@
       <c r="O273" s="21"/>
       <c r="P273" s="21"/>
     </row>
-    <row r="274" spans="1:16" ht="30">
+    <row r="274" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A274" s="25" t="s">
         <v>21</v>
       </c>
@@ -69280,7 +69280,7 @@
       <c r="O274" s="21"/>
       <c r="P274" s="21"/>
     </row>
-    <row r="275" spans="1:16" ht="30">
+    <row r="275" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A275" s="25" t="s">
         <v>21</v>
       </c>
@@ -69314,7 +69314,7 @@
       <c r="O275" s="21"/>
       <c r="P275" s="21"/>
     </row>
-    <row r="276" spans="1:16" ht="90">
+    <row r="276" spans="1:16" ht="90" x14ac:dyDescent="0.2">
       <c r="A276" s="25" t="s">
         <v>21</v>
       </c>
@@ -69348,7 +69348,7 @@
       <c r="O276" s="21"/>
       <c r="P276" s="21"/>
     </row>
-    <row r="277" spans="1:16" ht="60">
+    <row r="277" spans="1:16" ht="60" x14ac:dyDescent="0.2">
       <c r="A277" s="25" t="s">
         <v>21</v>
       </c>
@@ -69384,7 +69384,7 @@
       <c r="O277" s="21"/>
       <c r="P277" s="21"/>
     </row>
-    <row r="278" spans="1:16" ht="48">
+    <row r="278" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A278" s="25" t="s">
         <v>21</v>
       </c>
@@ -69420,7 +69420,7 @@
       <c r="O278" s="21"/>
       <c r="P278" s="21"/>
     </row>
-    <row r="279" spans="1:16" ht="30">
+    <row r="279" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A279" s="35" t="s">
         <v>21</v>
       </c>
@@ -69458,7 +69458,7 @@
       <c r="O279" s="31"/>
       <c r="P279" s="31"/>
     </row>
-    <row r="280" spans="1:16" ht="30">
+    <row r="280" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A280" s="25" t="s">
         <v>21</v>
       </c>
@@ -69496,7 +69496,7 @@
       <c r="O280" s="21"/>
       <c r="P280" s="21"/>
     </row>
-    <row r="281" spans="1:16" ht="48">
+    <row r="281" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A281" s="25" t="s">
         <v>21</v>
       </c>
@@ -69532,7 +69532,7 @@
       <c r="O281" s="31"/>
       <c r="P281" s="31"/>
     </row>
-    <row r="282" spans="1:16" ht="36">
+    <row r="282" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A282" s="25" t="s">
         <v>21</v>
       </c>
@@ -69570,7 +69570,7 @@
       <c r="O282" s="21"/>
       <c r="P282" s="21"/>
     </row>
-    <row r="283" spans="1:16" ht="84">
+    <row r="283" spans="1:16" ht="84" x14ac:dyDescent="0.2">
       <c r="A283" s="25" t="s">
         <v>21</v>
       </c>
@@ -69604,7 +69604,7 @@
       <c r="O283" s="21"/>
       <c r="P283" s="21"/>
     </row>
-    <row r="284" spans="1:16" ht="72">
+    <row r="284" spans="1:16" ht="72" x14ac:dyDescent="0.2">
       <c r="A284" s="25" t="s">
         <v>21</v>
       </c>
@@ -69640,7 +69640,7 @@
       <c r="O284" s="21"/>
       <c r="P284" s="21"/>
     </row>
-    <row r="285" spans="1:16" ht="80.099999999999994">
+    <row r="285" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="A285" s="25" t="s">
         <v>800</v>
       </c>
@@ -69680,7 +69680,7 @@
       <c r="O285" s="21"/>
       <c r="P285" s="21"/>
     </row>
-    <row r="286" spans="1:16" ht="30">
+    <row r="286" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A286" s="25" t="s">
         <v>21</v>
       </c>
@@ -69716,7 +69716,7 @@
       <c r="O286" s="21"/>
       <c r="P286" s="21"/>
     </row>
-    <row r="287" spans="1:16" ht="294">
+    <row r="287" spans="1:16" ht="294" x14ac:dyDescent="0.2">
       <c r="A287" s="25" t="s">
         <v>21</v>
       </c>
@@ -69750,7 +69750,7 @@
       <c r="O287" s="21"/>
       <c r="P287" s="21"/>
     </row>
-    <row r="288" spans="1:16" ht="30">
+    <row r="288" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A288" s="35" t="s">
         <v>21</v>
       </c>
@@ -69786,7 +69786,7 @@
       <c r="O288" s="31"/>
       <c r="P288" s="31"/>
     </row>
-    <row r="289" spans="1:16" ht="32.1">
+    <row r="289" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A289" s="25" t="s">
         <v>21</v>
       </c>
@@ -69822,7 +69822,7 @@
       <c r="O289" s="21"/>
       <c r="P289" s="21"/>
     </row>
-    <row r="290" spans="1:16" ht="30">
+    <row r="290" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A290" s="25" t="s">
         <v>21</v>
       </c>
@@ -69858,7 +69858,7 @@
       <c r="O290" s="21"/>
       <c r="P290" s="21"/>
     </row>
-    <row r="291" spans="1:16" ht="48">
+    <row r="291" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A291" s="25" t="s">
         <v>21</v>
       </c>
@@ -69892,7 +69892,7 @@
       <c r="O291" s="21"/>
       <c r="P291" s="21"/>
     </row>
-    <row r="292" spans="1:16" ht="96">
+    <row r="292" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A292" s="25" t="s">
         <v>21</v>
       </c>
@@ -69928,7 +69928,7 @@
       <c r="O292" s="21"/>
       <c r="P292" s="21"/>
     </row>
-    <row r="293" spans="1:16" ht="159.94999999999999">
+    <row r="293" spans="1:16" ht="160" x14ac:dyDescent="0.2">
       <c r="A293" s="25" t="s">
         <v>21</v>
       </c>
@@ -69968,7 +69968,7 @@
       <c r="O293" s="21"/>
       <c r="P293" s="21"/>
     </row>
-    <row r="294" spans="1:16" ht="60">
+    <row r="294" spans="1:16" ht="60" x14ac:dyDescent="0.2">
       <c r="A294" s="25" t="s">
         <v>21</v>
       </c>
@@ -70000,7 +70000,7 @@
       <c r="O294" s="21"/>
       <c r="P294" s="21"/>
     </row>
-    <row r="295" spans="1:16" ht="30">
+    <row r="295" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A295" s="35" t="s">
         <v>21</v>
       </c>
@@ -70034,7 +70034,7 @@
       <c r="O295" s="31"/>
       <c r="P295" s="31"/>
     </row>
-    <row r="296" spans="1:16" ht="30">
+    <row r="296" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A296" s="25" t="s">
         <v>21</v>
       </c>
@@ -70068,7 +70068,7 @@
       <c r="O296" s="21"/>
       <c r="P296" s="21"/>
     </row>
-    <row r="297" spans="1:16" ht="30">
+    <row r="297" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A297" s="35" t="s">
         <v>21</v>
       </c>
@@ -70104,7 +70104,7 @@
       <c r="O297" s="31"/>
       <c r="P297" s="31"/>
     </row>
-    <row r="298" spans="1:16" ht="72">
+    <row r="298" spans="1:16" ht="72" x14ac:dyDescent="0.2">
       <c r="A298" s="35" t="s">
         <v>21</v>
       </c>
@@ -70140,7 +70140,7 @@
       <c r="O298" s="31"/>
       <c r="P298" s="31"/>
     </row>
-    <row r="299" spans="1:16" ht="32.1">
+    <row r="299" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A299" s="35" t="s">
         <v>21</v>
       </c>
@@ -70177,7 +70177,7 @@
       <c r="O299" s="31"/>
       <c r="P299" s="31"/>
     </row>
-    <row r="300" spans="1:16" ht="96">
+    <row r="300" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="A300" s="61" t="s">
         <v>849</v>
       </c>
@@ -70213,7 +70213,7 @@
       <c r="O300" s="21"/>
       <c r="P300" s="21"/>
     </row>
-    <row r="301" spans="1:16" ht="96">
+    <row r="301" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="A301" s="25" t="s">
         <v>855</v>
       </c>
@@ -70247,7 +70247,7 @@
       <c r="O301" s="21"/>
       <c r="P301" s="21"/>
     </row>
-    <row r="302" spans="1:16" ht="251.1">
+    <row r="302" spans="1:16" ht="251" x14ac:dyDescent="0.2">
       <c r="A302" s="52" t="s">
         <v>849</v>
       </c>
@@ -70283,7 +70283,7 @@
       <c r="O302" s="21"/>
       <c r="P302" s="21"/>
     </row>
-    <row r="303" spans="1:16" ht="409.6">
+    <row r="303" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A303" s="25" t="s">
         <v>855</v>
       </c>
@@ -70317,7 +70317,7 @@
       <c r="O303" s="21"/>
       <c r="P303" s="21"/>
     </row>
-    <row r="304" spans="1:16" ht="409.6">
+    <row r="304" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A304" s="25" t="s">
         <v>864</v>
       </c>
@@ -70353,7 +70353,7 @@
       <c r="O304" s="21"/>
       <c r="P304" s="21"/>
     </row>
-    <row r="305" spans="1:16" ht="240">
+    <row r="305" spans="1:16" ht="240" x14ac:dyDescent="0.2">
       <c r="A305" s="25" t="s">
         <v>869</v>
       </c>
@@ -70389,7 +70389,7 @@
       <c r="O305" s="21"/>
       <c r="P305" s="21"/>
     </row>
-    <row r="306" spans="1:16" ht="409.6">
+    <row r="306" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A306" s="52" t="s">
         <v>874</v>
       </c>
@@ -70425,7 +70425,7 @@
       <c r="O306" s="21"/>
       <c r="P306" s="21"/>
     </row>
-    <row r="307" spans="1:16" ht="409.6">
+    <row r="307" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A307" s="25" t="s">
         <v>879</v>
       </c>
@@ -70461,7 +70461,7 @@
       <c r="O307" s="21"/>
       <c r="P307" s="21"/>
     </row>
-    <row r="308" spans="1:16" ht="30">
+    <row r="308" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A308" s="25" t="s">
         <v>21</v>
       </c>
@@ -70493,7 +70493,7 @@
       <c r="O308" s="21"/>
       <c r="P308" s="21"/>
     </row>
-    <row r="309" spans="1:16" ht="30">
+    <row r="309" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A309" s="35" t="s">
         <v>21</v>
       </c>
@@ -70527,7 +70527,7 @@
       <c r="O309" s="31"/>
       <c r="P309" s="31"/>
     </row>
-    <row r="310" spans="1:16" ht="30">
+    <row r="310" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A310" s="35" t="s">
         <v>21</v>
       </c>
@@ -70557,7 +70557,7 @@
       <c r="O310" s="31"/>
       <c r="P310" s="31"/>
     </row>
-    <row r="311" spans="1:16" ht="96">
+    <row r="311" spans="1:16" ht="84" x14ac:dyDescent="0.2">
       <c r="A311" s="25" t="s">
         <v>21</v>
       </c>
@@ -70593,7 +70593,7 @@
       <c r="O311" s="21"/>
       <c r="P311" s="21"/>
     </row>
-    <row r="312" spans="1:16" ht="30">
+    <row r="312" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A312" s="25" t="s">
         <v>21</v>
       </c>
@@ -70631,7 +70631,7 @@
       <c r="O312" s="21"/>
       <c r="P312" s="21"/>
     </row>
-    <row r="313" spans="1:16" ht="30">
+    <row r="313" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A313" s="35" t="s">
         <v>21</v>
       </c>
@@ -70663,7 +70663,7 @@
       <c r="O313" s="31"/>
       <c r="P313" s="31"/>
     </row>
-    <row r="314" spans="1:16" ht="32.1">
+    <row r="314" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A314" s="25" t="s">
         <v>21</v>
       </c>
@@ -70699,7 +70699,7 @@
       <c r="O314" s="21"/>
       <c r="P314" s="21"/>
     </row>
-    <row r="315" spans="1:16" ht="30">
+    <row r="315" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A315" s="25" t="s">
         <v>21</v>
       </c>
@@ -70735,7 +70735,7 @@
       <c r="O315" s="21"/>
       <c r="P315" s="21"/>
     </row>
-    <row r="316" spans="1:16" ht="30">
+    <row r="316" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A316" s="35" t="s">
         <v>21</v>
       </c>
@@ -70767,7 +70767,7 @@
       <c r="O316" s="31"/>
       <c r="P316" s="31"/>
     </row>
-    <row r="317" spans="1:16" ht="36">
+    <row r="317" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A317" s="35" t="s">
         <v>21</v>
       </c>
@@ -70803,7 +70803,7 @@
       <c r="O317" s="31"/>
       <c r="P317" s="31"/>
     </row>
-    <row r="318" spans="1:16" ht="30">
+    <row r="318" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A318" s="35" t="s">
         <v>21</v>
       </c>
@@ -70833,7 +70833,7 @@
       <c r="O318" s="31"/>
       <c r="P318" s="31"/>
     </row>
-    <row r="319" spans="1:16" ht="30">
+    <row r="319" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A319" s="35" t="s">
         <v>21</v>
       </c>
@@ -70869,7 +70869,7 @@
       <c r="O319" s="31"/>
       <c r="P319" s="31"/>
     </row>
-    <row r="320" spans="1:16" ht="96">
+    <row r="320" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A320" s="35" t="s">
         <v>21</v>
       </c>
@@ -70911,7 +70911,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="321" spans="1:16" ht="30">
+    <row r="321" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A321" s="25" t="s">
         <v>21</v>
       </c>
@@ -70943,7 +70943,7 @@
       <c r="O321" s="21"/>
       <c r="P321" s="21"/>
     </row>
-    <row r="322" spans="1:16" ht="30">
+    <row r="322" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A322" s="35" t="s">
         <v>21</v>
       </c>
@@ -70977,7 +70977,7 @@
       <c r="O322" s="31"/>
       <c r="P322" s="31"/>
     </row>
-    <row r="323" spans="1:16" ht="30">
+    <row r="323" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A323" s="25" t="s">
         <v>21</v>
       </c>
@@ -71013,7 +71013,7 @@
       <c r="O323" s="21"/>
       <c r="P323" s="21"/>
     </row>
-    <row r="324" spans="1:16" ht="30">
+    <row r="324" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A324" s="35" t="s">
         <v>21</v>
       </c>
@@ -71045,7 +71045,7 @@
       <c r="O324" s="31"/>
       <c r="P324" s="31"/>
     </row>
-    <row r="325" spans="1:16" ht="30">
+    <row r="325" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A325" s="35" t="s">
         <v>21</v>
       </c>
@@ -71077,7 +71077,7 @@
       <c r="O325" s="31"/>
       <c r="P325" s="31"/>
     </row>
-    <row r="326" spans="1:16" ht="96">
+    <row r="326" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A326" s="25" t="s">
         <v>21</v>
       </c>
@@ -71113,7 +71113,7 @@
       <c r="O326" s="21"/>
       <c r="P326" s="21"/>
     </row>
-    <row r="327" spans="1:16" ht="156">
+    <row r="327" spans="1:16" ht="156" x14ac:dyDescent="0.2">
       <c r="A327" s="25" t="s">
         <v>21</v>
       </c>
@@ -71147,7 +71147,7 @@
       <c r="O327" s="21"/>
       <c r="P327" s="21"/>
     </row>
-    <row r="328" spans="1:16" ht="30">
+    <row r="328" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A328" s="25" t="s">
         <v>21</v>
       </c>
@@ -71181,7 +71181,7 @@
       <c r="O328" s="21"/>
       <c r="P328" s="21"/>
     </row>
-    <row r="329" spans="1:16" ht="48">
+    <row r="329" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A329" s="35" t="s">
         <v>21</v>
       </c>
@@ -71215,7 +71215,7 @@
       <c r="O329" s="31"/>
       <c r="P329" s="31"/>
     </row>
-    <row r="330" spans="1:16" ht="30">
+    <row r="330" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A330" s="25" t="s">
         <v>21</v>
       </c>
@@ -71251,7 +71251,7 @@
       <c r="O330" s="21"/>
       <c r="P330" s="21"/>
     </row>
-    <row r="331" spans="1:16" ht="30">
+    <row r="331" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A331" s="35" t="s">
         <v>21</v>
       </c>
@@ -71287,7 +71287,7 @@
       <c r="O331" s="31"/>
       <c r="P331" s="31"/>
     </row>
-    <row r="332" spans="1:16" ht="108">
+    <row r="332" spans="1:16" ht="108" x14ac:dyDescent="0.2">
       <c r="A332" s="25" t="s">
         <v>21</v>
       </c>
@@ -71325,7 +71325,7 @@
       <c r="O332" s="21"/>
       <c r="P332" s="21"/>
     </row>
-    <row r="333" spans="1:16" ht="30">
+    <row r="333" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A333" s="35" t="s">
         <v>21</v>
       </c>
@@ -71357,7 +71357,7 @@
       <c r="O333" s="31"/>
       <c r="P333" s="31"/>
     </row>
-    <row r="334" spans="1:16" ht="15.95">
+    <row r="334" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="35" t="s">
         <v>324</v>
       </c>
@@ -71389,7 +71389,7 @@
       <c r="O334" s="31"/>
       <c r="P334" s="31"/>
     </row>
-    <row r="335" spans="1:16" ht="15.95">
+    <row r="335" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="25" t="s">
         <v>324</v>
       </c>
@@ -71421,7 +71421,7 @@
       <c r="O335" s="21"/>
       <c r="P335" s="21"/>
     </row>
-    <row r="336" spans="1:16" ht="30">
+    <row r="336" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A336" s="25" t="s">
         <v>21</v>
       </c>
@@ -71455,7 +71455,7 @@
       <c r="O336" s="21"/>
       <c r="P336" s="21"/>
     </row>
-    <row r="337" spans="1:16" ht="30">
+    <row r="337" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A337" s="25" t="s">
         <v>21</v>
       </c>
@@ -71487,7 +71487,7 @@
       <c r="O337" s="21"/>
       <c r="P337" s="21"/>
     </row>
-    <row r="338" spans="1:16" ht="32.1">
+    <row r="338" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A338" s="25" t="s">
         <v>21</v>
       </c>
@@ -71521,7 +71521,7 @@
       <c r="O338" s="21"/>
       <c r="P338" s="21"/>
     </row>
-    <row r="339" spans="1:16" ht="30">
+    <row r="339" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A339" s="35" t="s">
         <v>21</v>
       </c>
@@ -71555,7 +71555,7 @@
       <c r="O339" s="31"/>
       <c r="P339" s="31"/>
     </row>
-    <row r="340" spans="1:16" ht="48">
+    <row r="340" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A340" s="25" t="s">
         <v>21</v>
       </c>
@@ -71591,7 +71591,7 @@
       <c r="O340" s="21"/>
       <c r="P340" s="21"/>
     </row>
-    <row r="341" spans="1:16" ht="30">
+    <row r="341" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A341" s="35" t="s">
         <v>21</v>
       </c>
@@ -71623,7 +71623,7 @@
       <c r="O341" s="31"/>
       <c r="P341" s="31"/>
     </row>
-    <row r="342" spans="1:16" ht="90">
+    <row r="342" spans="1:16" ht="90" x14ac:dyDescent="0.2">
       <c r="A342" s="25" t="s">
         <v>21</v>
       </c>
@@ -71657,7 +71657,7 @@
       <c r="O342" s="21"/>
       <c r="P342" s="21"/>
     </row>
-    <row r="343" spans="1:16" ht="30">
+    <row r="343" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A343" s="25" t="s">
         <v>21</v>
       </c>
@@ -71689,7 +71689,7 @@
       <c r="O343" s="21"/>
       <c r="P343" s="21"/>
     </row>
-    <row r="344" spans="1:16" ht="30">
+    <row r="344" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A344" s="35" t="s">
         <v>21</v>
       </c>
@@ -71721,7 +71721,7 @@
       <c r="O344" s="31"/>
       <c r="P344" s="31"/>
     </row>
-    <row r="345" spans="1:16" ht="30">
+    <row r="345" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A345" s="35" t="s">
         <v>21</v>
       </c>
@@ -71753,7 +71753,7 @@
       <c r="O345" s="31"/>
       <c r="P345" s="31"/>
     </row>
-    <row r="346" spans="1:16" ht="30">
+    <row r="346" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A346" s="25" t="s">
         <v>21</v>
       </c>
@@ -71785,7 +71785,7 @@
       <c r="O346" s="21"/>
       <c r="P346" s="21"/>
     </row>
-    <row r="347" spans="1:16" ht="60">
+    <row r="347" spans="1:16" ht="60" x14ac:dyDescent="0.2">
       <c r="A347" s="35" t="s">
         <v>21</v>
       </c>
@@ -71817,7 +71817,7 @@
       <c r="O347" s="31"/>
       <c r="P347" s="31"/>
     </row>
-    <row r="348" spans="1:16" ht="60">
+    <row r="348" spans="1:16" ht="60" x14ac:dyDescent="0.2">
       <c r="A348" s="25" t="s">
         <v>21</v>
       </c>
@@ -71849,7 +71849,7 @@
       <c r="O348" s="21"/>
       <c r="P348" s="21"/>
     </row>
-    <row r="349" spans="1:16" ht="48">
+    <row r="349" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A349" s="35" t="s">
         <v>21</v>
       </c>
@@ -71885,7 +71885,7 @@
       <c r="O349" s="31"/>
       <c r="P349" s="31"/>
     </row>
-    <row r="350" spans="1:16" ht="45">
+    <row r="350" spans="1:16" ht="45" x14ac:dyDescent="0.2">
       <c r="A350" s="25" t="s">
         <v>21</v>
       </c>
@@ -71919,7 +71919,7 @@
       <c r="O350" s="21"/>
       <c r="P350" s="21"/>
     </row>
-    <row r="351" spans="1:16" ht="30">
+    <row r="351" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A351" s="35" t="s">
         <v>21</v>
       </c>
@@ -71953,7 +71953,7 @@
       <c r="O351" s="31"/>
       <c r="P351" s="31"/>
     </row>
-    <row r="352" spans="1:16" ht="30">
+    <row r="352" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A352" s="25" t="s">
         <v>21</v>
       </c>
@@ -71985,7 +71985,7 @@
       <c r="O352" s="21"/>
       <c r="P352" s="21"/>
     </row>
-    <row r="353" spans="1:16" ht="30">
+    <row r="353" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A353" s="35" t="s">
         <v>21</v>
       </c>
@@ -72017,7 +72017,7 @@
       <c r="O353" s="31"/>
       <c r="P353" s="31"/>
     </row>
-    <row r="354" spans="1:16" ht="30">
+    <row r="354" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A354" s="25" t="s">
         <v>21</v>
       </c>
@@ -72049,7 +72049,7 @@
       <c r="O354" s="21"/>
       <c r="P354" s="21"/>
     </row>
-    <row r="355" spans="1:16" ht="30">
+    <row r="355" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A355" s="35" t="s">
         <v>21</v>
       </c>
@@ -72081,7 +72081,7 @@
       <c r="O355" s="31"/>
       <c r="P355" s="31"/>
     </row>
-    <row r="356" spans="1:16" ht="30">
+    <row r="356" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A356" s="25" t="s">
         <v>21</v>
       </c>
@@ -72113,7 +72113,7 @@
       <c r="O356" s="21"/>
       <c r="P356" s="21"/>
     </row>
-    <row r="357" spans="1:16" ht="30">
+    <row r="357" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A357" s="35" t="s">
         <v>21</v>
       </c>
@@ -72145,7 +72145,7 @@
       <c r="O357" s="31"/>
       <c r="P357" s="31"/>
     </row>
-    <row r="358" spans="1:16" ht="30">
+    <row r="358" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A358" s="25" t="s">
         <v>21</v>
       </c>
@@ -72177,7 +72177,7 @@
       <c r="O358" s="21"/>
       <c r="P358" s="21"/>
     </row>
-    <row r="359" spans="1:16" ht="48">
+    <row r="359" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A359" s="35" t="s">
         <v>21</v>
       </c>
@@ -72211,7 +72211,7 @@
       <c r="O359" s="31"/>
       <c r="P359" s="31"/>
     </row>
-    <row r="360" spans="1:16" ht="30">
+    <row r="360" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A360" s="35" t="s">
         <v>21</v>
       </c>
@@ -72245,7 +72245,7 @@
       <c r="O360" s="31"/>
       <c r="P360" s="31"/>
     </row>
-    <row r="361" spans="1:16" ht="48">
+    <row r="361" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A361" s="25" t="s">
         <v>21</v>
       </c>
@@ -72279,7 +72279,7 @@
       <c r="O361" s="21"/>
       <c r="P361" s="21"/>
     </row>
-    <row r="362" spans="1:16" ht="30">
+    <row r="362" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A362" s="25" t="s">
         <v>21</v>
       </c>
@@ -72311,7 +72311,7 @@
       <c r="O362" s="21"/>
       <c r="P362" s="21"/>
     </row>
-    <row r="363" spans="1:16" ht="30">
+    <row r="363" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A363" s="35" t="s">
         <v>21</v>
       </c>
@@ -72343,7 +72343,7 @@
       <c r="O363" s="31"/>
       <c r="P363" s="31"/>
     </row>
-    <row r="364" spans="1:16" ht="60">
+    <row r="364" spans="1:16" ht="60" x14ac:dyDescent="0.2">
       <c r="A364" s="25" t="s">
         <v>21</v>
       </c>
@@ -72379,7 +72379,7 @@
       <c r="O364" s="21"/>
       <c r="P364" s="21"/>
     </row>
-    <row r="365" spans="1:16" ht="48">
+    <row r="365" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A365" s="35" t="s">
         <v>21</v>
       </c>
@@ -72417,7 +72417,7 @@
       <c r="O365" s="31"/>
       <c r="P365" s="31"/>
     </row>
-    <row r="366" spans="1:16" ht="48">
+    <row r="366" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A366" s="25" t="s">
         <v>21</v>
       </c>
@@ -72453,7 +72453,7 @@
       <c r="O366" s="21"/>
       <c r="P366" s="21"/>
     </row>
-    <row r="367" spans="1:16" ht="30">
+    <row r="367" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A367" s="25" t="s">
         <v>21</v>
       </c>
@@ -72485,7 +72485,7 @@
       <c r="O367" s="21"/>
       <c r="P367" s="21"/>
     </row>
-    <row r="368" spans="1:16" ht="45">
+    <row r="368" spans="1:16" ht="45" x14ac:dyDescent="0.2">
       <c r="A368" s="25" t="s">
         <v>21</v>
       </c>
@@ -72517,7 +72517,7 @@
       <c r="O368" s="21"/>
       <c r="P368" s="21"/>
     </row>
-    <row r="369" spans="1:16" ht="60">
+    <row r="369" spans="1:16" ht="60" x14ac:dyDescent="0.2">
       <c r="A369" s="25" t="s">
         <v>21</v>
       </c>
@@ -72553,7 +72553,7 @@
       <c r="O369" s="21"/>
       <c r="P369" s="21"/>
     </row>
-    <row r="370" spans="1:16" ht="30">
+    <row r="370" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A370" s="25" t="s">
         <v>21</v>
       </c>
@@ -72585,7 +72585,7 @@
       <c r="O370" s="48"/>
       <c r="P370" s="48"/>
     </row>
-    <row r="371" spans="1:16" ht="30">
+    <row r="371" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A371" s="35" t="s">
         <v>21</v>
       </c>
@@ -72617,7 +72617,7 @@
       <c r="O371" s="65"/>
       <c r="P371" s="65"/>
     </row>
-    <row r="372" spans="1:16" ht="30">
+    <row r="372" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A372" s="25" t="s">
         <v>21</v>
       </c>
@@ -72649,7 +72649,7 @@
       <c r="O372" s="21"/>
       <c r="P372" s="21"/>
     </row>
-    <row r="373" spans="1:16" ht="60">
+    <row r="373" spans="1:16" ht="60" x14ac:dyDescent="0.2">
       <c r="A373" s="35" t="s">
         <v>21</v>
       </c>
@@ -72683,7 +72683,7 @@
       <c r="O373" s="65"/>
       <c r="P373" s="65"/>
     </row>
-    <row r="374" spans="1:16" ht="75">
+    <row r="374" spans="1:16" ht="75" x14ac:dyDescent="0.2">
       <c r="A374" s="25" t="s">
         <v>21</v>
       </c>
@@ -72715,7 +72715,7 @@
       <c r="O374" s="21"/>
       <c r="P374" s="21"/>
     </row>
-    <row r="375" spans="1:16" ht="30">
+    <row r="375" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A375" s="35" t="s">
         <v>21</v>
       </c>
@@ -72747,7 +72747,7 @@
       <c r="O375" s="31"/>
       <c r="P375" s="31"/>
     </row>
-    <row r="376" spans="1:16" ht="30">
+    <row r="376" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A376" s="25" t="s">
         <v>21</v>
       </c>
@@ -72781,7 +72781,7 @@
       <c r="O376" s="21"/>
       <c r="P376" s="21"/>
     </row>
-    <row r="377" spans="1:16" ht="30">
+    <row r="377" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A377" s="25" t="s">
         <v>21</v>
       </c>
@@ -72813,7 +72813,7 @@
       <c r="O377" s="21"/>
       <c r="P377" s="21"/>
     </row>
-    <row r="378" spans="1:16" ht="30">
+    <row r="378" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A378" s="35" t="s">
         <v>21</v>
       </c>
@@ -72845,7 +72845,7 @@
       <c r="O378" s="31"/>
       <c r="P378" s="31"/>
     </row>
-    <row r="379" spans="1:16" ht="30">
+    <row r="379" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A379" s="25" t="s">
         <v>21</v>
       </c>
@@ -72875,7 +72875,7 @@
       <c r="O379" s="21"/>
       <c r="P379" s="21"/>
     </row>
-    <row r="380" spans="1:16" ht="30">
+    <row r="380" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A380" s="25" t="s">
         <v>21</v>
       </c>
@@ -72907,7 +72907,7 @@
       <c r="O380" s="21"/>
       <c r="P380" s="21"/>
     </row>
-    <row r="381" spans="1:16" ht="30">
+    <row r="381" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A381" s="35" t="s">
         <v>21</v>
       </c>
@@ -72939,7 +72939,7 @@
       <c r="O381" s="31"/>
       <c r="P381" s="31"/>
     </row>
-    <row r="382" spans="1:16" ht="45">
+    <row r="382" spans="1:16" ht="45" x14ac:dyDescent="0.2">
       <c r="A382" s="25" t="s">
         <v>21</v>
       </c>
@@ -72971,7 +72971,7 @@
       <c r="O382" s="21"/>
       <c r="P382" s="21"/>
     </row>
-    <row r="383" spans="1:16" ht="30">
+    <row r="383" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A383" s="35" t="s">
         <v>21</v>
       </c>
@@ -73003,7 +73003,7 @@
       <c r="O383" s="31"/>
       <c r="P383" s="31"/>
     </row>
-    <row r="384" spans="1:16" ht="60">
+    <row r="384" spans="1:16" ht="60" x14ac:dyDescent="0.2">
       <c r="A384" s="35" t="s">
         <v>21</v>
       </c>
@@ -73039,7 +73039,7 @@
       <c r="O384" s="31"/>
       <c r="P384" s="31"/>
     </row>
-    <row r="385" spans="1:16" ht="60">
+    <row r="385" spans="1:16" ht="60" x14ac:dyDescent="0.2">
       <c r="A385" s="35" t="s">
         <v>324</v>
       </c>
@@ -73075,7 +73075,7 @@
       <c r="O385" s="31"/>
       <c r="P385" s="31"/>
     </row>
-    <row r="386" spans="1:16" ht="30">
+    <row r="386" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A386" s="35" t="s">
         <v>21</v>
       </c>
@@ -73105,7 +73105,7 @@
       <c r="O386" s="31"/>
       <c r="P386" s="31"/>
     </row>
-    <row r="387" spans="1:16" ht="30">
+    <row r="387" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A387" s="25" t="s">
         <v>21</v>
       </c>
@@ -73137,7 +73137,7 @@
       <c r="O387" s="21"/>
       <c r="P387" s="21"/>
     </row>
-    <row r="388" spans="1:16" ht="30">
+    <row r="388" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A388" s="35" t="s">
         <v>21</v>
       </c>
@@ -73169,7 +73169,7 @@
       <c r="O388" s="31"/>
       <c r="P388" s="31"/>
     </row>
-    <row r="389" spans="1:16" ht="180">
+    <row r="389" spans="1:16" ht="180" x14ac:dyDescent="0.2">
       <c r="A389" s="25" t="s">
         <v>21</v>
       </c>
@@ -73211,7 +73211,7 @@
       <c r="O389" s="21"/>
       <c r="P389" s="21"/>
     </row>
-    <row r="390" spans="1:16" ht="30">
+    <row r="390" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A390" s="25" t="s">
         <v>21</v>
       </c>
@@ -73245,7 +73245,7 @@
       <c r="O390" s="21"/>
       <c r="P390" s="21"/>
     </row>
-    <row r="391" spans="1:16" ht="30">
+    <row r="391" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A391" s="35" t="s">
         <v>21</v>
       </c>
@@ -73283,7 +73283,7 @@
       <c r="O391" s="31"/>
       <c r="P391" s="31"/>
     </row>
-    <row r="392" spans="1:16" ht="108">
+    <row r="392" spans="1:16" ht="108" x14ac:dyDescent="0.2">
       <c r="A392" s="25" t="s">
         <v>21</v>
       </c>
@@ -73321,7 +73321,7 @@
       <c r="O392" s="21"/>
       <c r="P392" s="21"/>
     </row>
-    <row r="393" spans="1:16" ht="32.1">
+    <row r="393" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A393" s="35" t="s">
         <v>21</v>
       </c>
@@ -73357,7 +73357,7 @@
       <c r="O393" s="31"/>
       <c r="P393" s="31"/>
     </row>
-    <row r="394" spans="1:16" ht="30">
+    <row r="394" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A394" s="25" t="s">
         <v>21</v>
       </c>
@@ -73389,7 +73389,7 @@
       <c r="O394" s="21"/>
       <c r="P394" s="21"/>
     </row>
-    <row r="395" spans="1:16" ht="30">
+    <row r="395" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A395" s="35" t="s">
         <v>21</v>
       </c>
@@ -73421,7 +73421,7 @@
       <c r="O395" s="31"/>
       <c r="P395" s="31"/>
     </row>
-    <row r="396" spans="1:16" ht="30">
+    <row r="396" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A396" s="25" t="s">
         <v>21</v>
       </c>
@@ -73453,7 +73453,7 @@
       <c r="O396" s="21"/>
       <c r="P396" s="21"/>
     </row>
-    <row r="397" spans="1:16" ht="30">
+    <row r="397" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A397" s="35" t="s">
         <v>21</v>
       </c>
@@ -73485,7 +73485,7 @@
       <c r="O397" s="31"/>
       <c r="P397" s="31"/>
     </row>
-    <row r="398" spans="1:16" ht="30">
+    <row r="398" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A398" s="25" t="s">
         <v>21</v>
       </c>
@@ -73517,7 +73517,7 @@
       <c r="O398" s="21"/>
       <c r="P398" s="21"/>
     </row>
-    <row r="399" spans="1:16" ht="30">
+    <row r="399" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A399" s="35" t="s">
         <v>21</v>
       </c>
@@ -73549,7 +73549,7 @@
       <c r="O399" s="31"/>
       <c r="P399" s="31"/>
     </row>
-    <row r="400" spans="1:16" ht="30">
+    <row r="400" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A400" s="25" t="s">
         <v>21</v>
       </c>
@@ -73581,7 +73581,7 @@
       <c r="O400" s="21"/>
       <c r="P400" s="21"/>
     </row>
-    <row r="401" spans="1:16" ht="30">
+    <row r="401" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A401" s="35" t="s">
         <v>21</v>
       </c>
@@ -73613,7 +73613,7 @@
       <c r="O401" s="31"/>
       <c r="P401" s="31"/>
     </row>
-    <row r="402" spans="1:16" ht="30">
+    <row r="402" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A402" s="25" t="s">
         <v>21</v>
       </c>
@@ -73645,7 +73645,7 @@
       <c r="O402" s="21"/>
       <c r="P402" s="21"/>
     </row>
-    <row r="403" spans="1:16" ht="30">
+    <row r="403" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A403" s="35" t="s">
         <v>21</v>
       </c>
@@ -73677,7 +73677,7 @@
       <c r="O403" s="31"/>
       <c r="P403" s="31"/>
     </row>
-    <row r="404" spans="1:16" ht="30">
+    <row r="404" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A404" s="25" t="s">
         <v>21</v>
       </c>
@@ -73709,7 +73709,7 @@
       <c r="O404" s="21"/>
       <c r="P404" s="21"/>
     </row>
-    <row r="405" spans="1:16" ht="30">
+    <row r="405" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A405" s="35" t="s">
         <v>21</v>
       </c>
@@ -73741,7 +73741,7 @@
       <c r="O405" s="31"/>
       <c r="P405" s="31"/>
     </row>
-    <row r="406" spans="1:16" ht="60">
+    <row r="406" spans="1:16" ht="60" x14ac:dyDescent="0.2">
       <c r="A406" s="25" t="s">
         <v>21</v>
       </c>
@@ -73779,7 +73779,7 @@
       <c r="O406" s="21"/>
       <c r="P406" s="21"/>
     </row>
-    <row r="407" spans="1:16" ht="30">
+    <row r="407" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A407" s="35" t="s">
         <v>21</v>
       </c>
@@ -73811,7 +73811,7 @@
       <c r="O407" s="31"/>
       <c r="P407" s="31"/>
     </row>
-    <row r="408" spans="1:16" ht="30">
+    <row r="408" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A408" s="35" t="s">
         <v>21</v>
       </c>
@@ -73843,7 +73843,7 @@
       <c r="O408" s="31"/>
       <c r="P408" s="31"/>
     </row>
-    <row r="409" spans="1:16" ht="48">
+    <row r="409" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A409" s="35" t="s">
         <v>21</v>
       </c>
@@ -73881,7 +73881,7 @@
       <c r="O409" s="45"/>
       <c r="P409" s="45"/>
     </row>
-    <row r="410" spans="1:16" ht="176.1">
+    <row r="410" spans="1:16" ht="176" x14ac:dyDescent="0.2">
       <c r="A410" s="25" t="s">
         <v>21</v>
       </c>
@@ -73921,7 +73921,7 @@
       <c r="O410" s="21"/>
       <c r="P410" s="21"/>
     </row>
-    <row r="411" spans="1:16" ht="348.95">
+    <row r="411" spans="1:16" ht="349" x14ac:dyDescent="0.2">
       <c r="A411" s="35" t="s">
         <v>21</v>
       </c>
@@ -73961,7 +73961,7 @@
       <c r="O411" s="31"/>
       <c r="P411" s="31"/>
     </row>
-    <row r="412" spans="1:16" ht="36">
+    <row r="412" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A412" s="35" t="s">
         <v>21</v>
       </c>
@@ -73997,7 +73997,7 @@
       <c r="O412" s="31"/>
       <c r="P412" s="31"/>
     </row>
-    <row r="413" spans="1:16" ht="30">
+    <row r="413" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A413" s="35" t="s">
         <v>21</v>
       </c>
@@ -74029,7 +74029,7 @@
       <c r="O413" s="31"/>
       <c r="P413" s="31"/>
     </row>
-    <row r="414" spans="1:16" ht="30">
+    <row r="414" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A414" s="25" t="s">
         <v>21</v>
       </c>
@@ -74061,7 +74061,7 @@
       <c r="O414" s="21"/>
       <c r="P414" s="21"/>
     </row>
-    <row r="415" spans="1:16" ht="30">
+    <row r="415" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A415" s="35" t="s">
         <v>21</v>
       </c>
@@ -74093,7 +74093,7 @@
       <c r="O415" s="31"/>
       <c r="P415" s="31"/>
     </row>
-    <row r="416" spans="1:16" ht="30">
+    <row r="416" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A416" s="35" t="s">
         <v>21</v>
       </c>
@@ -74125,7 +74125,7 @@
       <c r="O416" s="31"/>
       <c r="P416" s="31"/>
     </row>
-    <row r="417" spans="1:16" ht="30">
+    <row r="417" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A417" s="35" t="s">
         <v>21</v>
       </c>
@@ -74157,7 +74157,7 @@
       <c r="O417" s="31"/>
       <c r="P417" s="31"/>
     </row>
-    <row r="418" spans="1:16" ht="30">
+    <row r="418" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A418" s="25" t="s">
         <v>21</v>
       </c>
@@ -74189,7 +74189,7 @@
       <c r="O418" s="21"/>
       <c r="P418" s="21"/>
     </row>
-    <row r="419" spans="1:16" ht="30">
+    <row r="419" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A419" s="35" t="s">
         <v>21</v>
       </c>
@@ -74221,7 +74221,7 @@
       <c r="O419" s="31"/>
       <c r="P419" s="31"/>
     </row>
-    <row r="420" spans="1:16" ht="30">
+    <row r="420" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A420" s="25" t="s">
         <v>21</v>
       </c>
@@ -74253,7 +74253,7 @@
       <c r="O420" s="21"/>
       <c r="P420" s="21"/>
     </row>
-    <row r="421" spans="1:16" ht="30">
+    <row r="421" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A421" s="35" t="s">
         <v>21</v>
       </c>
@@ -74285,7 +74285,7 @@
       <c r="O421" s="31"/>
       <c r="P421" s="31"/>
     </row>
-    <row r="422" spans="1:16" ht="30">
+    <row r="422" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A422" s="25" t="s">
         <v>21</v>
       </c>
@@ -74317,7 +74317,7 @@
       <c r="O422" s="21"/>
       <c r="P422" s="21"/>
     </row>
-    <row r="423" spans="1:16" ht="96">
+    <row r="423" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A423" s="25" t="s">
         <v>21</v>
       </c>
@@ -74357,7 +74357,7 @@
       <c r="O423" s="21"/>
       <c r="P423" s="21"/>
     </row>
-    <row r="424" spans="1:16" ht="60">
+    <row r="424" spans="1:16" ht="60" x14ac:dyDescent="0.2">
       <c r="A424" s="25" t="s">
         <v>21</v>
       </c>
@@ -74393,7 +74393,7 @@
       <c r="O424" s="21"/>
       <c r="P424" s="21"/>
     </row>
-    <row r="425" spans="1:16" ht="30">
+    <row r="425" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A425" s="25" t="s">
         <v>21</v>
       </c>
@@ -74425,7 +74425,7 @@
       <c r="O425" s="21"/>
       <c r="P425" s="21"/>
     </row>
-    <row r="426" spans="1:16" ht="30">
+    <row r="426" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A426" s="35" t="s">
         <v>21</v>
       </c>
@@ -74457,7 +74457,7 @@
       <c r="O426" s="31"/>
       <c r="P426" s="31"/>
     </row>
-    <row r="427" spans="1:16" ht="111.95">
+    <row r="427" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A427" s="35" t="s">
         <v>21</v>
       </c>
@@ -74493,7 +74493,7 @@
       <c r="O427" s="31"/>
       <c r="P427" s="31"/>
     </row>
-    <row r="428" spans="1:16" ht="132">
+    <row r="428" spans="1:16" ht="132" x14ac:dyDescent="0.2">
       <c r="A428" s="25" t="s">
         <v>21</v>
       </c>
@@ -74539,7 +74539,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="429" spans="1:16" ht="30">
+    <row r="429" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A429" s="35" t="s">
         <v>21</v>
       </c>
@@ -74573,7 +74573,7 @@
       <c r="O429" s="31"/>
       <c r="P429" s="31"/>
     </row>
-    <row r="430" spans="1:16" ht="30">
+    <row r="430" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A430" s="35" t="s">
         <v>21</v>
       </c>
@@ -74605,7 +74605,7 @@
       <c r="O430" s="31"/>
       <c r="P430" s="31"/>
     </row>
-    <row r="431" spans="1:16" ht="30">
+    <row r="431" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A431" s="25" t="s">
         <v>21</v>
       </c>
@@ -74637,7 +74637,7 @@
       <c r="O431" s="21"/>
       <c r="P431" s="21"/>
     </row>
-    <row r="432" spans="1:16" ht="32.1">
+    <row r="432" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A432" s="35" t="s">
         <v>21</v>
       </c>
@@ -74669,7 +74669,7 @@
       <c r="O432" s="31"/>
       <c r="P432" s="31"/>
     </row>
-    <row r="433" spans="1:16" ht="30">
+    <row r="433" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A433" s="25" t="s">
         <v>21</v>
       </c>
@@ -74701,7 +74701,7 @@
       <c r="O433" s="21"/>
       <c r="P433" s="21"/>
     </row>
-    <row r="434" spans="1:16" ht="30">
+    <row r="434" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A434" s="35" t="s">
         <v>21</v>
       </c>
@@ -74733,7 +74733,7 @@
       <c r="O434" s="31"/>
       <c r="P434" s="31"/>
     </row>
-    <row r="435" spans="1:16" ht="30">
+    <row r="435" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A435" s="25" t="s">
         <v>21</v>
       </c>
@@ -74765,7 +74765,7 @@
       <c r="O435" s="21"/>
       <c r="P435" s="21"/>
     </row>
-    <row r="436" spans="1:16" ht="32.1">
+    <row r="436" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A436" s="25" t="s">
         <v>21</v>
       </c>
@@ -74799,7 +74799,7 @@
       <c r="O436" s="21"/>
       <c r="P436" s="21"/>
     </row>
-    <row r="437" spans="1:16" ht="30">
+    <row r="437" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A437" s="25" t="s">
         <v>21</v>
       </c>
@@ -74831,7 +74831,7 @@
       <c r="O437" s="21"/>
       <c r="P437" s="21"/>
     </row>
-    <row r="438" spans="1:16" ht="30">
+    <row r="438" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A438" s="25" t="s">
         <v>21</v>
       </c>
@@ -74863,7 +74863,7 @@
       <c r="O438" s="21"/>
       <c r="P438" s="21"/>
     </row>
-    <row r="439" spans="1:16" ht="30">
+    <row r="439" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A439" s="35" t="s">
         <v>21</v>
       </c>
@@ -74895,7 +74895,7 @@
       <c r="O439" s="31"/>
       <c r="P439" s="31"/>
     </row>
-    <row r="440" spans="1:16" ht="45">
+    <row r="440" spans="1:16" ht="45" x14ac:dyDescent="0.2">
       <c r="A440" s="35" t="s">
         <v>21</v>
       </c>
@@ -74927,7 +74927,7 @@
       <c r="O440" s="31"/>
       <c r="P440" s="31"/>
     </row>
-    <row r="441" spans="1:16" ht="30">
+    <row r="441" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A441" s="25" t="s">
         <v>21</v>
       </c>
@@ -74959,7 +74959,7 @@
       <c r="O441" s="21"/>
       <c r="P441" s="21"/>
     </row>
-    <row r="442" spans="1:16" ht="30">
+    <row r="442" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A442" s="35" t="s">
         <v>21</v>
       </c>
@@ -74991,7 +74991,7 @@
       <c r="O442" s="31"/>
       <c r="P442" s="31"/>
     </row>
-    <row r="443" spans="1:16" ht="30">
+    <row r="443" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A443" s="25" t="s">
         <v>21</v>
       </c>
@@ -75023,7 +75023,7 @@
       <c r="O443" s="21"/>
       <c r="P443" s="21"/>
     </row>
-    <row r="444" spans="1:16" ht="30">
+    <row r="444" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A444" s="35" t="s">
         <v>21</v>
       </c>
@@ -75055,7 +75055,7 @@
       <c r="O444" s="31"/>
       <c r="P444" s="31"/>
     </row>
-    <row r="445" spans="1:16" ht="30">
+    <row r="445" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A445" s="25" t="s">
         <v>21</v>
       </c>
@@ -75087,7 +75087,7 @@
       <c r="O445" s="21"/>
       <c r="P445" s="21"/>
     </row>
-    <row r="446" spans="1:16" ht="30">
+    <row r="446" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A446" s="35" t="s">
         <v>21</v>
       </c>
@@ -75119,7 +75119,7 @@
       <c r="O446" s="31"/>
       <c r="P446" s="31"/>
     </row>
-    <row r="447" spans="1:16" ht="30">
+    <row r="447" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A447" s="25" t="s">
         <v>21</v>
       </c>
@@ -75151,7 +75151,7 @@
       <c r="O447" s="21"/>
       <c r="P447" s="21"/>
     </row>
-    <row r="448" spans="1:16" ht="30">
+    <row r="448" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A448" s="35" t="s">
         <v>21</v>
       </c>
@@ -75183,7 +75183,7 @@
       <c r="O448" s="31"/>
       <c r="P448" s="31"/>
     </row>
-    <row r="449" spans="1:16" ht="30">
+    <row r="449" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A449" s="35" t="s">
         <v>21</v>
       </c>
@@ -75215,7 +75215,7 @@
       <c r="O449" s="31"/>
       <c r="P449" s="31"/>
     </row>
-    <row r="450" spans="1:16" ht="30">
+    <row r="450" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A450" s="25" t="s">
         <v>21</v>
       </c>
@@ -75247,7 +75247,7 @@
       <c r="O450" s="21"/>
       <c r="P450" s="21"/>
     </row>
-    <row r="451" spans="1:16" ht="30">
+    <row r="451" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A451" s="35" t="s">
         <v>21</v>
       </c>
@@ -75279,7 +75279,7 @@
       <c r="O451" s="31"/>
       <c r="P451" s="31"/>
     </row>
-    <row r="452" spans="1:16" ht="30">
+    <row r="452" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A452" s="25" t="s">
         <v>21</v>
       </c>
@@ -75311,7 +75311,7 @@
       <c r="O452" s="21"/>
       <c r="P452" s="21"/>
     </row>
-    <row r="453" spans="1:16" ht="30">
+    <row r="453" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A453" s="25" t="s">
         <v>21</v>
       </c>
@@ -75343,7 +75343,7 @@
       <c r="O453" s="21"/>
       <c r="P453" s="21"/>
     </row>
-    <row r="454" spans="1:16" ht="30">
+    <row r="454" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A454" s="35" t="s">
         <v>21</v>
       </c>
@@ -75375,7 +75375,7 @@
       <c r="O454" s="31"/>
       <c r="P454" s="31"/>
     </row>
-    <row r="455" spans="1:16" ht="45">
+    <row r="455" spans="1:16" ht="45" x14ac:dyDescent="0.2">
       <c r="A455" s="25" t="s">
         <v>21</v>
       </c>
@@ -75407,7 +75407,7 @@
       <c r="O455" s="21"/>
       <c r="P455" s="21"/>
     </row>
-    <row r="456" spans="1:16" ht="30">
+    <row r="456" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A456" s="35" t="s">
         <v>21</v>
       </c>
@@ -75439,7 +75439,7 @@
       <c r="O456" s="31"/>
       <c r="P456" s="31"/>
     </row>
-    <row r="457" spans="1:16" ht="30">
+    <row r="457" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A457" s="25" t="s">
         <v>21</v>
       </c>
@@ -75471,7 +75471,7 @@
       <c r="O457" s="21"/>
       <c r="P457" s="21"/>
     </row>
-    <row r="458" spans="1:16" ht="30">
+    <row r="458" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A458" s="35" t="s">
         <v>21</v>
       </c>
@@ -75503,7 +75503,7 @@
       <c r="O458" s="31"/>
       <c r="P458" s="31"/>
     </row>
-    <row r="459" spans="1:16" ht="30">
+    <row r="459" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A459" s="25" t="s">
         <v>21</v>
       </c>
@@ -75535,7 +75535,7 @@
       <c r="O459" s="21"/>
       <c r="P459" s="21"/>
     </row>
-    <row r="460" spans="1:16" ht="30">
+    <row r="460" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A460" s="35" t="s">
         <v>21</v>
       </c>
@@ -75567,7 +75567,7 @@
       <c r="O460" s="31"/>
       <c r="P460" s="31"/>
     </row>
-    <row r="461" spans="1:16" ht="30">
+    <row r="461" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A461" s="25" t="s">
         <v>21</v>
       </c>
@@ -75599,7 +75599,7 @@
       <c r="O461" s="21"/>
       <c r="P461" s="21"/>
     </row>
-    <row r="462" spans="1:16" ht="30">
+    <row r="462" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A462" s="35" t="s">
         <v>21</v>
       </c>
@@ -75631,7 +75631,7 @@
       <c r="O462" s="31"/>
       <c r="P462" s="31"/>
     </row>
-    <row r="463" spans="1:16" ht="30">
+    <row r="463" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A463" s="25" t="s">
         <v>21</v>
       </c>
@@ -75663,7 +75663,7 @@
       <c r="O463" s="21"/>
       <c r="P463" s="21"/>
     </row>
-    <row r="464" spans="1:16" ht="30">
+    <row r="464" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A464" s="35" t="s">
         <v>21</v>
       </c>
@@ -75695,7 +75695,7 @@
       <c r="O464" s="31"/>
       <c r="P464" s="31"/>
     </row>
-    <row r="465" spans="1:16" ht="30">
+    <row r="465" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A465" s="25" t="s">
         <v>21</v>
       </c>
@@ -75727,7 +75727,7 @@
       <c r="O465" s="21"/>
       <c r="P465" s="21"/>
     </row>
-    <row r="466" spans="1:16" ht="30">
+    <row r="466" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A466" s="35" t="s">
         <v>21</v>
       </c>
@@ -75759,7 +75759,7 @@
       <c r="O466" s="31"/>
       <c r="P466" s="31"/>
     </row>
-    <row r="467" spans="1:16" ht="30">
+    <row r="467" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A467" s="25" t="s">
         <v>21</v>
       </c>
@@ -75791,7 +75791,7 @@
       <c r="O467" s="21"/>
       <c r="P467" s="21"/>
     </row>
-    <row r="468" spans="1:16" ht="30">
+    <row r="468" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A468" s="35" t="s">
         <v>21</v>
       </c>
@@ -75823,7 +75823,7 @@
       <c r="O468" s="31"/>
       <c r="P468" s="31"/>
     </row>
-    <row r="469" spans="1:16" ht="30">
+    <row r="469" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A469" s="25" t="s">
         <v>21</v>
       </c>
@@ -75855,7 +75855,7 @@
       <c r="O469" s="21"/>
       <c r="P469" s="21"/>
     </row>
-    <row r="470" spans="1:16" ht="30">
+    <row r="470" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A470" s="35" t="s">
         <v>21</v>
       </c>
@@ -75887,7 +75887,7 @@
       <c r="O470" s="31"/>
       <c r="P470" s="31"/>
     </row>
-    <row r="471" spans="1:16" ht="45">
+    <row r="471" spans="1:16" ht="45" x14ac:dyDescent="0.2">
       <c r="A471" s="25" t="s">
         <v>21</v>
       </c>
@@ -75919,7 +75919,7 @@
       <c r="O471" s="21"/>
       <c r="P471" s="21"/>
     </row>
-    <row r="472" spans="1:16" ht="30">
+    <row r="472" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A472" s="35" t="s">
         <v>21</v>
       </c>
@@ -75951,7 +75951,7 @@
       <c r="O472" s="31"/>
       <c r="P472" s="31"/>
     </row>
-    <row r="473" spans="1:16" ht="30">
+    <row r="473" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A473" s="25" t="s">
         <v>21</v>
       </c>
@@ -75983,7 +75983,7 @@
       <c r="O473" s="21"/>
       <c r="P473" s="21"/>
     </row>
-    <row r="474" spans="1:16" ht="30">
+    <row r="474" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A474" s="35" t="s">
         <v>21</v>
       </c>
@@ -76015,7 +76015,7 @@
       <c r="O474" s="31"/>
       <c r="P474" s="31"/>
     </row>
-    <row r="475" spans="1:16" ht="30">
+    <row r="475" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A475" s="25" t="s">
         <v>21</v>
       </c>
@@ -76047,7 +76047,7 @@
       <c r="O475" s="21"/>
       <c r="P475" s="21"/>
     </row>
-    <row r="476" spans="1:16" ht="30">
+    <row r="476" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A476" s="35" t="s">
         <v>21</v>
       </c>
@@ -76079,7 +76079,7 @@
       <c r="O476" s="31"/>
       <c r="P476" s="31"/>
     </row>
-    <row r="477" spans="1:16" ht="30">
+    <row r="477" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A477" s="25" t="s">
         <v>21</v>
       </c>
@@ -76111,7 +76111,7 @@
       <c r="O477" s="21"/>
       <c r="P477" s="21"/>
     </row>
-    <row r="478" spans="1:16" ht="30">
+    <row r="478" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A478" s="35" t="s">
         <v>21</v>
       </c>
@@ -76143,7 +76143,7 @@
       <c r="O478" s="31"/>
       <c r="P478" s="31"/>
     </row>
-    <row r="479" spans="1:16" ht="30">
+    <row r="479" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A479" s="25" t="s">
         <v>21</v>
       </c>
@@ -76175,7 +76175,7 @@
       <c r="O479" s="21"/>
       <c r="P479" s="21"/>
     </row>
-    <row r="480" spans="1:16" ht="30">
+    <row r="480" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A480" s="35" t="s">
         <v>21</v>
       </c>
@@ -76207,7 +76207,7 @@
       <c r="O480" s="31"/>
       <c r="P480" s="31"/>
     </row>
-    <row r="481" spans="1:16" ht="30">
+    <row r="481" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A481" s="25" t="s">
         <v>21</v>
       </c>
@@ -76239,7 +76239,7 @@
       <c r="O481" s="21"/>
       <c r="P481" s="21"/>
     </row>
-    <row r="482" spans="1:16" ht="30">
+    <row r="482" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A482" s="35" t="s">
         <v>21</v>
       </c>
@@ -76271,7 +76271,7 @@
       <c r="O482" s="31"/>
       <c r="P482" s="31"/>
     </row>
-    <row r="483" spans="1:16" ht="48">
+    <row r="483" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A483" s="35" t="s">
         <v>21</v>
       </c>
@@ -76309,7 +76309,7 @@
       <c r="O483" s="31"/>
       <c r="P483" s="31"/>
     </row>
-    <row r="484" spans="1:16" ht="30">
+    <row r="484" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A484" s="35" t="s">
         <v>21</v>
       </c>
@@ -76339,7 +76339,7 @@
       <c r="O484" s="31"/>
       <c r="P484" s="31"/>
     </row>
-    <row r="485" spans="1:16" ht="30">
+    <row r="485" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A485" s="25" t="s">
         <v>21</v>
       </c>
@@ -76373,7 +76373,7 @@
       <c r="O485" s="21"/>
       <c r="P485" s="21"/>
     </row>
-    <row r="486" spans="1:16" ht="30">
+    <row r="486" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A486" s="25" t="s">
         <v>21</v>
       </c>
@@ -76405,7 +76405,7 @@
       <c r="O486" s="21"/>
       <c r="P486" s="21"/>
     </row>
-    <row r="487" spans="1:16" ht="30">
+    <row r="487" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A487" s="35" t="s">
         <v>21</v>
       </c>
@@ -76437,7 +76437,7 @@
       <c r="O487" s="31"/>
       <c r="P487" s="31"/>
     </row>
-    <row r="488" spans="1:16" ht="30">
+    <row r="488" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A488" s="25" t="s">
         <v>21</v>
       </c>
@@ -76473,7 +76473,7 @@
       <c r="O488" s="21"/>
       <c r="P488" s="21"/>
     </row>
-    <row r="489" spans="1:16" ht="30">
+    <row r="489" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A489" s="35" t="s">
         <v>21</v>
       </c>
@@ -76513,7 +76513,7 @@
       <c r="O489" s="31"/>
       <c r="P489" s="31"/>
     </row>
-    <row r="490" spans="1:16" ht="48">
+    <row r="490" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A490" s="25" t="s">
         <v>21</v>
       </c>
@@ -76549,7 +76549,7 @@
       <c r="O490" s="21"/>
       <c r="P490" s="21"/>
     </row>
-    <row r="491" spans="1:16" ht="30">
+    <row r="491" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A491" s="35" t="s">
         <v>21</v>
       </c>
@@ -76583,7 +76583,7 @@
       <c r="O491" s="31"/>
       <c r="P491" s="31"/>
     </row>
-    <row r="492" spans="1:16" ht="32.1">
+    <row r="492" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A492" s="25" t="s">
         <v>21</v>
       </c>
@@ -76618,7 +76618,7 @@
       <c r="O492" s="21"/>
       <c r="P492" s="21"/>
     </row>
-    <row r="493" spans="1:16" ht="111.95">
+    <row r="493" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A493" s="25" t="s">
         <v>21</v>
       </c>
@@ -76658,7 +76658,7 @@
       <c r="O493" s="21"/>
       <c r="P493" s="21"/>
     </row>
-    <row r="494" spans="1:16" ht="36">
+    <row r="494" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A494" s="25" t="s">
         <v>21</v>
       </c>
@@ -76692,7 +76692,7 @@
       <c r="O494" s="21"/>
       <c r="P494" s="21"/>
     </row>
-    <row r="495" spans="1:16" ht="36">
+    <row r="495" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A495" s="25" t="s">
         <v>21</v>
       </c>
@@ -76730,7 +76730,7 @@
       <c r="O495" s="21"/>
       <c r="P495" s="21"/>
     </row>
-    <row r="496" spans="1:16" ht="32.1">
+    <row r="496" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A496" s="25" t="s">
         <v>21</v>
       </c>
@@ -76764,7 +76764,7 @@
       <c r="O496" s="21"/>
       <c r="P496" s="21"/>
     </row>
-    <row r="497" spans="1:16" ht="30">
+    <row r="497" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A497" s="25" t="s">
         <v>21</v>
       </c>
@@ -76798,7 +76798,7 @@
       <c r="O497" s="21"/>
       <c r="P497" s="21"/>
     </row>
-    <row r="498" spans="1:16" ht="30">
+    <row r="498" spans="1:16" ht="30" x14ac:dyDescent="0.2">
       <c r="A498" s="35" t="s">
         <v>21</v>
       </c>
@@ -76828,7 +76828,7 @@
       <c r="O498" s="31"/>
       <c r="P498" s="31"/>
     </row>
-    <row r="499" spans="1:16" ht="30">
+    <row r="499" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A499" s="35" t="s">
         <v>21</v>
       </c>
@@ -76866,7 +76866,7 @@
       <c r="O499" s="31"/>
       <c r="P499" s="31"/>
     </row>
-    <row r="500" spans="1:16" ht="32.1">
+    <row r="500" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A500" s="35" t="s">
         <v>21</v>
       </c>
@@ -76904,7 +76904,7 @@
       <c r="O500" s="45"/>
       <c r="P500" s="45"/>
     </row>
-    <row r="501" spans="1:16" ht="255.95">
+    <row r="501" spans="1:16" ht="256" x14ac:dyDescent="0.2">
       <c r="A501" s="35" t="s">
         <v>21</v>
       </c>
@@ -76944,7 +76944,7 @@
       <c r="O501" s="31"/>
       <c r="P501" s="31"/>
     </row>
-    <row r="502" spans="1:16" ht="224.1">
+    <row r="502" spans="1:16" ht="224" x14ac:dyDescent="0.2">
       <c r="A502" s="25" t="s">
         <v>21</v>
       </c>
@@ -76984,7 +76984,7 @@
       <c r="O502" s="21"/>
       <c r="P502" s="21"/>
     </row>
-    <row r="503" spans="1:16" ht="168">
+    <row r="503" spans="1:16" ht="168" x14ac:dyDescent="0.2">
       <c r="A503" s="35" t="s">
         <v>21</v>
       </c>
@@ -77032,7 +77032,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="504" spans="1:16" ht="30">
+    <row r="504" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A504" s="35" t="s">
         <v>21</v>
       </c>
@@ -77066,7 +77066,7 @@
       <c r="O504" s="31"/>
       <c r="P504" s="31"/>
     </row>
-    <row r="505" spans="1:16" ht="273">
+    <row r="505" spans="1:16" ht="273" x14ac:dyDescent="0.2">
       <c r="A505" s="25" t="s">
         <v>21</v>
       </c>
@@ -77106,7 +77106,7 @@
       <c r="O505" s="21"/>
       <c r="P505" s="21"/>
     </row>
-    <row r="506" spans="1:16" ht="251.1">
+    <row r="506" spans="1:16" ht="251" x14ac:dyDescent="0.2">
       <c r="A506" s="35" t="s">
         <v>21</v>
       </c>
@@ -77144,7 +77144,7 @@
       <c r="O506" s="31"/>
       <c r="P506" s="31"/>
     </row>
-    <row r="507" spans="1:16" ht="30">
+    <row r="507" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A507" s="35" t="s">
         <v>21</v>
       </c>
@@ -77180,7 +77180,7 @@
       <c r="O507" s="31"/>
       <c r="P507" s="31"/>
     </row>
-    <row r="508" spans="1:16" ht="69.95">
+    <row r="508" spans="1:16" ht="70" x14ac:dyDescent="0.2">
       <c r="A508" s="25" t="s">
         <v>21</v>
       </c>
@@ -77220,7 +77220,7 @@
       <c r="O508" s="21"/>
       <c r="P508" s="21"/>
     </row>
-    <row r="509" spans="1:16" ht="168">
+    <row r="509" spans="1:16" ht="168" x14ac:dyDescent="0.2">
       <c r="A509" s="35" t="s">
         <v>21</v>
       </c>
@@ -77260,7 +77260,7 @@
       <c r="O509" s="31"/>
       <c r="P509" s="31"/>
     </row>
-    <row r="510" spans="1:16" ht="409.6">
+    <row r="510" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A510" s="25" t="s">
         <v>21</v>
       </c>
@@ -77300,7 +77300,7 @@
       <c r="O510" s="21"/>
       <c r="P510" s="21"/>
     </row>
-    <row r="511" spans="1:16" ht="81.95">
+    <row r="511" spans="1:16" ht="82" x14ac:dyDescent="0.2">
       <c r="A511" s="35" t="s">
         <v>21</v>
       </c>
@@ -77340,7 +77340,7 @@
       <c r="O511" s="31"/>
       <c r="P511" s="31"/>
     </row>
-    <row r="512" spans="1:16" ht="36">
+    <row r="512" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A512" s="35" t="s">
         <v>21</v>
       </c>
@@ -77376,7 +77376,7 @@
       <c r="O512" s="31"/>
       <c r="P512" s="31"/>
     </row>
-    <row r="513" spans="1:16" ht="96">
+    <row r="513" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A513" s="25" t="s">
         <v>21</v>
       </c>
@@ -77412,7 +77412,7 @@
       <c r="O513" s="21"/>
       <c r="P513" s="21"/>
     </row>
-    <row r="514" spans="1:16" ht="48">
+    <row r="514" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A514" s="25" t="s">
         <v>21</v>
       </c>
@@ -77448,7 +77448,7 @@
       <c r="O514" s="21"/>
       <c r="P514" s="21"/>
     </row>
-    <row r="515" spans="1:16" ht="72">
+    <row r="515" spans="1:16" ht="72" x14ac:dyDescent="0.2">
       <c r="A515" s="35" t="s">
         <v>21</v>
       </c>
@@ -77484,7 +77484,7 @@
       <c r="O515" s="31"/>
       <c r="P515" s="31"/>
     </row>
-    <row r="516" spans="1:16" ht="30">
+    <row r="516" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A516" s="35" t="s">
         <v>21</v>
       </c>
@@ -77520,7 +77520,7 @@
       <c r="O516" s="31"/>
       <c r="P516" s="31"/>
     </row>
-    <row r="517" spans="1:16" ht="327.95">
+    <row r="517" spans="1:16" ht="328" x14ac:dyDescent="0.2">
       <c r="A517" s="25" t="s">
         <v>21</v>
       </c>
@@ -77568,7 +77568,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="518" spans="1:16" ht="30">
+    <row r="518" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A518" s="35" t="s">
         <v>21</v>
       </c>
@@ -77602,7 +77602,7 @@
       <c r="O518" s="31"/>
       <c r="P518" s="31"/>
     </row>
-    <row r="519" spans="1:16" ht="48">
+    <row r="519" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A519" s="25" t="s">
         <v>21</v>
       </c>
@@ -77636,7 +77636,7 @@
       <c r="O519" s="21"/>
       <c r="P519" s="21"/>
     </row>
-    <row r="520" spans="1:16" s="24" customFormat="1" ht="36">
+    <row r="520" spans="1:16" s="24" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A520" s="25" t="s">
         <v>21</v>
       </c>
@@ -77672,7 +77672,7 @@
       <c r="O520" s="21"/>
       <c r="P520" s="21"/>
     </row>
-    <row r="521" spans="1:16" ht="63.95">
+    <row r="521" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A521" s="25" t="s">
         <v>21</v>
       </c>
@@ -77710,7 +77710,7 @@
       <c r="O521" s="21"/>
       <c r="P521" s="21"/>
     </row>
-    <row r="522" spans="1:16" s="24" customFormat="1" ht="36">
+    <row r="522" spans="1:16" s="24" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A522" s="25" t="s">
         <v>21</v>
       </c>
@@ -77746,7 +77746,7 @@
       <c r="O522" s="21"/>
       <c r="P522" s="21"/>
     </row>
-    <row r="523" spans="1:16" ht="409.6">
+    <row r="523" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A523" s="35" t="s">
         <v>21</v>
       </c>
@@ -77784,7 +77784,7 @@
       <c r="O523" s="31"/>
       <c r="P523" s="31"/>
     </row>
-    <row r="524" spans="1:16" ht="48">
+    <row r="524" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A524" s="25" t="s">
         <v>21</v>
       </c>
@@ -77816,7 +77816,7 @@
       <c r="O524" s="21"/>
       <c r="P524" s="21"/>
     </row>
-    <row r="525" spans="1:16" ht="36">
+    <row r="525" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A525" s="35" t="s">
         <v>21</v>
       </c>
@@ -77848,7 +77848,7 @@
       <c r="O525" s="31"/>
       <c r="P525" s="31"/>
     </row>
-    <row r="526" spans="1:16" ht="350.1">
+    <row r="526" spans="1:16" ht="350" x14ac:dyDescent="0.2">
       <c r="A526" s="25" t="s">
         <v>21</v>
       </c>
@@ -77880,7 +77880,7 @@
       <c r="O526" s="21"/>
       <c r="P526" s="21"/>
     </row>
-    <row r="527" spans="1:16" ht="36">
+    <row r="527" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A527" s="35" t="s">
         <v>21</v>
       </c>
@@ -77916,7 +77916,7 @@
       <c r="O527" s="31"/>
       <c r="P527" s="31"/>
     </row>
-    <row r="528" spans="1:16" ht="192">
+    <row r="528" spans="1:16" ht="192" x14ac:dyDescent="0.2">
       <c r="A528" s="35" t="s">
         <v>21</v>
       </c>
@@ -77963,7 +77963,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="529" spans="1:16" ht="30">
+    <row r="529" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A529" s="25" t="s">
         <v>21</v>
       </c>
@@ -77999,7 +77999,7 @@
       <c r="O529" s="21"/>
       <c r="P529" s="21"/>
     </row>
-    <row r="530" spans="1:16" ht="96">
+    <row r="530" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A530" s="35" t="s">
         <v>21</v>
       </c>
@@ -78037,7 +78037,7 @@
       <c r="O530" s="31"/>
       <c r="P530" s="31"/>
     </row>
-    <row r="531" spans="1:16" ht="30">
+    <row r="531" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A531" s="35" t="s">
         <v>21</v>
       </c>
@@ -78071,7 +78071,7 @@
       <c r="O531" s="31"/>
       <c r="P531" s="31"/>
     </row>
-    <row r="532" spans="1:16" ht="30">
+    <row r="532" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A532" s="25" t="s">
         <v>21</v>
       </c>
@@ -78103,7 +78103,7 @@
       <c r="O532" s="31"/>
       <c r="P532" s="31"/>
     </row>
-    <row r="533" spans="1:16" ht="48">
+    <row r="533" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A533" s="25" t="s">
         <v>21</v>
       </c>
@@ -78137,7 +78137,7 @@
       <c r="O533" s="21"/>
       <c r="P533" s="21"/>
     </row>
-    <row r="534" spans="1:16" ht="36">
+    <row r="534" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A534" s="35" t="s">
         <v>21</v>
       </c>
@@ -78173,7 +78173,7 @@
       <c r="O534" s="31"/>
       <c r="P534" s="31"/>
     </row>
-    <row r="535" spans="1:16" s="24" customFormat="1" ht="81.95">
+    <row r="535" spans="1:16" s="24" customFormat="1" ht="82" x14ac:dyDescent="0.2">
       <c r="A535" s="35" t="s">
         <v>21</v>
       </c>
@@ -78211,7 +78211,7 @@
       <c r="O535" s="31"/>
       <c r="P535" s="31"/>
     </row>
-    <row r="536" spans="1:16" s="24" customFormat="1" ht="30">
+    <row r="536" spans="1:16" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A536" s="25" t="s">
         <v>21</v>
       </c>
@@ -78247,7 +78247,7 @@
       <c r="O536" s="21"/>
       <c r="P536" s="21"/>
     </row>
-    <row r="537" spans="1:16" ht="24">
+    <row r="537" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A537" s="25"/>
       <c r="B537" s="25"/>
       <c r="C537" s="77"/>
@@ -78281,7 +78281,7 @@
       <c r="O537" s="21"/>
       <c r="P537" s="21"/>
     </row>
-    <row r="538" spans="1:16" ht="72">
+    <row r="538" spans="1:16" ht="72" x14ac:dyDescent="0.2">
       <c r="A538" s="35" t="s">
         <v>21</v>
       </c>
@@ -78321,7 +78321,7 @@
       <c r="O538" s="31"/>
       <c r="P538" s="31"/>
     </row>
-    <row r="539" spans="1:16" ht="30">
+    <row r="539" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A539" s="25" t="s">
         <v>21</v>
       </c>
@@ -78359,7 +78359,7 @@
       <c r="O539" s="21"/>
       <c r="P539" s="21"/>
     </row>
-    <row r="540" spans="1:16" ht="48">
+    <row r="540" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A540" s="35" t="s">
         <v>21</v>
       </c>
@@ -78397,7 +78397,7 @@
       <c r="O540" s="31"/>
       <c r="P540" s="31"/>
     </row>
-    <row r="541" spans="1:16" ht="72">
+    <row r="541" spans="1:16" ht="72" x14ac:dyDescent="0.2">
       <c r="A541" s="35" t="s">
         <v>21</v>
       </c>
@@ -78435,7 +78435,7 @@
       <c r="O541" s="31"/>
       <c r="P541" s="31"/>
     </row>
-    <row r="542" spans="1:16" ht="72">
+    <row r="542" spans="1:16" ht="72" x14ac:dyDescent="0.2">
       <c r="A542" s="35" t="s">
         <v>21</v>
       </c>
@@ -78473,7 +78473,7 @@
       <c r="O542" s="31"/>
       <c r="P542" s="31"/>
     </row>
-    <row r="543" spans="1:16" ht="30">
+    <row r="543" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A543" s="25" t="s">
         <v>21</v>
       </c>
@@ -78509,7 +78509,7 @@
       <c r="O543" s="21"/>
       <c r="P543" s="21"/>
     </row>
-    <row r="544" spans="1:16" ht="30">
+    <row r="544" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A544" s="35" t="s">
         <v>21</v>
       </c>
@@ -78547,7 +78547,7 @@
       <c r="O544" s="31"/>
       <c r="P544" s="31"/>
     </row>
-    <row r="545" spans="1:16" ht="45">
+    <row r="545" spans="1:16" ht="45" x14ac:dyDescent="0.2">
       <c r="A545" s="35" t="s">
         <v>21</v>
       </c>
@@ -78581,7 +78581,7 @@
       <c r="O545" s="31"/>
       <c r="P545" s="31"/>
     </row>
-    <row r="546" spans="1:16" ht="60">
+    <row r="546" spans="1:16" ht="60" x14ac:dyDescent="0.2">
       <c r="A546" s="35" t="s">
         <v>21</v>
       </c>
@@ -78615,7 +78615,7 @@
       <c r="O546" s="31"/>
       <c r="P546" s="31"/>
     </row>
-    <row r="547" spans="1:16" ht="30">
+    <row r="547" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A547" s="25" t="s">
         <v>21</v>
       </c>
@@ -78653,7 +78653,7 @@
       <c r="O547" s="21"/>
       <c r="P547" s="21"/>
     </row>
-    <row r="548" spans="1:16" ht="36">
+    <row r="548" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A548" s="25" t="s">
         <v>21</v>
       </c>
@@ -78691,7 +78691,7 @@
       <c r="O548" s="21"/>
       <c r="P548" s="21"/>
     </row>
-    <row r="549" spans="1:16" ht="120">
+    <row r="549" spans="1:16" ht="120" x14ac:dyDescent="0.2">
       <c r="A549" s="35" t="s">
         <v>21</v>
       </c>
@@ -78729,7 +78729,7 @@
       <c r="O549" s="31"/>
       <c r="P549" s="31"/>
     </row>
-    <row r="550" spans="1:16" ht="350.1">
+    <row r="550" spans="1:16" ht="350" x14ac:dyDescent="0.2">
       <c r="A550" s="25" t="s">
         <v>21</v>
       </c>
@@ -78777,7 +78777,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="551" spans="1:16" ht="30">
+    <row r="551" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A551" s="35" t="s">
         <v>21</v>
       </c>
@@ -78811,7 +78811,7 @@
       <c r="O551" s="31"/>
       <c r="P551" s="31"/>
     </row>
-    <row r="552" spans="1:16" ht="75">
+    <row r="552" spans="1:16" ht="75" x14ac:dyDescent="0.2">
       <c r="A552" s="35" t="s">
         <v>21</v>
       </c>
@@ -78849,7 +78849,7 @@
       <c r="O552" s="31"/>
       <c r="P552" s="31"/>
     </row>
-    <row r="553" spans="1:16" ht="15.95">
+    <row r="553" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A553" s="25" t="s">
         <v>324</v>
       </c>
@@ -78881,7 +78881,7 @@
       <c r="O553" s="21"/>
       <c r="P553" s="21"/>
     </row>
-    <row r="554" spans="1:16" ht="30">
+    <row r="554" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A554" s="25" t="s">
         <v>21</v>
       </c>
@@ -78917,7 +78917,7 @@
       <c r="O554" s="51"/>
       <c r="P554" s="51"/>
     </row>
-    <row r="555" spans="1:16" ht="294.95">
+    <row r="555" spans="1:16" ht="295" x14ac:dyDescent="0.2">
       <c r="A555" s="35" t="s">
         <v>21</v>
       </c>
@@ -78963,7 +78963,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="556" spans="1:16" ht="272.10000000000002">
+    <row r="556" spans="1:16" ht="272" x14ac:dyDescent="0.2">
       <c r="A556" s="25" t="s">
         <v>21</v>
       </c>
@@ -79004,7 +79004,7 @@
       <c r="O556" s="74"/>
       <c r="P556" s="74"/>
     </row>
-    <row r="557" spans="1:16" ht="159.94999999999999">
+    <row r="557" spans="1:16" ht="160" x14ac:dyDescent="0.2">
       <c r="A557" s="35" t="s">
         <v>21</v>
       </c>
@@ -79044,7 +79044,7 @@
       <c r="O557" s="56"/>
       <c r="P557" s="56"/>
     </row>
-    <row r="558" spans="1:16" ht="320.10000000000002">
+    <row r="558" spans="1:16" ht="320" x14ac:dyDescent="0.2">
       <c r="A558" s="35" t="s">
         <v>21</v>
       </c>
@@ -79091,7 +79091,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="559" spans="1:16" ht="288">
+    <row r="559" spans="1:16" ht="288" x14ac:dyDescent="0.2">
       <c r="A559" s="25" t="s">
         <v>21</v>
       </c>
@@ -79125,7 +79125,7 @@
       <c r="O559" s="51"/>
       <c r="P559" s="51"/>
     </row>
-    <row r="560" spans="1:16" ht="30">
+    <row r="560" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A560" s="25" t="s">
         <v>21</v>
       </c>
@@ -79161,7 +79161,7 @@
       <c r="O560" s="51"/>
       <c r="P560" s="51"/>
     </row>
-    <row r="561" spans="1:16" ht="30">
+    <row r="561" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A561" s="25" t="s">
         <v>21</v>
       </c>
@@ -79199,7 +79199,7 @@
       <c r="O561" s="21"/>
       <c r="P561" s="21"/>
     </row>
-    <row r="562" spans="1:16" ht="48">
+    <row r="562" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A562" s="25" t="s">
         <v>21</v>
       </c>
@@ -79235,7 +79235,7 @@
       <c r="O562" s="31"/>
       <c r="P562" s="31"/>
     </row>
-    <row r="563" spans="1:16" ht="30">
+    <row r="563" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A563" s="25" t="s">
         <v>21</v>
       </c>
@@ -79267,7 +79267,7 @@
       <c r="O563" s="21"/>
       <c r="P563" s="21"/>
     </row>
-    <row r="564" spans="1:16" ht="48">
+    <row r="564" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A564" s="25" t="s">
         <v>21</v>
       </c>
@@ -79301,7 +79301,7 @@
       <c r="O564" s="21"/>
       <c r="P564" s="21"/>
     </row>
-    <row r="565" spans="1:16" ht="30">
+    <row r="565" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A565" s="25" t="s">
         <v>21</v>
       </c>
@@ -79335,7 +79335,7 @@
       <c r="O565" s="21"/>
       <c r="P565" s="21"/>
     </row>
-    <row r="566" spans="1:16" ht="168">
+    <row r="566" spans="1:16" ht="168" x14ac:dyDescent="0.2">
       <c r="A566" s="25" t="s">
         <v>21</v>
       </c>
@@ -79369,7 +79369,7 @@
       <c r="O566" s="21"/>
       <c r="P566" s="21"/>
     </row>
-    <row r="567" spans="1:16" ht="30">
+    <row r="567" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A567" s="25" t="s">
         <v>21</v>
       </c>
@@ -79403,7 +79403,7 @@
       <c r="O567" s="21"/>
       <c r="P567" s="21"/>
     </row>
-    <row r="568" spans="1:16" ht="30">
+    <row r="568" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A568" s="25" t="s">
         <v>21</v>
       </c>
@@ -79439,7 +79439,7 @@
       <c r="O568" s="21"/>
       <c r="P568" s="21"/>
     </row>
-    <row r="569" spans="1:16" ht="30">
+    <row r="569" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A569" s="25" t="s">
         <v>21</v>
       </c>
@@ -79469,7 +79469,7 @@
       <c r="O569" s="21"/>
       <c r="P569" s="21"/>
     </row>
-    <row r="570" spans="1:16" ht="30">
+    <row r="570" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A570" s="25" t="s">
         <v>21</v>
       </c>
@@ -79503,7 +79503,7 @@
       <c r="O570" s="21"/>
       <c r="P570" s="21"/>
     </row>
-    <row r="571" spans="1:16" ht="30">
+    <row r="571" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A571" s="25" t="s">
         <v>21</v>
       </c>
@@ -79537,7 +79537,7 @@
       <c r="O571" s="21"/>
       <c r="P571" s="21"/>
     </row>
-    <row r="572" spans="1:16" ht="30">
+    <row r="572" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A572" s="25" t="s">
         <v>21</v>
       </c>
@@ -79569,7 +79569,7 @@
       <c r="O572" s="21"/>
       <c r="P572" s="21"/>
     </row>
-    <row r="573" spans="1:16" ht="30">
+    <row r="573" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A573" s="35" t="s">
         <v>21</v>
       </c>
@@ -79601,7 +79601,7 @@
       <c r="O573" s="31"/>
       <c r="P573" s="31"/>
     </row>
-    <row r="574" spans="1:16" ht="30">
+    <row r="574" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A574" s="35" t="s">
         <v>21</v>
       </c>
@@ -79633,7 +79633,7 @@
       <c r="O574" s="31"/>
       <c r="P574" s="31"/>
     </row>
-    <row r="575" spans="1:16" ht="30">
+    <row r="575" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A575" s="25" t="s">
         <v>21</v>
       </c>
@@ -79665,7 +79665,7 @@
       <c r="O575" s="21"/>
       <c r="P575" s="21"/>
     </row>
-    <row r="576" spans="1:16" ht="30">
+    <row r="576" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A576" s="35" t="s">
         <v>21</v>
       </c>
@@ -79697,7 +79697,7 @@
       <c r="O576" s="31"/>
       <c r="P576" s="31"/>
     </row>
-    <row r="577" spans="1:16" ht="30">
+    <row r="577" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A577" s="25" t="s">
         <v>21</v>
       </c>
@@ -79729,7 +79729,7 @@
       <c r="O577" s="21"/>
       <c r="P577" s="21"/>
     </row>
-    <row r="578" spans="1:16" s="24" customFormat="1" ht="30">
+    <row r="578" spans="1:16" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A578" s="35" t="s">
         <v>21</v>
       </c>
@@ -79761,7 +79761,7 @@
       <c r="O578" s="31"/>
       <c r="P578" s="31"/>
     </row>
-    <row r="579" spans="1:16" ht="176.1">
+    <row r="579" spans="1:16" ht="176" x14ac:dyDescent="0.2">
       <c r="A579" s="35" t="s">
         <v>21</v>
       </c>
@@ -79797,7 +79797,7 @@
       <c r="O579" s="31"/>
       <c r="P579" s="31"/>
     </row>
-    <row r="580" spans="1:16" ht="30">
+    <row r="580" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A580" s="25" t="s">
         <v>21</v>
       </c>
@@ -79829,7 +79829,7 @@
       <c r="O580" s="21"/>
       <c r="P580" s="21"/>
     </row>
-    <row r="581" spans="1:16" ht="30">
+    <row r="581" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A581" s="35" t="s">
         <v>21</v>
       </c>
@@ -79865,7 +79865,7 @@
       <c r="O581" s="31"/>
       <c r="P581" s="31"/>
     </row>
-    <row r="582" spans="1:16" ht="30">
+    <row r="582" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A582" s="25" t="s">
         <v>21</v>
       </c>
@@ -79897,7 +79897,7 @@
       <c r="O582" s="21"/>
       <c r="P582" s="21"/>
     </row>
-    <row r="583" spans="1:16" ht="30">
+    <row r="583" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A583" s="35" t="s">
         <v>21</v>
       </c>
@@ -79929,7 +79929,7 @@
       <c r="O583" s="31"/>
       <c r="P583" s="31"/>
     </row>
-    <row r="584" spans="1:16" ht="84">
+    <row r="584" spans="1:16" ht="84" x14ac:dyDescent="0.2">
       <c r="A584" s="25" t="s">
         <v>21</v>
       </c>
@@ -79963,7 +79963,7 @@
       <c r="O584" s="21"/>
       <c r="P584" s="21"/>
     </row>
-    <row r="585" spans="1:16" ht="45">
+    <row r="585" spans="1:16" ht="45" x14ac:dyDescent="0.2">
       <c r="A585" s="35" t="s">
         <v>21</v>
       </c>
@@ -79995,7 +79995,7 @@
       <c r="O585" s="31"/>
       <c r="P585" s="31"/>
     </row>
-    <row r="586" spans="1:16" ht="30">
+    <row r="586" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A586" s="25" t="s">
         <v>21</v>
       </c>
@@ -80027,7 +80027,7 @@
       <c r="O586" s="21"/>
       <c r="P586" s="21"/>
     </row>
-    <row r="587" spans="1:16" ht="30">
+    <row r="587" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A587" s="25" t="s">
         <v>21</v>
       </c>
@@ -80063,7 +80063,7 @@
       <c r="O587" s="21"/>
       <c r="P587" s="21"/>
     </row>
-    <row r="588" spans="1:16" ht="30">
+    <row r="588" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A588" s="35" t="s">
         <v>21</v>
       </c>
@@ -80095,7 +80095,7 @@
       <c r="O588" s="31"/>
       <c r="P588" s="31"/>
     </row>
-    <row r="589" spans="1:16" ht="30">
+    <row r="589" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A589" s="25" t="s">
         <v>21</v>
       </c>
@@ -80129,7 +80129,7 @@
       <c r="O589" s="21"/>
       <c r="P589" s="21"/>
     </row>
-    <row r="590" spans="1:16" ht="30">
+    <row r="590" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A590" s="35" t="s">
         <v>21</v>
       </c>
@@ -80161,7 +80161,7 @@
       <c r="O590" s="31"/>
       <c r="P590" s="31"/>
     </row>
-    <row r="591" spans="1:16" ht="30">
+    <row r="591" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A591" s="25" t="s">
         <v>21</v>
       </c>
@@ -80195,7 +80195,7 @@
       <c r="O591" s="21"/>
       <c r="P591" s="21"/>
     </row>
-    <row r="592" spans="1:16" ht="48">
+    <row r="592" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A592" s="25" t="s">
         <v>21</v>
       </c>
@@ -80229,7 +80229,7 @@
       <c r="O592" s="21"/>
       <c r="P592" s="21"/>
     </row>
-    <row r="593" spans="1:16" ht="48">
+    <row r="593" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A593" s="35" t="s">
         <v>21</v>
       </c>
@@ -80263,7 +80263,7 @@
       <c r="O593" s="31"/>
       <c r="P593" s="31"/>
     </row>
-    <row r="594" spans="1:16" ht="30">
+    <row r="594" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A594" s="25" t="s">
         <v>21</v>
       </c>
@@ -80295,7 +80295,7 @@
       <c r="O594" s="21"/>
       <c r="P594" s="21"/>
     </row>
-    <row r="595" spans="1:16" ht="36">
+    <row r="595" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A595" s="35" t="s">
         <v>21</v>
       </c>
@@ -80329,7 +80329,7 @@
       <c r="O595" s="31"/>
       <c r="P595" s="31"/>
     </row>
-    <row r="596" spans="1:16" ht="48">
+    <row r="596" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A596" s="25" t="s">
         <v>21</v>
       </c>
@@ -80363,7 +80363,7 @@
       <c r="O596" s="21"/>
       <c r="P596" s="21"/>
     </row>
-    <row r="597" spans="1:16" ht="120">
+    <row r="597" spans="1:16" ht="120" x14ac:dyDescent="0.2">
       <c r="A597" s="35" t="s">
         <v>21</v>
       </c>
@@ -80395,7 +80395,7 @@
       <c r="O597" s="31"/>
       <c r="P597" s="31"/>
     </row>
-    <row r="598" spans="1:16" ht="30">
+    <row r="598" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A598" s="35" t="s">
         <v>21</v>
       </c>
@@ -80427,7 +80427,7 @@
       <c r="O598" s="31"/>
       <c r="P598" s="31"/>
     </row>
-    <row r="599" spans="1:16" ht="30">
+    <row r="599" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A599" s="35" t="s">
         <v>21</v>
       </c>
@@ -80463,7 +80463,7 @@
       <c r="O599" s="31"/>
       <c r="P599" s="31"/>
     </row>
-    <row r="600" spans="1:16" ht="30">
+    <row r="600" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A600" s="40" t="s">
         <v>21</v>
       </c>
@@ -80499,7 +80499,7 @@
       <c r="O600" s="39"/>
       <c r="P600" s="39"/>
     </row>
-    <row r="601" spans="1:16" ht="30">
+    <row r="601" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A601" s="25" t="s">
         <v>21</v>
       </c>
@@ -80533,7 +80533,7 @@
       <c r="O601" s="21"/>
       <c r="P601" s="21"/>
     </row>
-    <row r="602" spans="1:16" ht="32.1">
+    <row r="602" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A602" s="35" t="s">
         <v>21</v>
       </c>
@@ -80567,7 +80567,7 @@
       <c r="O602" s="31"/>
       <c r="P602" s="31"/>
     </row>
-    <row r="603" spans="1:16" ht="30">
+    <row r="603" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A603" s="25" t="s">
         <v>21</v>
       </c>
@@ -80599,7 +80599,7 @@
       <c r="O603" s="21"/>
       <c r="P603" s="21"/>
     </row>
-    <row r="604" spans="1:16" ht="30">
+    <row r="604" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A604" s="25" t="s">
         <v>21</v>
       </c>
@@ -80633,7 +80633,7 @@
       <c r="O604" s="21"/>
       <c r="P604" s="21"/>
     </row>
-    <row r="605" spans="1:16" ht="30">
+    <row r="605" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A605" s="25" t="s">
         <v>21</v>
       </c>
@@ -80667,7 +80667,7 @@
       <c r="O605" s="21"/>
       <c r="P605" s="21"/>
     </row>
-    <row r="606" spans="1:16" ht="30">
+    <row r="606" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A606" s="35" t="s">
         <v>21</v>
       </c>
@@ -80703,7 +80703,7 @@
       <c r="O606" s="31"/>
       <c r="P606" s="31"/>
     </row>
-    <row r="607" spans="1:16" ht="36">
+    <row r="607" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A607" s="25" t="s">
         <v>21</v>
       </c>
@@ -80737,7 +80737,7 @@
       <c r="O607" s="21"/>
       <c r="P607" s="21"/>
     </row>
-    <row r="608" spans="1:16" ht="36">
+    <row r="608" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A608" s="25" t="s">
         <v>21</v>
       </c>
@@ -80771,7 +80771,7 @@
       <c r="O608" s="21"/>
       <c r="P608" s="21"/>
     </row>
-    <row r="609" spans="1:16" ht="255.95">
+    <row r="609" spans="1:16" ht="256" x14ac:dyDescent="0.2">
       <c r="A609" s="35" t="s">
         <v>21</v>
       </c>
@@ -80803,7 +80803,7 @@
       <c r="O609" s="31"/>
       <c r="P609" s="31"/>
     </row>
-    <row r="610" spans="1:16" ht="32.1">
+    <row r="610" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A610" s="25" t="s">
         <v>21</v>
       </c>
@@ -80835,7 +80835,7 @@
       <c r="O610" s="21"/>
       <c r="P610" s="21"/>
     </row>
-    <row r="611" spans="1:16" ht="156">
+    <row r="611" spans="1:16" ht="156" x14ac:dyDescent="0.2">
       <c r="A611" s="35" t="s">
         <v>21</v>
       </c>
@@ -80871,7 +80871,7 @@
       <c r="O611" s="31"/>
       <c r="P611" s="31"/>
     </row>
-    <row r="612" spans="1:16" ht="36">
+    <row r="612" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A612" s="35" t="s">
         <v>21</v>
       </c>
@@ -80909,7 +80909,7 @@
       <c r="O612" s="31"/>
       <c r="P612" s="31"/>
     </row>
-    <row r="613" spans="1:16" ht="30.95" thickBot="1">
+    <row r="613" spans="1:16" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A613" s="35" t="s">
         <v>21</v>
       </c>
@@ -81012,23 +81012,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010036634E75948AF6478BDD5B6ECE439029" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="230aa62340b51c1aa2e2c28be48e6118">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e0a64e4-7fea-442c-b385-37491aef63de" xmlns:ns3="2b3e05ff-c908-49af-94f9-52f298489e32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c9ee5b7f6d6f2c3a51178921bc3c9373" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010036634E75948AF6478BDD5B6ECE439029" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="689acecceb92d855f609934e3bacd9aa">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e0a64e4-7fea-442c-b385-37491aef63de" xmlns:ns3="2b3e05ff-c908-49af-94f9-52f298489e32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6720c8b3d948ac14627f0ba1b583f722" ns2:_="" ns3:_="">
     <xsd:import namespace="1e0a64e4-7fea-442c-b385-37491aef63de"/>
     <xsd:import namespace="2b3e05ff-c908-49af-94f9-52f298489e32"/>
     <xsd:element name="properties">
@@ -81057,7 +81042,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1e0a64e4-7fea-442c-b385-37491aef63de" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Freigegeben für" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -81076,7 +81061,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Freigegeben für - Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -81139,8 +81124,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhaltstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -81229,14 +81214,46 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9064EE4-D465-4757-B274-EF5914D4D854}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E909A67-9990-4A04-A51F-97B27EF8950E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A9C9B1F-0468-4B16-903D-8E1C20933A80}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A9C9B1F-0468-4B16-903D-8E1C20933A80}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C72919E-E4A8-475E-A06F-6B973F392096}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9064EE4-D465-4757-B274-EF5914D4D854}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1e0a64e4-7fea-442c-b385-37491aef63de"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="2b3e05ff-c908-49af-94f9-52f298489e32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Kürzel-Ämter-ACC-EX-2021-02-08.xlsx
+++ b/data/Kürzel-Ämter-ACC-EX-2021-02-08.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oeawacat.sharepoint.com/sites/ACDH-CH_p_TheVienneseCourt_ProsopographicalPortal_ElitesRule/Shared Documents/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{E7394F60-CEDF-E748-9C01-8DB5CB1B067E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B2244C6-278D-E246-A2FB-9A001BF2431F}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{E7394F60-CEDF-E748-9C01-8DB5CB1B067E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{347BC8AD-6958-7748-8C03-DEF5CAEEFFE2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21620" windowHeight="21100" xr2:uid="{337A3A7B-02D0-488A-92D5-A2468C5D770F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21620" windowHeight="17500" xr2:uid="{337A3A7B-02D0-488A-92D5-A2468C5D770F}"/>
   </bookViews>
   <sheets>
     <sheet name="GESAMTÜBERSICHT" sheetId="3" r:id="rId1"/>
@@ -9010,7 +9010,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10642,7 +10642,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10940,32 +10940,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B85A28-8A9E-6340-8EC5-56FA6354860F}">
   <dimension ref="A1:XFA613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G202" sqref="G202"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F263" sqref="A1:XFA613"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="3.83203125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="28" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="5" customWidth="1"/>
     <col min="8" max="8" width="15" style="34" customWidth="1"/>
     <col min="9" max="9" width="14" style="5" customWidth="1"/>
-    <col min="10" max="10" width="25.5" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" customWidth="1"/>
     <col min="11" max="11" width="23" style="9" customWidth="1"/>
-    <col min="12" max="12" width="27.83203125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="27.85546875" style="10" customWidth="1"/>
     <col min="13" max="13" width="86" style="9" customWidth="1"/>
-    <col min="14" max="14" width="16.5" style="9" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="9"/>
-    <col min="16" max="16" width="90.5" style="9" customWidth="1"/>
-    <col min="17" max="17" width="98.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" style="9"/>
+    <col min="16" max="16" width="90.42578125" style="9" customWidth="1"/>
+    <col min="17" max="17" width="98.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="42" customHeight="1" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -10984,7 +10984,7 @@
       <c r="H1" s="8"/>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="32.25" customHeight="1">
       <c r="C2" s="5"/>
       <c r="D2" s="124" t="s">
         <v>4</v>
@@ -10995,7 +10995,7 @@
       <c r="H2" s="125"/>
       <c r="I2" s="126"/>
     </row>
-    <row r="3" spans="1:16" ht="118" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="117.95" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
@@ -11045,7 +11045,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="30">
       <c r="A4" s="25" t="s">
         <v>21</v>
       </c>
@@ -11077,7 +11077,7 @@
       <c r="O4" s="21"/>
       <c r="P4" s="21"/>
     </row>
-    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="30">
       <c r="A5" s="35" t="s">
         <v>21</v>
       </c>
@@ -11109,7 +11109,7 @@
       <c r="O5" s="31"/>
       <c r="P5" s="31"/>
     </row>
-    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="30">
       <c r="A6" s="25" t="s">
         <v>21</v>
       </c>
@@ -11141,7 +11141,7 @@
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
     </row>
-    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="30">
       <c r="A7" s="35" t="s">
         <v>21</v>
       </c>
@@ -11173,7 +11173,7 @@
       <c r="O7" s="31"/>
       <c r="P7" s="31"/>
     </row>
-    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="30">
       <c r="A8" s="25" t="s">
         <v>21</v>
       </c>
@@ -11205,7 +11205,7 @@
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
     </row>
-    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="30">
       <c r="A9" s="35" t="s">
         <v>21</v>
       </c>
@@ -11237,7 +11237,7 @@
       <c r="O9" s="31"/>
       <c r="P9" s="31"/>
     </row>
-    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="30">
       <c r="A10" s="25" t="s">
         <v>21</v>
       </c>
@@ -11269,7 +11269,7 @@
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
     </row>
-    <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="30">
       <c r="A11" s="35" t="s">
         <v>21</v>
       </c>
@@ -11301,7 +11301,7 @@
       <c r="O11" s="31"/>
       <c r="P11" s="31"/>
     </row>
-    <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="30">
       <c r="A12" s="25" t="s">
         <v>21</v>
       </c>
@@ -11333,7 +11333,7 @@
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
     </row>
-    <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="30">
       <c r="A13" s="35" t="s">
         <v>21</v>
       </c>
@@ -11365,7 +11365,7 @@
       <c r="O13" s="31"/>
       <c r="P13" s="31"/>
     </row>
-    <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="30">
       <c r="A14" s="25" t="s">
         <v>21</v>
       </c>
@@ -11397,7 +11397,7 @@
       <c r="O14" s="21"/>
       <c r="P14" s="21"/>
     </row>
-    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="30">
       <c r="A15" s="35" t="s">
         <v>21</v>
       </c>
@@ -11429,7 +11429,7 @@
       <c r="O15" s="31"/>
       <c r="P15" s="31"/>
     </row>
-    <row r="16" spans="1:16" ht="150" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="150">
       <c r="A16" s="25" t="s">
         <v>21</v>
       </c>
@@ -11462,7 +11462,7 @@
       <c r="O16" s="21"/>
       <c r="P16" s="21"/>
     </row>
-    <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="30">
       <c r="A17" s="35" t="s">
         <v>21</v>
       </c>
@@ -11494,7 +11494,7 @@
       <c r="O17" s="31"/>
       <c r="P17" s="31"/>
     </row>
-    <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="30">
       <c r="A18" s="25" t="s">
         <v>21</v>
       </c>
@@ -11526,7 +11526,7 @@
       <c r="O18" s="21"/>
       <c r="P18" s="21"/>
     </row>
-    <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="30">
       <c r="A19" s="35" t="s">
         <v>21</v>
       </c>
@@ -11558,7 +11558,7 @@
       <c r="O19" s="31"/>
       <c r="P19" s="31"/>
     </row>
-    <row r="20" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="30">
       <c r="A20" s="25" t="s">
         <v>21</v>
       </c>
@@ -11590,7 +11590,7 @@
       <c r="O20" s="21"/>
       <c r="P20" s="21"/>
     </row>
-    <row r="21" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="30">
       <c r="A21" s="35" t="s">
         <v>21</v>
       </c>
@@ -11622,7 +11622,7 @@
       <c r="O21" s="31"/>
       <c r="P21" s="31"/>
     </row>
-    <row r="22" spans="1:16" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="111.95" customHeight="1">
       <c r="A22" s="25" t="s">
         <v>21</v>
       </c>
@@ -11654,7 +11654,7 @@
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
     </row>
-    <row r="23" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="30">
       <c r="A23" s="35" t="s">
         <v>21</v>
       </c>
@@ -11686,7 +11686,7 @@
       <c r="O23" s="31"/>
       <c r="P23" s="31"/>
     </row>
-    <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="30">
       <c r="A24" s="25" t="s">
         <v>21</v>
       </c>
@@ -11718,7 +11718,7 @@
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
     </row>
-    <row r="25" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="30">
       <c r="A25" s="35" t="s">
         <v>21</v>
       </c>
@@ -11750,7 +11750,7 @@
       <c r="O25" s="31"/>
       <c r="P25" s="31"/>
     </row>
-    <row r="26" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="30">
       <c r="A26" s="25" t="s">
         <v>21</v>
       </c>
@@ -11782,7 +11782,7 @@
       <c r="O26" s="21"/>
       <c r="P26" s="21"/>
     </row>
-    <row r="27" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="60">
       <c r="A27" s="35" t="s">
         <v>21</v>
       </c>
@@ -11814,7 +11814,7 @@
       <c r="O27" s="31"/>
       <c r="P27" s="31"/>
     </row>
-    <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="30">
       <c r="A28" s="25" t="s">
         <v>21</v>
       </c>
@@ -11846,7 +11846,7 @@
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
     </row>
-    <row r="29" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="30">
       <c r="A29" s="35" t="s">
         <v>21</v>
       </c>
@@ -11876,7 +11876,7 @@
       <c r="O29" s="31"/>
       <c r="P29" s="31"/>
     </row>
-    <row r="30" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="30">
       <c r="A30" s="25" t="s">
         <v>21</v>
       </c>
@@ -11908,7 +11908,7 @@
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
     </row>
-    <row r="31" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="30">
       <c r="A31" s="35" t="s">
         <v>21</v>
       </c>
@@ -11940,7 +11940,7 @@
       <c r="O31" s="31"/>
       <c r="P31" s="31"/>
     </row>
-    <row r="32" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="30">
       <c r="A32" s="25" t="s">
         <v>21</v>
       </c>
@@ -11972,7 +11972,7 @@
       <c r="O32" s="21"/>
       <c r="P32" s="21"/>
     </row>
-    <row r="33" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="30">
       <c r="A33" s="35" t="s">
         <v>21</v>
       </c>
@@ -12004,7 +12004,7 @@
       <c r="O33" s="31"/>
       <c r="P33" s="31"/>
     </row>
-    <row r="34" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="30">
       <c r="A34" s="25" t="s">
         <v>21</v>
       </c>
@@ -12036,7 +12036,7 @@
       <c r="O34" s="21"/>
       <c r="P34" s="21"/>
     </row>
-    <row r="35" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="30">
       <c r="A35" s="35" t="s">
         <v>21</v>
       </c>
@@ -12068,7 +12068,7 @@
       <c r="O35" s="31"/>
       <c r="P35" s="31"/>
     </row>
-    <row r="36" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="30">
       <c r="A36" s="35" t="s">
         <v>21</v>
       </c>
@@ -12100,7 +12100,7 @@
       <c r="O36" s="31"/>
       <c r="P36" s="31"/>
     </row>
-    <row r="37" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="30">
       <c r="A37" s="25" t="s">
         <v>21</v>
       </c>
@@ -12134,7 +12134,7 @@
       <c r="O37" s="21"/>
       <c r="P37" s="21"/>
     </row>
-    <row r="38" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="30">
       <c r="A38" s="35" t="s">
         <v>21</v>
       </c>
@@ -12166,7 +12166,7 @@
       <c r="O38" s="31"/>
       <c r="P38" s="31"/>
     </row>
-    <row r="39" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="30">
       <c r="A39" s="25" t="s">
         <v>21</v>
       </c>
@@ -12198,7 +12198,7 @@
       <c r="O39" s="21"/>
       <c r="P39" s="21"/>
     </row>
-    <row r="40" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="30">
       <c r="A40" s="25" t="s">
         <v>21</v>
       </c>
@@ -12230,7 +12230,7 @@
       <c r="O40" s="21"/>
       <c r="P40" s="21"/>
     </row>
-    <row r="41" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="30">
       <c r="A41" s="25" t="s">
         <v>21</v>
       </c>
@@ -12262,7 +12262,7 @@
       <c r="O41" s="21"/>
       <c r="P41" s="21"/>
     </row>
-    <row r="42" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="30">
       <c r="A42" s="25" t="s">
         <v>21</v>
       </c>
@@ -12294,7 +12294,7 @@
       <c r="O42" s="21"/>
       <c r="P42" s="21"/>
     </row>
-    <row r="43" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="30">
       <c r="A43" s="25" t="s">
         <v>21</v>
       </c>
@@ -12326,7 +12326,7 @@
       <c r="O43" s="21"/>
       <c r="P43" s="21"/>
     </row>
-    <row r="44" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="30">
       <c r="A44" s="35" t="s">
         <v>21</v>
       </c>
@@ -12358,7 +12358,7 @@
       <c r="O44" s="31"/>
       <c r="P44" s="31"/>
     </row>
-    <row r="45" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="30">
       <c r="A45" s="35" t="s">
         <v>21</v>
       </c>
@@ -12390,7 +12390,7 @@
       <c r="O45" s="31"/>
       <c r="P45" s="31"/>
     </row>
-    <row r="46" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" ht="30">
       <c r="A46" s="25" t="s">
         <v>21</v>
       </c>
@@ -12422,7 +12422,7 @@
       <c r="O46" s="21"/>
       <c r="P46" s="21"/>
     </row>
-    <row r="47" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="45">
       <c r="A47" s="35" t="s">
         <v>21</v>
       </c>
@@ -12454,7 +12454,7 @@
       <c r="O47" s="31"/>
       <c r="P47" s="31"/>
     </row>
-    <row r="48" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="30">
       <c r="A48" s="25" t="s">
         <v>21</v>
       </c>
@@ -12486,7 +12486,7 @@
       <c r="O48" s="21"/>
       <c r="P48" s="21"/>
     </row>
-    <row r="49" spans="1:16" ht="75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" ht="75">
       <c r="A49" s="35" t="s">
         <v>21</v>
       </c>
@@ -12518,7 +12518,7 @@
       <c r="O49" s="31"/>
       <c r="P49" s="31"/>
     </row>
-    <row r="50" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="30">
       <c r="A50" s="35" t="s">
         <v>21</v>
       </c>
@@ -12550,7 +12550,7 @@
       <c r="O50" s="31"/>
       <c r="P50" s="31"/>
     </row>
-    <row r="51" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="30">
       <c r="A51" s="25" t="s">
         <v>21</v>
       </c>
@@ -12582,7 +12582,7 @@
       <c r="O51" s="21"/>
       <c r="P51" s="21"/>
     </row>
-    <row r="52" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" ht="30">
       <c r="A52" s="35" t="s">
         <v>21</v>
       </c>
@@ -12614,7 +12614,7 @@
       <c r="O52" s="31"/>
       <c r="P52" s="31"/>
     </row>
-    <row r="53" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" ht="30">
       <c r="A53" s="25" t="s">
         <v>21</v>
       </c>
@@ -12646,7 +12646,7 @@
       <c r="O53" s="21"/>
       <c r="P53" s="21"/>
     </row>
-    <row r="54" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" ht="30">
       <c r="A54" s="35" t="s">
         <v>21</v>
       </c>
@@ -12678,7 +12678,7 @@
       <c r="O54" s="31"/>
       <c r="P54" s="31"/>
     </row>
-    <row r="55" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" ht="30">
       <c r="A55" s="25" t="s">
         <v>21</v>
       </c>
@@ -12710,7 +12710,7 @@
       <c r="O55" s="21"/>
       <c r="P55" s="21"/>
     </row>
-    <row r="56" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" ht="30">
       <c r="A56" s="35" t="s">
         <v>21</v>
       </c>
@@ -12742,7 +12742,7 @@
       <c r="O56" s="31"/>
       <c r="P56" s="31"/>
     </row>
-    <row r="57" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" ht="30">
       <c r="A57" s="25" t="s">
         <v>21</v>
       </c>
@@ -12774,7 +12774,7 @@
       <c r="O57" s="21"/>
       <c r="P57" s="21"/>
     </row>
-    <row r="58" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" ht="45">
       <c r="A58" s="25" t="s">
         <v>21</v>
       </c>
@@ -12806,7 +12806,7 @@
       <c r="O58" s="21"/>
       <c r="P58" s="21"/>
     </row>
-    <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" ht="30">
       <c r="A59" s="35" t="s">
         <v>21</v>
       </c>
@@ -12838,7 +12838,7 @@
       <c r="O59" s="31"/>
       <c r="P59" s="31"/>
     </row>
-    <row r="60" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" ht="30">
       <c r="A60" s="25" t="s">
         <v>21</v>
       </c>
@@ -12870,7 +12870,7 @@
       <c r="O60" s="21"/>
       <c r="P60" s="21"/>
     </row>
-    <row r="61" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" ht="30">
       <c r="A61" s="25" t="s">
         <v>21</v>
       </c>
@@ -12902,7 +12902,7 @@
       <c r="O61" s="21"/>
       <c r="P61" s="21"/>
     </row>
-    <row r="62" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" ht="30">
       <c r="A62" s="35" t="s">
         <v>21</v>
       </c>
@@ -12934,7 +12934,7 @@
       <c r="O62" s="31"/>
       <c r="P62" s="31"/>
     </row>
-    <row r="63" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" ht="30">
       <c r="A63" s="35" t="s">
         <v>21</v>
       </c>
@@ -12966,7 +12966,7 @@
       <c r="O63" s="31"/>
       <c r="P63" s="31"/>
     </row>
-    <row r="64" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" ht="30">
       <c r="A64" s="25" t="s">
         <v>21</v>
       </c>
@@ -12998,7 +12998,7 @@
       <c r="O64" s="21"/>
       <c r="P64" s="21"/>
     </row>
-    <row r="65" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" ht="45">
       <c r="A65" s="35" t="s">
         <v>21</v>
       </c>
@@ -13030,7 +13030,7 @@
       <c r="O65" s="31"/>
       <c r="P65" s="31"/>
     </row>
-    <row r="66" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" ht="30">
       <c r="A66" s="25" t="s">
         <v>21</v>
       </c>
@@ -13062,7 +13062,7 @@
       <c r="O66" s="21"/>
       <c r="P66" s="21"/>
     </row>
-    <row r="67" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" ht="30">
       <c r="A67" s="25" t="s">
         <v>21</v>
       </c>
@@ -13094,7 +13094,7 @@
       <c r="O67" s="21"/>
       <c r="P67" s="21"/>
     </row>
-    <row r="68" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" ht="30">
       <c r="A68" s="25" t="s">
         <v>21</v>
       </c>
@@ -13126,7 +13126,7 @@
       <c r="O68" s="21"/>
       <c r="P68" s="21"/>
     </row>
-    <row r="69" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" ht="30">
       <c r="A69" s="35" t="s">
         <v>21</v>
       </c>
@@ -13158,7 +13158,7 @@
       <c r="O69" s="31"/>
       <c r="P69" s="31"/>
     </row>
-    <row r="70" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" ht="30">
       <c r="A70" s="25" t="s">
         <v>21</v>
       </c>
@@ -13190,7 +13190,7 @@
       <c r="O70" s="21"/>
       <c r="P70" s="21"/>
     </row>
-    <row r="71" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" ht="30">
       <c r="A71" s="25" t="s">
         <v>21</v>
       </c>
@@ -13224,7 +13224,7 @@
       <c r="O71" s="21"/>
       <c r="P71" s="21"/>
     </row>
-    <row r="72" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" ht="30">
       <c r="A72" s="35" t="s">
         <v>21</v>
       </c>
@@ -13256,7 +13256,7 @@
       <c r="O72" s="31"/>
       <c r="P72" s="31"/>
     </row>
-    <row r="73" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" ht="48">
       <c r="A73" s="25" t="s">
         <v>21</v>
       </c>
@@ -13290,7 +13290,7 @@
       <c r="O73" s="21"/>
       <c r="P73" s="21"/>
     </row>
-    <row r="74" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" ht="30">
       <c r="A74" s="35" t="s">
         <v>21</v>
       </c>
@@ -13322,7 +13322,7 @@
       <c r="O74" s="31"/>
       <c r="P74" s="31"/>
     </row>
-    <row r="75" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" ht="30">
       <c r="A75" s="25" t="s">
         <v>21</v>
       </c>
@@ -13354,7 +13354,7 @@
       <c r="O75" s="21"/>
       <c r="P75" s="21"/>
     </row>
-    <row r="76" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" ht="30">
       <c r="A76" s="25" t="s">
         <v>21</v>
       </c>
@@ -13386,7 +13386,7 @@
       <c r="O76" s="21"/>
       <c r="P76" s="21"/>
     </row>
-    <row r="77" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" ht="45">
       <c r="A77" s="35" t="s">
         <v>21</v>
       </c>
@@ -13418,7 +13418,7 @@
       <c r="O77" s="31"/>
       <c r="P77" s="31"/>
     </row>
-    <row r="78" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" ht="30">
       <c r="A78" s="35" t="s">
         <v>21</v>
       </c>
@@ -13450,7 +13450,7 @@
       <c r="O78" s="31"/>
       <c r="P78" s="31"/>
     </row>
-    <row r="79" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" ht="30">
       <c r="A79" s="25" t="s">
         <v>21</v>
       </c>
@@ -13482,7 +13482,7 @@
       <c r="O79" s="21"/>
       <c r="P79" s="21"/>
     </row>
-    <row r="80" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" ht="30">
       <c r="A80" s="35" t="s">
         <v>21</v>
       </c>
@@ -13514,7 +13514,7 @@
       <c r="O80" s="31"/>
       <c r="P80" s="31"/>
     </row>
-    <row r="81" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16381" ht="30">
       <c r="A81" s="25" t="s">
         <v>21</v>
       </c>
@@ -13546,7 +13546,7 @@
       <c r="O81" s="21"/>
       <c r="P81" s="21"/>
     </row>
-    <row r="82" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16381" ht="30">
       <c r="A82" s="25" t="s">
         <v>21</v>
       </c>
@@ -13578,7 +13578,7 @@
       <c r="O82" s="21"/>
       <c r="P82" s="21"/>
     </row>
-    <row r="83" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16381" ht="30">
       <c r="A83" s="35" t="s">
         <v>21</v>
       </c>
@@ -13610,7 +13610,7 @@
       <c r="O83" s="31"/>
       <c r="P83" s="31"/>
     </row>
-    <row r="84" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16381" ht="30">
       <c r="A84" s="25" t="s">
         <v>21</v>
       </c>
@@ -13642,7 +13642,7 @@
       <c r="O84" s="21"/>
       <c r="P84" s="21"/>
     </row>
-    <row r="85" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16381" ht="30">
       <c r="A85" s="35" t="s">
         <v>21</v>
       </c>
@@ -13674,7 +13674,7 @@
       <c r="O85" s="31"/>
       <c r="P85" s="31"/>
     </row>
-    <row r="86" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16381" ht="30">
       <c r="A86" s="25" t="s">
         <v>21</v>
       </c>
@@ -13706,7 +13706,7 @@
       <c r="O86" s="21"/>
       <c r="P86" s="21"/>
     </row>
-    <row r="87" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16381" ht="30">
       <c r="A87" s="35" t="s">
         <v>21</v>
       </c>
@@ -13738,7 +13738,7 @@
       <c r="O87" s="31"/>
       <c r="P87" s="31"/>
     </row>
-    <row r="88" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16381" ht="30">
       <c r="A88" s="25" t="s">
         <v>21</v>
       </c>
@@ -13770,7 +13770,7 @@
       <c r="O88" s="21"/>
       <c r="P88" s="21"/>
     </row>
-    <row r="89" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16381" ht="30">
       <c r="A89" s="35" t="s">
         <v>21</v>
       </c>
@@ -13802,7 +13802,7 @@
       <c r="O89" s="31"/>
       <c r="P89" s="31"/>
     </row>
-    <row r="90" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16381" ht="30">
       <c r="A90" s="25" t="s">
         <v>21</v>
       </c>
@@ -13834,7 +13834,7 @@
       <c r="O90" s="21"/>
       <c r="P90" s="21"/>
     </row>
-    <row r="91" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16381" ht="30">
       <c r="A91" s="35" t="s">
         <v>21</v>
       </c>
@@ -13866,7 +13866,7 @@
       <c r="O91" s="31"/>
       <c r="P91" s="31"/>
     </row>
-    <row r="92" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16381" ht="30">
       <c r="A92" s="25" t="s">
         <v>21</v>
       </c>
@@ -13898,7 +13898,7 @@
       <c r="O92" s="21"/>
       <c r="P92" s="21"/>
     </row>
-    <row r="93" spans="1:16381" ht="32" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16381" ht="32.1">
       <c r="A93" s="35" t="s">
         <v>21</v>
       </c>
@@ -13930,7 +13930,7 @@
       <c r="O93" s="31"/>
       <c r="P93" s="31"/>
     </row>
-    <row r="94" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16381" ht="30">
       <c r="A94" s="25" t="s">
         <v>21</v>
       </c>
@@ -13964,7 +13964,7 @@
       <c r="O94" s="21"/>
       <c r="P94" s="21"/>
     </row>
-    <row r="95" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16381" ht="30">
       <c r="A95" s="25" t="s">
         <v>21</v>
       </c>
@@ -13996,7 +13996,7 @@
       <c r="O95" s="21"/>
       <c r="P95" s="21"/>
     </row>
-    <row r="96" spans="1:16381" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16381" s="22" customFormat="1" ht="30">
       <c r="A96" s="25" t="s">
         <v>21</v>
       </c>
@@ -30395,7 +30395,7 @@
       <c r="XEZ96"/>
       <c r="XFA96"/>
     </row>
-    <row r="97" spans="1:16381" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16381" s="22" customFormat="1" ht="30">
       <c r="A97" s="35" t="s">
         <v>21</v>
       </c>
@@ -46794,7 +46794,7 @@
       <c r="XEZ97"/>
       <c r="XFA97"/>
     </row>
-    <row r="98" spans="1:16381" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16381" s="22" customFormat="1" ht="30">
       <c r="A98" s="25" t="s">
         <v>21</v>
       </c>
@@ -63193,7 +63193,7 @@
       <c r="XEZ98"/>
       <c r="XFA98"/>
     </row>
-    <row r="99" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16381" ht="30">
       <c r="A99" s="35" t="s">
         <v>21</v>
       </c>
@@ -63225,7 +63225,7 @@
       <c r="O99" s="31"/>
       <c r="P99" s="31"/>
     </row>
-    <row r="100" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16381" ht="30">
       <c r="A100" s="35" t="s">
         <v>21</v>
       </c>
@@ -63259,7 +63259,7 @@
       <c r="O100" s="31"/>
       <c r="P100" s="31"/>
     </row>
-    <row r="101" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16381" ht="30">
       <c r="A101" s="25" t="s">
         <v>21</v>
       </c>
@@ -63294,7 +63294,7 @@
       <c r="P101" s="21"/>
       <c r="XFA101" s="23"/>
     </row>
-    <row r="102" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16381" ht="30">
       <c r="A102" s="35" t="s">
         <v>21</v>
       </c>
@@ -63328,7 +63328,7 @@
       <c r="O102" s="31"/>
       <c r="P102" s="31"/>
     </row>
-    <row r="103" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16381" ht="30">
       <c r="A103" s="25" t="s">
         <v>21</v>
       </c>
@@ -63360,7 +63360,7 @@
       <c r="O103" s="21"/>
       <c r="P103" s="21"/>
     </row>
-    <row r="104" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16381" ht="30">
       <c r="A104" s="25" t="s">
         <v>21</v>
       </c>
@@ -63392,7 +63392,7 @@
       <c r="O104" s="21"/>
       <c r="P104" s="21"/>
     </row>
-    <row r="105" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16381" ht="30">
       <c r="A105" s="25" t="s">
         <v>21</v>
       </c>
@@ -63424,7 +63424,7 @@
       <c r="O105" s="21"/>
       <c r="P105" s="21"/>
     </row>
-    <row r="106" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16381" ht="30">
       <c r="A106" s="25" t="s">
         <v>21</v>
       </c>
@@ -63456,7 +63456,7 @@
       <c r="O106" s="21"/>
       <c r="P106" s="21"/>
     </row>
-    <row r="107" spans="1:16381" ht="36" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16381" ht="36">
       <c r="A107" s="35" t="s">
         <v>21</v>
       </c>
@@ -63490,7 +63490,7 @@
       <c r="O107" s="31"/>
       <c r="P107" s="31"/>
     </row>
-    <row r="108" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16381" ht="30">
       <c r="A108" s="35" t="s">
         <v>21</v>
       </c>
@@ -63524,7 +63524,7 @@
       <c r="O108" s="31"/>
       <c r="P108" s="31"/>
     </row>
-    <row r="109" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16381" ht="30">
       <c r="A109" s="35" t="s">
         <v>21</v>
       </c>
@@ -63556,7 +63556,7 @@
       <c r="O109" s="31"/>
       <c r="P109" s="31"/>
     </row>
-    <row r="110" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16381" ht="30">
       <c r="A110" s="25" t="s">
         <v>21</v>
       </c>
@@ -63590,7 +63590,7 @@
       <c r="O110" s="21"/>
       <c r="P110" s="21"/>
     </row>
-    <row r="111" spans="1:16381" ht="36" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16381" ht="36">
       <c r="A111" s="35" t="s">
         <v>21</v>
       </c>
@@ -63626,7 +63626,7 @@
       <c r="O111" s="31"/>
       <c r="P111" s="31"/>
     </row>
-    <row r="112" spans="1:16381" ht="30" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16381" ht="30">
       <c r="A112" s="35" t="s">
         <v>21</v>
       </c>
@@ -63658,7 +63658,7 @@
       <c r="O112" s="31"/>
       <c r="P112" s="31"/>
     </row>
-    <row r="113" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" ht="36">
       <c r="A113" s="25" t="s">
         <v>21</v>
       </c>
@@ -63696,7 +63696,7 @@
       <c r="O113" s="21"/>
       <c r="P113" s="21"/>
     </row>
-    <row r="114" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" ht="30">
       <c r="A114" s="35" t="s">
         <v>21</v>
       </c>
@@ -63734,7 +63734,7 @@
       <c r="O114" s="31"/>
       <c r="P114" s="31"/>
     </row>
-    <row r="115" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" ht="36">
       <c r="A115" s="25" t="s">
         <v>21</v>
       </c>
@@ -63768,7 +63768,7 @@
       <c r="O115" s="21"/>
       <c r="P115" s="21"/>
     </row>
-    <row r="116" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" ht="30">
       <c r="A116" s="25" t="s">
         <v>21</v>
       </c>
@@ -63800,7 +63800,7 @@
       <c r="O116" s="21"/>
       <c r="P116" s="21"/>
     </row>
-    <row r="117" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" ht="60">
       <c r="A117" s="25" t="s">
         <v>21</v>
       </c>
@@ -63834,7 +63834,7 @@
       <c r="O117" s="21"/>
       <c r="P117" s="21"/>
     </row>
-    <row r="118" spans="1:16" ht="180" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" ht="180">
       <c r="A118" s="25" t="s">
         <v>21</v>
       </c>
@@ -63868,7 +63868,7 @@
       <c r="O118" s="21"/>
       <c r="P118" s="21"/>
     </row>
-    <row r="119" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" ht="30">
       <c r="A119" s="35" t="s">
         <v>21</v>
       </c>
@@ -63900,7 +63900,7 @@
       <c r="O119" s="31"/>
       <c r="P119" s="31"/>
     </row>
-    <row r="120" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" ht="30">
       <c r="A120" s="35" t="s">
         <v>21</v>
       </c>
@@ -63932,7 +63932,7 @@
       <c r="O120" s="31"/>
       <c r="P120" s="31"/>
     </row>
-    <row r="121" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" ht="30">
       <c r="A121" s="35" t="s">
         <v>21</v>
       </c>
@@ -63964,7 +63964,7 @@
       <c r="O121" s="31"/>
       <c r="P121" s="31"/>
     </row>
-    <row r="122" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" ht="30">
       <c r="A122" s="25" t="s">
         <v>21</v>
       </c>
@@ -63996,7 +63996,7 @@
       <c r="O122" s="21"/>
       <c r="P122" s="21"/>
     </row>
-    <row r="123" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" ht="30">
       <c r="A123" s="35" t="s">
         <v>21</v>
       </c>
@@ -64028,7 +64028,7 @@
       <c r="O123" s="31"/>
       <c r="P123" s="31"/>
     </row>
-    <row r="124" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" ht="30">
       <c r="A124" s="25" t="s">
         <v>21</v>
       </c>
@@ -64060,7 +64060,7 @@
       <c r="O124" s="21"/>
       <c r="P124" s="21"/>
     </row>
-    <row r="125" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" ht="30">
       <c r="A125" s="35" t="s">
         <v>21</v>
       </c>
@@ -64092,7 +64092,7 @@
       <c r="O125" s="31"/>
       <c r="P125" s="31"/>
     </row>
-    <row r="126" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" ht="30">
       <c r="A126" s="25" t="s">
         <v>21</v>
       </c>
@@ -64124,7 +64124,7 @@
       <c r="O126" s="21"/>
       <c r="P126" s="21"/>
     </row>
-    <row r="127" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16" ht="30">
       <c r="A127" s="35" t="s">
         <v>21</v>
       </c>
@@ -64156,7 +64156,7 @@
       <c r="O127" s="31"/>
       <c r="P127" s="31"/>
     </row>
-    <row r="128" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" ht="30">
       <c r="A128" s="25" t="s">
         <v>21</v>
       </c>
@@ -64188,7 +64188,7 @@
       <c r="O128" s="21"/>
       <c r="P128" s="21"/>
     </row>
-    <row r="129" spans="1:16" ht="75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" ht="75">
       <c r="A129" s="35" t="s">
         <v>21</v>
       </c>
@@ -64220,7 +64220,7 @@
       <c r="O129" s="31"/>
       <c r="P129" s="31"/>
     </row>
-    <row r="130" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" ht="30">
       <c r="A130" s="35" t="s">
         <v>21</v>
       </c>
@@ -64252,7 +64252,7 @@
       <c r="O130" s="31"/>
       <c r="P130" s="31"/>
     </row>
-    <row r="131" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" ht="30">
       <c r="A131" s="25" t="s">
         <v>21</v>
       </c>
@@ -64284,7 +64284,7 @@
       <c r="O131" s="21"/>
       <c r="P131" s="21"/>
     </row>
-    <row r="132" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" ht="30">
       <c r="A132" s="35" t="s">
         <v>21</v>
       </c>
@@ -64316,7 +64316,7 @@
       <c r="O132" s="31"/>
       <c r="P132" s="31"/>
     </row>
-    <row r="133" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" ht="60">
       <c r="A133" s="35" t="s">
         <v>21</v>
       </c>
@@ -64352,7 +64352,7 @@
       <c r="O133" s="31"/>
       <c r="P133" s="31"/>
     </row>
-    <row r="134" spans="1:16" ht="120" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" ht="120">
       <c r="A134" s="35" t="s">
         <v>21</v>
       </c>
@@ -64386,7 +64386,7 @@
       <c r="O134" s="31"/>
       <c r="P134" s="31"/>
     </row>
-    <row r="135" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" ht="30">
       <c r="A135" s="40" t="s">
         <v>21</v>
       </c>
@@ -64420,7 +64420,7 @@
       <c r="O135" s="39"/>
       <c r="P135" s="39"/>
     </row>
-    <row r="136" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" ht="30">
       <c r="A136" s="35" t="s">
         <v>21</v>
       </c>
@@ -64454,7 +64454,7 @@
       <c r="O136" s="31"/>
       <c r="P136" s="31"/>
     </row>
-    <row r="137" spans="1:16" ht="24" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" ht="24">
       <c r="A137" s="25" t="s">
         <v>320</v>
       </c>
@@ -64488,7 +64488,7 @@
       <c r="O137" s="21"/>
       <c r="P137" s="21"/>
     </row>
-    <row r="138" spans="1:16" ht="72" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" ht="72">
       <c r="A138" s="35" t="s">
         <v>324</v>
       </c>
@@ -64518,7 +64518,7 @@
       <c r="O138" s="31"/>
       <c r="P138" s="31"/>
     </row>
-    <row r="139" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" ht="36">
       <c r="A139" s="25" t="s">
         <v>21</v>
       </c>
@@ -64556,7 +64556,7 @@
       <c r="O139" s="39"/>
       <c r="P139" s="39"/>
     </row>
-    <row r="140" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" ht="30">
       <c r="A140" s="25" t="s">
         <v>21</v>
       </c>
@@ -64590,7 +64590,7 @@
       <c r="O140" s="39"/>
       <c r="P140" s="39"/>
     </row>
-    <row r="141" spans="1:16" ht="72" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" ht="72">
       <c r="A141" s="35" t="s">
         <v>21</v>
       </c>
@@ -64628,7 +64628,7 @@
       <c r="O141" s="45"/>
       <c r="P141" s="45"/>
     </row>
-    <row r="142" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" ht="30">
       <c r="A142" s="35" t="s">
         <v>21</v>
       </c>
@@ -64666,7 +64666,7 @@
       <c r="O142" s="31"/>
       <c r="P142" s="31"/>
     </row>
-    <row r="143" spans="1:16" ht="305" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" ht="305.10000000000002">
       <c r="A143" s="25" t="s">
         <v>21</v>
       </c>
@@ -64702,7 +64702,7 @@
       <c r="O143" s="21"/>
       <c r="P143" s="21"/>
     </row>
-    <row r="144" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" ht="30">
       <c r="A144" s="35" t="s">
         <v>21</v>
       </c>
@@ -64734,7 +64734,7 @@
       <c r="O144" s="31"/>
       <c r="P144" s="31"/>
     </row>
-    <row r="145" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" ht="30">
       <c r="A145" s="25" t="s">
         <v>21</v>
       </c>
@@ -64766,7 +64766,7 @@
       <c r="O145" s="21"/>
       <c r="P145" s="21"/>
     </row>
-    <row r="146" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16" ht="30">
       <c r="A146" s="35" t="s">
         <v>21</v>
       </c>
@@ -64798,7 +64798,7 @@
       <c r="O146" s="31"/>
       <c r="P146" s="31"/>
     </row>
-    <row r="147" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16" ht="30">
       <c r="A147" s="25" t="s">
         <v>21</v>
       </c>
@@ -64830,7 +64830,7 @@
       <c r="O147" s="21"/>
       <c r="P147" s="21"/>
     </row>
-    <row r="148" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16" ht="30">
       <c r="A148" s="35" t="s">
         <v>21</v>
       </c>
@@ -64862,7 +64862,7 @@
       <c r="O148" s="31"/>
       <c r="P148" s="31"/>
     </row>
-    <row r="149" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16" ht="30">
       <c r="A149" s="25" t="s">
         <v>21</v>
       </c>
@@ -64894,7 +64894,7 @@
       <c r="O149" s="21"/>
       <c r="P149" s="21"/>
     </row>
-    <row r="150" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16" ht="30">
       <c r="A150" s="35" t="s">
         <v>21</v>
       </c>
@@ -64926,7 +64926,7 @@
       <c r="O150" s="31"/>
       <c r="P150" s="31"/>
     </row>
-    <row r="151" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16" ht="30">
       <c r="A151" s="25" t="s">
         <v>21</v>
       </c>
@@ -64958,7 +64958,7 @@
       <c r="O151" s="21"/>
       <c r="P151" s="21"/>
     </row>
-    <row r="152" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16" ht="30">
       <c r="A152" s="35" t="s">
         <v>21</v>
       </c>
@@ -64990,7 +64990,7 @@
       <c r="O152" s="31"/>
       <c r="P152" s="31"/>
     </row>
-    <row r="153" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:16" ht="30">
       <c r="A153" s="25" t="s">
         <v>21</v>
       </c>
@@ -65022,7 +65022,7 @@
       <c r="O153" s="21"/>
       <c r="P153" s="21"/>
     </row>
-    <row r="154" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16" ht="30">
       <c r="A154" s="35" t="s">
         <v>21</v>
       </c>
@@ -65054,7 +65054,7 @@
       <c r="O154" s="31"/>
       <c r="P154" s="31"/>
     </row>
-    <row r="155" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16" ht="30">
       <c r="A155" s="25" t="s">
         <v>21</v>
       </c>
@@ -65086,7 +65086,7 @@
       <c r="O155" s="21"/>
       <c r="P155" s="21"/>
     </row>
-    <row r="156" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:16" ht="30">
       <c r="A156" s="35" t="s">
         <v>21</v>
       </c>
@@ -65118,7 +65118,7 @@
       <c r="O156" s="31"/>
       <c r="P156" s="31"/>
     </row>
-    <row r="157" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:16" ht="30">
       <c r="A157" s="25" t="s">
         <v>21</v>
       </c>
@@ -65150,7 +65150,7 @@
       <c r="O157" s="21"/>
       <c r="P157" s="21"/>
     </row>
-    <row r="158" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16" ht="30">
       <c r="A158" s="35" t="s">
         <v>21</v>
       </c>
@@ -65182,7 +65182,7 @@
       <c r="O158" s="31"/>
       <c r="P158" s="31"/>
     </row>
-    <row r="159" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:16" ht="30">
       <c r="A159" s="25" t="s">
         <v>21</v>
       </c>
@@ -65214,7 +65214,7 @@
       <c r="O159" s="21"/>
       <c r="P159" s="21"/>
     </row>
-    <row r="160" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:16" ht="30">
       <c r="A160" s="35" t="s">
         <v>21</v>
       </c>
@@ -65246,7 +65246,7 @@
       <c r="O160" s="31"/>
       <c r="P160" s="31"/>
     </row>
-    <row r="161" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:16" ht="60">
       <c r="A161" s="25" t="s">
         <v>21</v>
       </c>
@@ -65278,7 +65278,7 @@
       <c r="O161" s="21"/>
       <c r="P161" s="21"/>
     </row>
-    <row r="162" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16" ht="30">
       <c r="A162" s="35" t="s">
         <v>21</v>
       </c>
@@ -65310,7 +65310,7 @@
       <c r="O162" s="31"/>
       <c r="P162" s="31"/>
     </row>
-    <row r="163" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16" ht="30">
       <c r="A163" s="25" t="s">
         <v>21</v>
       </c>
@@ -65342,7 +65342,7 @@
       <c r="O163" s="21"/>
       <c r="P163" s="21"/>
     </row>
-    <row r="164" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:16" ht="30">
       <c r="A164" s="35" t="s">
         <v>21</v>
       </c>
@@ -65374,7 +65374,7 @@
       <c r="O164" s="31"/>
       <c r="P164" s="31"/>
     </row>
-    <row r="165" spans="1:16" ht="75" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16" ht="75">
       <c r="A165" s="25" t="s">
         <v>21</v>
       </c>
@@ -65406,7 +65406,7 @@
       <c r="O165" s="21"/>
       <c r="P165" s="21"/>
     </row>
-    <row r="166" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16" ht="45">
       <c r="A166" s="35" t="s">
         <v>21</v>
       </c>
@@ -65438,7 +65438,7 @@
       <c r="O166" s="31"/>
       <c r="P166" s="31"/>
     </row>
-    <row r="167" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16" ht="30">
       <c r="A167" s="25" t="s">
         <v>21</v>
       </c>
@@ -65470,7 +65470,7 @@
       <c r="O167" s="21"/>
       <c r="P167" s="21"/>
     </row>
-    <row r="168" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:16" ht="30">
       <c r="A168" s="35" t="s">
         <v>21</v>
       </c>
@@ -65502,7 +65502,7 @@
       <c r="O168" s="31"/>
       <c r="P168" s="31"/>
     </row>
-    <row r="169" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16" ht="30">
       <c r="A169" s="25" t="s">
         <v>21</v>
       </c>
@@ -65534,7 +65534,7 @@
       <c r="O169" s="21"/>
       <c r="P169" s="21"/>
     </row>
-    <row r="170" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16" ht="30">
       <c r="A170" s="35" t="s">
         <v>21</v>
       </c>
@@ -65566,7 +65566,7 @@
       <c r="O170" s="31"/>
       <c r="P170" s="31"/>
     </row>
-    <row r="171" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16" ht="30">
       <c r="A171" s="25" t="s">
         <v>21</v>
       </c>
@@ -65598,7 +65598,7 @@
       <c r="O171" s="21"/>
       <c r="P171" s="21"/>
     </row>
-    <row r="172" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16" ht="30">
       <c r="A172" s="35" t="s">
         <v>21</v>
       </c>
@@ -65630,7 +65630,7 @@
       <c r="O172" s="31"/>
       <c r="P172" s="31"/>
     </row>
-    <row r="173" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:16" ht="30">
       <c r="A173" s="25" t="s">
         <v>21</v>
       </c>
@@ -65662,7 +65662,7 @@
       <c r="O173" s="21"/>
       <c r="P173" s="21"/>
     </row>
-    <row r="174" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:16" ht="30">
       <c r="A174" s="35" t="s">
         <v>21</v>
       </c>
@@ -65694,7 +65694,7 @@
       <c r="O174" s="31"/>
       <c r="P174" s="31"/>
     </row>
-    <row r="175" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:16" ht="30">
       <c r="A175" s="25" t="s">
         <v>21</v>
       </c>
@@ -65726,7 +65726,7 @@
       <c r="O175" s="21"/>
       <c r="P175" s="21"/>
     </row>
-    <row r="176" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:16" ht="30">
       <c r="A176" s="25" t="s">
         <v>21</v>
       </c>
@@ -65760,7 +65760,7 @@
       <c r="O176" s="21"/>
       <c r="P176" s="21"/>
     </row>
-    <row r="177" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16" ht="30">
       <c r="A177" s="35" t="s">
         <v>21</v>
       </c>
@@ -65792,7 +65792,7 @@
       <c r="O177" s="31"/>
       <c r="P177" s="31"/>
     </row>
-    <row r="178" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16" ht="30">
       <c r="A178" s="35" t="s">
         <v>21</v>
       </c>
@@ -65824,7 +65824,7 @@
       <c r="O178" s="31"/>
       <c r="P178" s="31"/>
     </row>
-    <row r="179" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16" ht="30">
       <c r="A179" s="25" t="s">
         <v>21</v>
       </c>
@@ -65856,7 +65856,7 @@
       <c r="O179" s="21"/>
       <c r="P179" s="21"/>
     </row>
-    <row r="180" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16" ht="48">
       <c r="A180" s="35" t="s">
         <v>21</v>
       </c>
@@ -65894,7 +65894,7 @@
       <c r="O180" s="31"/>
       <c r="P180" s="31"/>
     </row>
-    <row r="181" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:16" ht="30">
       <c r="A181" s="25" t="s">
         <v>21</v>
       </c>
@@ -65932,7 +65932,7 @@
       <c r="O181" s="21"/>
       <c r="P181" s="21"/>
     </row>
-    <row r="182" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:16" ht="48">
       <c r="A182" s="25" t="s">
         <v>21</v>
       </c>
@@ -65968,7 +65968,7 @@
       <c r="O182" s="21"/>
       <c r="P182" s="21"/>
     </row>
-    <row r="183" spans="1:16" ht="240" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16" ht="240">
       <c r="A183" s="35" t="s">
         <v>21</v>
       </c>
@@ -66006,7 +66006,7 @@
       <c r="O183" s="31"/>
       <c r="P183" s="31"/>
     </row>
-    <row r="184" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16" ht="409.6">
       <c r="A184" s="25" t="s">
         <v>21</v>
       </c>
@@ -66046,7 +66046,7 @@
       <c r="O184" s="21"/>
       <c r="P184" s="21"/>
     </row>
-    <row r="185" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16" ht="32.1">
       <c r="A185" s="25" t="s">
         <v>21</v>
       </c>
@@ -66084,7 +66084,7 @@
       <c r="O185" s="21"/>
       <c r="P185" s="21"/>
     </row>
-    <row r="186" spans="1:16" ht="304" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16" ht="303.95">
       <c r="A186" s="35" t="s">
         <v>21</v>
       </c>
@@ -66124,7 +66124,7 @@
       <c r="O186" s="31"/>
       <c r="P186" s="31"/>
     </row>
-    <row r="187" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16" ht="30">
       <c r="A187" s="35" t="s">
         <v>21</v>
       </c>
@@ -66160,7 +66160,7 @@
       <c r="O187" s="31"/>
       <c r="P187" s="31"/>
     </row>
-    <row r="188" spans="1:16" ht="94" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16" ht="93.95">
       <c r="A188" s="25" t="s">
         <v>21</v>
       </c>
@@ -66196,7 +66196,7 @@
       <c r="O188" s="21"/>
       <c r="P188" s="21"/>
     </row>
-    <row r="189" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:16" ht="32.1">
       <c r="A189" s="35" t="s">
         <v>21</v>
       </c>
@@ -66232,7 +66232,7 @@
       <c r="O189" s="31"/>
       <c r="P189" s="31"/>
     </row>
-    <row r="190" spans="1:16" ht="204" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16" ht="216">
       <c r="A190" s="25" t="s">
         <v>21</v>
       </c>
@@ -66270,7 +66270,7 @@
       <c r="O190" s="21"/>
       <c r="P190" s="21"/>
     </row>
-    <row r="191" spans="1:16" ht="72" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:16" ht="84">
       <c r="A191" s="35" t="s">
         <v>21</v>
       </c>
@@ -66308,7 +66308,7 @@
       <c r="O191" s="31"/>
       <c r="P191" s="31"/>
     </row>
-    <row r="192" spans="1:16" ht="228" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16" ht="228">
       <c r="A192" s="35" t="s">
         <v>21</v>
       </c>
@@ -66356,7 +66356,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:16" ht="60">
       <c r="A193" s="25" t="s">
         <v>21</v>
       </c>
@@ -66394,7 +66394,7 @@
       <c r="O193" s="21"/>
       <c r="P193" s="21"/>
     </row>
-    <row r="194" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:16" ht="36">
       <c r="A194" s="52" t="s">
         <v>324</v>
       </c>
@@ -66428,7 +66428,7 @@
       <c r="O194" s="21"/>
       <c r="P194" s="21"/>
     </row>
-    <row r="195" spans="1:16" ht="72" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:16" ht="72">
       <c r="A195" s="35" t="s">
         <v>21</v>
       </c>
@@ -66470,7 +66470,7 @@
       <c r="O195" s="31"/>
       <c r="P195" s="31"/>
     </row>
-    <row r="196" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:16" ht="30">
       <c r="A196" s="35" t="s">
         <v>21</v>
       </c>
@@ -66508,7 +66508,7 @@
       <c r="O196" s="31"/>
       <c r="P196" s="31"/>
     </row>
-    <row r="197" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:16" ht="60">
       <c r="A197" s="25" t="s">
         <v>21</v>
       </c>
@@ -66546,7 +66546,7 @@
       <c r="O197" s="21"/>
       <c r="P197" s="21"/>
     </row>
-    <row r="198" spans="1:16" ht="75" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:16" ht="75">
       <c r="A198" s="25" t="s">
         <v>21</v>
       </c>
@@ -66584,7 +66584,7 @@
       <c r="O198" s="21"/>
       <c r="P198" s="21"/>
     </row>
-    <row r="199" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:16" ht="30">
       <c r="A199" s="35" t="s">
         <v>21</v>
       </c>
@@ -66622,7 +66622,7 @@
       <c r="O199" s="31"/>
       <c r="P199" s="31"/>
     </row>
-    <row r="200" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:16" ht="30">
       <c r="A200" s="25" t="s">
         <v>21</v>
       </c>
@@ -66658,7 +66658,7 @@
       <c r="O200" s="21"/>
       <c r="P200" s="21"/>
     </row>
-    <row r="201" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:16" ht="30">
       <c r="A201" s="35" t="s">
         <v>21</v>
       </c>
@@ -66696,7 +66696,7 @@
       <c r="O201" s="31"/>
       <c r="P201" s="31"/>
     </row>
-    <row r="202" spans="1:16" ht="72" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:16" ht="72">
       <c r="A202" s="25" t="s">
         <v>21</v>
       </c>
@@ -66734,7 +66734,7 @@
       <c r="O202" s="21"/>
       <c r="P202" s="21"/>
     </row>
-    <row r="203" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:16" ht="30">
       <c r="A203" s="25" t="s">
         <v>21</v>
       </c>
@@ -66766,7 +66766,7 @@
       <c r="O203" s="21"/>
       <c r="P203" s="21"/>
     </row>
-    <row r="204" spans="1:16" ht="328" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:16" ht="327.95">
       <c r="A204" s="35" t="s">
         <v>21</v>
       </c>
@@ -66806,7 +66806,7 @@
       <c r="O204" s="31"/>
       <c r="P204" s="31"/>
     </row>
-    <row r="205" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:16" ht="60">
       <c r="A205" s="25" t="s">
         <v>21</v>
       </c>
@@ -66840,7 +66840,7 @@
       <c r="O205" s="21"/>
       <c r="P205" s="21"/>
     </row>
-    <row r="206" spans="1:16" ht="112" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:16" ht="111.95">
       <c r="A206" s="35" t="s">
         <v>21</v>
       </c>
@@ -66880,7 +66880,7 @@
       <c r="O206" s="31"/>
       <c r="P206" s="31"/>
     </row>
-    <row r="207" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:16" ht="36">
       <c r="A207" s="35" t="s">
         <v>21</v>
       </c>
@@ -66914,7 +66914,7 @@
       <c r="O207" s="31"/>
       <c r="P207" s="31"/>
     </row>
-    <row r="208" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:16" ht="36">
       <c r="A208" s="35" t="s">
         <v>21</v>
       </c>
@@ -66948,7 +66948,7 @@
       <c r="O208" s="31"/>
       <c r="P208" s="31"/>
     </row>
-    <row r="209" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:16" ht="32.1">
       <c r="A209" s="25" t="s">
         <v>21</v>
       </c>
@@ -66982,7 +66982,7 @@
       <c r="O209" s="21"/>
       <c r="P209" s="21"/>
     </row>
-    <row r="210" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:16" ht="36">
       <c r="A210" s="35" t="s">
         <v>21</v>
       </c>
@@ -67016,7 +67016,7 @@
       <c r="O210" s="31"/>
       <c r="P210" s="31"/>
     </row>
-    <row r="211" spans="1:16" ht="64" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:16" ht="63.95">
       <c r="A211" s="25" t="s">
         <v>21</v>
       </c>
@@ -67052,7 +67052,7 @@
       <c r="O211" s="21"/>
       <c r="P211" s="21"/>
     </row>
-    <row r="212" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:16" ht="36">
       <c r="A212" s="35" t="s">
         <v>21</v>
       </c>
@@ -67086,7 +67086,7 @@
       <c r="O212" s="31"/>
       <c r="P212" s="31"/>
     </row>
-    <row r="213" spans="1:16" ht="105" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:16" ht="105">
       <c r="A213" s="25" t="s">
         <v>21</v>
       </c>
@@ -67122,7 +67122,7 @@
       <c r="O213" s="21"/>
       <c r="P213" s="21"/>
     </row>
-    <row r="214" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:16" ht="48">
       <c r="A214" s="25" t="s">
         <v>21</v>
       </c>
@@ -67160,7 +67160,7 @@
       <c r="O214" s="21"/>
       <c r="P214" s="21"/>
     </row>
-    <row r="215" spans="1:16" ht="365" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:16" ht="365.1">
       <c r="A215" s="25" t="s">
         <v>21</v>
       </c>
@@ -67195,7 +67195,7 @@
       <c r="O215" s="21"/>
       <c r="P215" s="21"/>
     </row>
-    <row r="216" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:16" ht="30">
       <c r="A216" s="25" t="s">
         <v>21</v>
       </c>
@@ -67231,7 +67231,7 @@
       <c r="O216" s="21"/>
       <c r="P216" s="21"/>
     </row>
-    <row r="217" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:16" ht="30">
       <c r="A217" s="25" t="s">
         <v>21</v>
       </c>
@@ -67263,7 +67263,7 @@
       <c r="O217" s="21"/>
       <c r="P217" s="21"/>
     </row>
-    <row r="218" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:16" ht="30">
       <c r="A218" s="25" t="s">
         <v>21</v>
       </c>
@@ -67299,7 +67299,7 @@
       <c r="O218" s="21"/>
       <c r="P218" s="21"/>
     </row>
-    <row r="219" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:16" ht="30">
       <c r="A219" s="25" t="s">
         <v>21</v>
       </c>
@@ -67331,7 +67331,7 @@
       <c r="O219" s="21"/>
       <c r="P219" s="21"/>
     </row>
-    <row r="220" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:16" ht="32.1">
       <c r="A220" s="25" t="s">
         <v>21</v>
       </c>
@@ -67365,7 +67365,7 @@
       <c r="O220" s="21"/>
       <c r="P220" s="21"/>
     </row>
-    <row r="221" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:16" ht="32.1">
       <c r="A221" s="25" t="s">
         <v>21</v>
       </c>
@@ -67395,7 +67395,7 @@
       <c r="O221" s="21"/>
       <c r="P221" s="21"/>
     </row>
-    <row r="222" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:16" ht="30">
       <c r="A222" s="35" t="s">
         <v>21</v>
       </c>
@@ -67429,7 +67429,7 @@
       <c r="O222" s="31"/>
       <c r="P222" s="31"/>
     </row>
-    <row r="223" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:16" ht="48">
       <c r="A223" s="35" t="s">
         <v>21</v>
       </c>
@@ -67463,7 +67463,7 @@
       <c r="O223" s="31"/>
       <c r="P223" s="31"/>
     </row>
-    <row r="224" spans="1:16" ht="192" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:16" ht="192">
       <c r="A224" s="35" t="s">
         <v>21</v>
       </c>
@@ -67501,7 +67501,7 @@
       <c r="O224" s="31"/>
       <c r="P224" s="31"/>
     </row>
-    <row r="225" spans="1:16" ht="240" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:16" ht="240">
       <c r="A225" s="25" t="s">
         <v>21</v>
       </c>
@@ -67537,7 +67537,7 @@
       <c r="O225" s="21"/>
       <c r="P225" s="21"/>
     </row>
-    <row r="226" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:16" ht="30">
       <c r="A226" s="25" t="s">
         <v>21</v>
       </c>
@@ -67573,7 +67573,7 @@
       <c r="O226" s="21"/>
       <c r="P226" s="21"/>
     </row>
-    <row r="227" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:16" ht="30">
       <c r="A227" s="35" t="s">
         <v>21</v>
       </c>
@@ -67607,7 +67607,7 @@
       <c r="O227" s="31"/>
       <c r="P227" s="31"/>
     </row>
-    <row r="228" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:16" ht="30">
       <c r="A228" s="25" t="s">
         <v>21</v>
       </c>
@@ -67647,7 +67647,7 @@
       <c r="O228" s="51"/>
       <c r="P228" s="51"/>
     </row>
-    <row r="229" spans="1:16" ht="96" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:16" ht="96">
       <c r="A229" s="25" t="s">
         <v>21</v>
       </c>
@@ -67689,7 +67689,7 @@
       <c r="O229" s="21"/>
       <c r="P229" s="21"/>
     </row>
-    <row r="230" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:16" ht="30">
       <c r="A230" s="25" t="s">
         <v>21</v>
       </c>
@@ -67723,7 +67723,7 @@
       <c r="O230" s="21"/>
       <c r="P230" s="21"/>
     </row>
-    <row r="231" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:16" ht="48">
       <c r="A231" s="25" t="s">
         <v>21</v>
       </c>
@@ -67759,7 +67759,7 @@
       <c r="O231" s="21"/>
       <c r="P231" s="21"/>
     </row>
-    <row r="232" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:16" ht="30">
       <c r="A232" s="25" t="s">
         <v>21</v>
       </c>
@@ -67791,7 +67791,7 @@
       <c r="O232" s="21"/>
       <c r="P232" s="21"/>
     </row>
-    <row r="233" spans="1:16" s="24" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:16" s="24" customFormat="1" ht="96">
       <c r="A233" s="25" t="s">
         <v>21</v>
       </c>
@@ -67833,7 +67833,7 @@
       <c r="O233" s="21"/>
       <c r="P233" s="21"/>
     </row>
-    <row r="234" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:16" ht="30">
       <c r="A234" s="25" t="s">
         <v>21</v>
       </c>
@@ -67869,7 +67869,7 @@
       <c r="O234" s="21"/>
       <c r="P234" s="21"/>
     </row>
-    <row r="235" spans="1:16" ht="156" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:16" ht="156">
       <c r="A235" s="35" t="s">
         <v>21</v>
       </c>
@@ -67907,7 +67907,7 @@
       <c r="O235" s="31"/>
       <c r="P235" s="31"/>
     </row>
-    <row r="236" spans="1:16" ht="394" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:16" ht="393.95">
       <c r="A236" s="25" t="s">
         <v>21</v>
       </c>
@@ -67955,7 +67955,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:16" ht="30">
       <c r="A237" s="25" t="s">
         <v>21</v>
       </c>
@@ -67991,7 +67991,7 @@
       <c r="O237" s="21"/>
       <c r="P237" s="21"/>
     </row>
-    <row r="238" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:16" ht="30">
       <c r="A238" s="35" t="s">
         <v>21</v>
       </c>
@@ -68027,7 +68027,7 @@
       <c r="O238" s="31"/>
       <c r="P238" s="31"/>
     </row>
-    <row r="239" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:16" ht="32.1">
       <c r="A239" s="25" t="s">
         <v>21</v>
       </c>
@@ -68059,7 +68059,7 @@
       <c r="O239" s="21"/>
       <c r="P239" s="21"/>
     </row>
-    <row r="240" spans="1:16" ht="64" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:16" ht="63.95">
       <c r="A240" s="35" t="s">
         <v>21</v>
       </c>
@@ -68097,7 +68097,7 @@
       <c r="O240" s="31"/>
       <c r="P240" s="31"/>
     </row>
-    <row r="241" spans="1:16" ht="72" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:16" ht="72">
       <c r="A241" s="25" t="s">
         <v>21</v>
       </c>
@@ -68131,7 +68131,7 @@
       <c r="O241" s="21"/>
       <c r="P241" s="21"/>
     </row>
-    <row r="242" spans="1:16" ht="72" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:16" ht="72">
       <c r="A242" s="25" t="s">
         <v>21</v>
       </c>
@@ -68171,7 +68171,7 @@
       <c r="O242" s="21"/>
       <c r="P242" s="21"/>
     </row>
-    <row r="243" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:16" ht="36">
       <c r="A243" s="25" t="s">
         <v>21</v>
       </c>
@@ -68207,7 +68207,7 @@
       <c r="O243" s="21"/>
       <c r="P243" s="21"/>
     </row>
-    <row r="244" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:16" ht="36">
       <c r="A244" s="35" t="s">
         <v>21</v>
       </c>
@@ -68241,7 +68241,7 @@
       <c r="O244" s="31"/>
       <c r="P244" s="31"/>
     </row>
-    <row r="245" spans="1:16" ht="168" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:16" ht="168">
       <c r="A245" s="25" t="s">
         <v>21</v>
       </c>
@@ -68281,7 +68281,7 @@
       <c r="O245" s="31"/>
       <c r="P245" s="31"/>
     </row>
-    <row r="246" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:16" ht="60">
       <c r="A246" s="25" t="s">
         <v>21</v>
       </c>
@@ -68323,7 +68323,7 @@
       <c r="O246" s="21"/>
       <c r="P246" s="21"/>
     </row>
-    <row r="247" spans="1:16" ht="108" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:16" ht="108">
       <c r="A247" s="25" t="s">
         <v>21</v>
       </c>
@@ -68361,7 +68361,7 @@
       <c r="O247" s="21"/>
       <c r="P247" s="21"/>
     </row>
-    <row r="248" spans="1:16" ht="128" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:16" ht="144">
       <c r="A248" s="25" t="s">
         <v>21</v>
       </c>
@@ -68401,7 +68401,7 @@
       <c r="O248" s="21"/>
       <c r="P248" s="21"/>
     </row>
-    <row r="249" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:16" ht="30">
       <c r="A249" s="35" t="s">
         <v>21</v>
       </c>
@@ -68433,7 +68433,7 @@
       <c r="O249" s="31"/>
       <c r="P249" s="31"/>
     </row>
-    <row r="250" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:16" ht="30">
       <c r="A250" s="25" t="s">
         <v>21</v>
       </c>
@@ -68467,7 +68467,7 @@
       <c r="O250" s="21"/>
       <c r="P250" s="21"/>
     </row>
-    <row r="251" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:16" ht="30">
       <c r="A251" s="35" t="s">
         <v>21</v>
       </c>
@@ -68501,7 +68501,7 @@
       <c r="O251" s="31"/>
       <c r="P251" s="31"/>
     </row>
-    <row r="252" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:16" ht="30">
       <c r="A252" s="25" t="s">
         <v>21</v>
       </c>
@@ -68533,7 +68533,7 @@
       <c r="O252" s="21"/>
       <c r="P252" s="21"/>
     </row>
-    <row r="253" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:16" ht="30">
       <c r="A253" s="25" t="s">
         <v>21</v>
       </c>
@@ -68567,7 +68567,7 @@
       <c r="O253" s="21"/>
       <c r="P253" s="21"/>
     </row>
-    <row r="254" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:16" ht="45">
       <c r="A254" s="35" t="s">
         <v>21</v>
       </c>
@@ -68601,7 +68601,7 @@
       <c r="O254" s="31"/>
       <c r="P254" s="31"/>
     </row>
-    <row r="255" spans="1:16" ht="132" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:16" ht="132">
       <c r="A255" s="35" t="s">
         <v>21</v>
       </c>
@@ -68639,7 +68639,7 @@
       <c r="O255" s="31"/>
       <c r="P255" s="31"/>
     </row>
-    <row r="256" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:16" ht="30">
       <c r="A256" s="25" t="s">
         <v>21</v>
       </c>
@@ -68673,7 +68673,7 @@
       <c r="O256" s="21"/>
       <c r="P256" s="21"/>
     </row>
-    <row r="257" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:16" ht="30">
       <c r="A257" s="25" t="s">
         <v>21</v>
       </c>
@@ -68705,7 +68705,7 @@
       <c r="O257" s="21"/>
       <c r="P257" s="21"/>
     </row>
-    <row r="258" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:16" ht="30">
       <c r="A258" s="35" t="s">
         <v>21</v>
       </c>
@@ -68739,7 +68739,7 @@
       <c r="O258" s="31"/>
       <c r="P258" s="31"/>
     </row>
-    <row r="259" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:16" ht="30">
       <c r="A259" s="25" t="s">
         <v>21</v>
       </c>
@@ -68773,7 +68773,7 @@
       <c r="O259" s="21"/>
       <c r="P259" s="21"/>
     </row>
-    <row r="260" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:16" ht="30">
       <c r="A260" s="25" t="s">
         <v>21</v>
       </c>
@@ -68807,7 +68807,7 @@
       <c r="O260" s="21"/>
       <c r="P260" s="21"/>
     </row>
-    <row r="261" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:16" ht="30">
       <c r="A261" s="25" t="s">
         <v>21</v>
       </c>
@@ -68839,7 +68839,7 @@
       <c r="O261" s="21"/>
       <c r="P261" s="21"/>
     </row>
-    <row r="262" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:16" ht="30">
       <c r="A262" s="25" t="s">
         <v>21</v>
       </c>
@@ -68871,7 +68871,7 @@
       <c r="O262" s="21"/>
       <c r="P262" s="21"/>
     </row>
-    <row r="263" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:16" ht="409.6">
       <c r="A263" s="25" t="s">
         <v>21</v>
       </c>
@@ -68908,7 +68908,7 @@
       <c r="O263" s="21"/>
       <c r="P263" s="21"/>
     </row>
-    <row r="264" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:16" ht="30">
       <c r="A264" s="25" t="s">
         <v>21</v>
       </c>
@@ -68944,7 +68944,7 @@
       <c r="O264" s="21"/>
       <c r="P264" s="21"/>
     </row>
-    <row r="265" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:16" ht="30">
       <c r="A265" s="25" t="s">
         <v>21</v>
       </c>
@@ -68978,7 +68978,7 @@
       <c r="O265" s="21"/>
       <c r="P265" s="21"/>
     </row>
-    <row r="266" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:16" ht="30">
       <c r="A266" s="25" t="s">
         <v>21</v>
       </c>
@@ -69010,7 +69010,7 @@
       <c r="O266" s="21"/>
       <c r="P266" s="21"/>
     </row>
-    <row r="267" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:16" ht="60">
       <c r="A267" s="35" t="s">
         <v>21</v>
       </c>
@@ -69046,7 +69046,7 @@
       <c r="O267" s="31"/>
       <c r="P267" s="31"/>
     </row>
-    <row r="268" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:16" ht="30">
       <c r="A268" s="35" t="s">
         <v>21</v>
       </c>
@@ -69082,7 +69082,7 @@
       <c r="O268" s="31"/>
       <c r="P268" s="31"/>
     </row>
-    <row r="269" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:16" ht="30">
       <c r="A269" s="25" t="s">
         <v>21</v>
       </c>
@@ -69114,7 +69114,7 @@
       <c r="O269" s="21"/>
       <c r="P269" s="21"/>
     </row>
-    <row r="270" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:16" ht="60">
       <c r="A270" s="25" t="s">
         <v>21</v>
       </c>
@@ -69148,7 +69148,7 @@
       <c r="O270" s="21"/>
       <c r="P270" s="21"/>
     </row>
-    <row r="271" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:16" ht="30">
       <c r="A271" s="35" t="s">
         <v>21</v>
       </c>
@@ -69184,7 +69184,7 @@
       <c r="O271" s="31"/>
       <c r="P271" s="31"/>
     </row>
-    <row r="272" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:16" ht="30">
       <c r="A272" s="35" t="s">
         <v>21</v>
       </c>
@@ -69216,7 +69216,7 @@
       <c r="O272" s="31"/>
       <c r="P272" s="31"/>
     </row>
-    <row r="273" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:16" ht="30">
       <c r="A273" s="25" t="s">
         <v>21</v>
       </c>
@@ -69248,7 +69248,7 @@
       <c r="O273" s="21"/>
       <c r="P273" s="21"/>
     </row>
-    <row r="274" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:16" ht="30">
       <c r="A274" s="25" t="s">
         <v>21</v>
       </c>
@@ -69280,7 +69280,7 @@
       <c r="O274" s="21"/>
       <c r="P274" s="21"/>
     </row>
-    <row r="275" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:16" ht="30">
       <c r="A275" s="25" t="s">
         <v>21</v>
       </c>
@@ -69314,7 +69314,7 @@
       <c r="O275" s="21"/>
       <c r="P275" s="21"/>
     </row>
-    <row r="276" spans="1:16" ht="90" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:16" ht="90">
       <c r="A276" s="25" t="s">
         <v>21</v>
       </c>
@@ -69348,7 +69348,7 @@
       <c r="O276" s="21"/>
       <c r="P276" s="21"/>
     </row>
-    <row r="277" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:16" ht="60">
       <c r="A277" s="25" t="s">
         <v>21</v>
       </c>
@@ -69384,7 +69384,7 @@
       <c r="O277" s="21"/>
       <c r="P277" s="21"/>
     </row>
-    <row r="278" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:16" ht="48">
       <c r="A278" s="25" t="s">
         <v>21</v>
       </c>
@@ -69420,7 +69420,7 @@
       <c r="O278" s="21"/>
       <c r="P278" s="21"/>
     </row>
-    <row r="279" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:16" ht="30">
       <c r="A279" s="35" t="s">
         <v>21</v>
       </c>
@@ -69458,7 +69458,7 @@
       <c r="O279" s="31"/>
       <c r="P279" s="31"/>
     </row>
-    <row r="280" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:16" ht="30">
       <c r="A280" s="25" t="s">
         <v>21</v>
       </c>
@@ -69496,7 +69496,7 @@
       <c r="O280" s="21"/>
       <c r="P280" s="21"/>
     </row>
-    <row r="281" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:16" ht="48">
       <c r="A281" s="25" t="s">
         <v>21</v>
       </c>
@@ -69532,7 +69532,7 @@
       <c r="O281" s="31"/>
       <c r="P281" s="31"/>
     </row>
-    <row r="282" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:16" ht="36">
       <c r="A282" s="25" t="s">
         <v>21</v>
       </c>
@@ -69570,7 +69570,7 @@
       <c r="O282" s="21"/>
       <c r="P282" s="21"/>
     </row>
-    <row r="283" spans="1:16" ht="84" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:16" ht="84">
       <c r="A283" s="25" t="s">
         <v>21</v>
       </c>
@@ -69604,7 +69604,7 @@
       <c r="O283" s="21"/>
       <c r="P283" s="21"/>
     </row>
-    <row r="284" spans="1:16" ht="72" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:16" ht="72">
       <c r="A284" s="25" t="s">
         <v>21</v>
       </c>
@@ -69640,7 +69640,7 @@
       <c r="O284" s="21"/>
       <c r="P284" s="21"/>
     </row>
-    <row r="285" spans="1:16" ht="80" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:16" ht="80.099999999999994">
       <c r="A285" s="25" t="s">
         <v>800</v>
       </c>
@@ -69680,7 +69680,7 @@
       <c r="O285" s="21"/>
       <c r="P285" s="21"/>
     </row>
-    <row r="286" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:16" ht="30">
       <c r="A286" s="25" t="s">
         <v>21</v>
       </c>
@@ -69716,7 +69716,7 @@
       <c r="O286" s="21"/>
       <c r="P286" s="21"/>
     </row>
-    <row r="287" spans="1:16" ht="294" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:16" ht="294">
       <c r="A287" s="25" t="s">
         <v>21</v>
       </c>
@@ -69750,7 +69750,7 @@
       <c r="O287" s="21"/>
       <c r="P287" s="21"/>
     </row>
-    <row r="288" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:16" ht="30">
       <c r="A288" s="35" t="s">
         <v>21</v>
       </c>
@@ -69786,7 +69786,7 @@
       <c r="O288" s="31"/>
       <c r="P288" s="31"/>
     </row>
-    <row r="289" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:16" ht="32.1">
       <c r="A289" s="25" t="s">
         <v>21</v>
       </c>
@@ -69822,7 +69822,7 @@
       <c r="O289" s="21"/>
       <c r="P289" s="21"/>
     </row>
-    <row r="290" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:16" ht="30">
       <c r="A290" s="25" t="s">
         <v>21</v>
       </c>
@@ -69858,7 +69858,7 @@
       <c r="O290" s="21"/>
       <c r="P290" s="21"/>
     </row>
-    <row r="291" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:16" ht="48">
       <c r="A291" s="25" t="s">
         <v>21</v>
       </c>
@@ -69892,7 +69892,7 @@
       <c r="O291" s="21"/>
       <c r="P291" s="21"/>
     </row>
-    <row r="292" spans="1:16" ht="96" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:16" ht="96">
       <c r="A292" s="25" t="s">
         <v>21</v>
       </c>
@@ -69928,7 +69928,7 @@
       <c r="O292" s="21"/>
       <c r="P292" s="21"/>
     </row>
-    <row r="293" spans="1:16" ht="160" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:16" ht="159.94999999999999">
       <c r="A293" s="25" t="s">
         <v>21</v>
       </c>
@@ -69968,7 +69968,7 @@
       <c r="O293" s="21"/>
       <c r="P293" s="21"/>
     </row>
-    <row r="294" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:16" ht="60">
       <c r="A294" s="25" t="s">
         <v>21</v>
       </c>
@@ -70000,7 +70000,7 @@
       <c r="O294" s="21"/>
       <c r="P294" s="21"/>
     </row>
-    <row r="295" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:16" ht="30">
       <c r="A295" s="35" t="s">
         <v>21</v>
       </c>
@@ -70034,7 +70034,7 @@
       <c r="O295" s="31"/>
       <c r="P295" s="31"/>
     </row>
-    <row r="296" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:16" ht="30">
       <c r="A296" s="25" t="s">
         <v>21</v>
       </c>
@@ -70068,7 +70068,7 @@
       <c r="O296" s="21"/>
       <c r="P296" s="21"/>
     </row>
-    <row r="297" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:16" ht="30">
       <c r="A297" s="35" t="s">
         <v>21</v>
       </c>
@@ -70104,7 +70104,7 @@
       <c r="O297" s="31"/>
       <c r="P297" s="31"/>
     </row>
-    <row r="298" spans="1:16" ht="72" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:16" ht="72">
       <c r="A298" s="35" t="s">
         <v>21</v>
       </c>
@@ -70140,7 +70140,7 @@
       <c r="O298" s="31"/>
       <c r="P298" s="31"/>
     </row>
-    <row r="299" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:16" ht="32.1">
       <c r="A299" s="35" t="s">
         <v>21</v>
       </c>
@@ -70177,7 +70177,7 @@
       <c r="O299" s="31"/>
       <c r="P299" s="31"/>
     </row>
-    <row r="300" spans="1:16" ht="80" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:16" ht="96">
       <c r="A300" s="61" t="s">
         <v>849</v>
       </c>
@@ -70213,7 +70213,7 @@
       <c r="O300" s="21"/>
       <c r="P300" s="21"/>
     </row>
-    <row r="301" spans="1:16" ht="80" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:16" ht="96">
       <c r="A301" s="25" t="s">
         <v>855</v>
       </c>
@@ -70247,7 +70247,7 @@
       <c r="O301" s="21"/>
       <c r="P301" s="21"/>
     </row>
-    <row r="302" spans="1:16" ht="251" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:16" ht="251.1">
       <c r="A302" s="52" t="s">
         <v>849</v>
       </c>
@@ -70283,7 +70283,7 @@
       <c r="O302" s="21"/>
       <c r="P302" s="21"/>
     </row>
-    <row r="303" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:16" ht="409.6">
       <c r="A303" s="25" t="s">
         <v>855</v>
       </c>
@@ -70317,7 +70317,7 @@
       <c r="O303" s="21"/>
       <c r="P303" s="21"/>
     </row>
-    <row r="304" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:16" ht="409.6">
       <c r="A304" s="25" t="s">
         <v>864</v>
       </c>
@@ -70353,7 +70353,7 @@
       <c r="O304" s="21"/>
       <c r="P304" s="21"/>
     </row>
-    <row r="305" spans="1:16" ht="240" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:16" ht="240">
       <c r="A305" s="25" t="s">
         <v>869</v>
       </c>
@@ -70389,7 +70389,7 @@
       <c r="O305" s="21"/>
       <c r="P305" s="21"/>
     </row>
-    <row r="306" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:16" ht="409.6">
       <c r="A306" s="52" t="s">
         <v>874</v>
       </c>
@@ -70425,7 +70425,7 @@
       <c r="O306" s="21"/>
       <c r="P306" s="21"/>
     </row>
-    <row r="307" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:16" ht="409.6">
       <c r="A307" s="25" t="s">
         <v>879</v>
       </c>
@@ -70461,7 +70461,7 @@
       <c r="O307" s="21"/>
       <c r="P307" s="21"/>
     </row>
-    <row r="308" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:16" ht="30">
       <c r="A308" s="25" t="s">
         <v>21</v>
       </c>
@@ -70493,7 +70493,7 @@
       <c r="O308" s="21"/>
       <c r="P308" s="21"/>
     </row>
-    <row r="309" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:16" ht="30">
       <c r="A309" s="35" t="s">
         <v>21</v>
       </c>
@@ -70527,7 +70527,7 @@
       <c r="O309" s="31"/>
       <c r="P309" s="31"/>
     </row>
-    <row r="310" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:16" ht="30">
       <c r="A310" s="35" t="s">
         <v>21</v>
       </c>
@@ -70557,7 +70557,7 @@
       <c r="O310" s="31"/>
       <c r="P310" s="31"/>
     </row>
-    <row r="311" spans="1:16" ht="84" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:16" ht="96">
       <c r="A311" s="25" t="s">
         <v>21</v>
       </c>
@@ -70593,7 +70593,7 @@
       <c r="O311" s="21"/>
       <c r="P311" s="21"/>
     </row>
-    <row r="312" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:16" ht="30">
       <c r="A312" s="25" t="s">
         <v>21</v>
       </c>
@@ -70631,7 +70631,7 @@
       <c r="O312" s="21"/>
       <c r="P312" s="21"/>
     </row>
-    <row r="313" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:16" ht="30">
       <c r="A313" s="35" t="s">
         <v>21</v>
       </c>
@@ -70663,7 +70663,7 @@
       <c r="O313" s="31"/>
       <c r="P313" s="31"/>
     </row>
-    <row r="314" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:16" ht="32.1">
       <c r="A314" s="25" t="s">
         <v>21</v>
       </c>
@@ -70699,7 +70699,7 @@
       <c r="O314" s="21"/>
       <c r="P314" s="21"/>
     </row>
-    <row r="315" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:16" ht="30">
       <c r="A315" s="25" t="s">
         <v>21</v>
       </c>
@@ -70735,7 +70735,7 @@
       <c r="O315" s="21"/>
       <c r="P315" s="21"/>
     </row>
-    <row r="316" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:16" ht="30">
       <c r="A316" s="35" t="s">
         <v>21</v>
       </c>
@@ -70767,7 +70767,7 @@
       <c r="O316" s="31"/>
       <c r="P316" s="31"/>
     </row>
-    <row r="317" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:16" ht="36">
       <c r="A317" s="35" t="s">
         <v>21</v>
       </c>
@@ -70803,7 +70803,7 @@
       <c r="O317" s="31"/>
       <c r="P317" s="31"/>
     </row>
-    <row r="318" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:16" ht="30">
       <c r="A318" s="35" t="s">
         <v>21</v>
       </c>
@@ -70833,7 +70833,7 @@
       <c r="O318" s="31"/>
       <c r="P318" s="31"/>
     </row>
-    <row r="319" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:16" ht="30">
       <c r="A319" s="35" t="s">
         <v>21</v>
       </c>
@@ -70869,7 +70869,7 @@
       <c r="O319" s="31"/>
       <c r="P319" s="31"/>
     </row>
-    <row r="320" spans="1:16" ht="96" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:16" ht="96">
       <c r="A320" s="35" t="s">
         <v>21</v>
       </c>
@@ -70911,7 +70911,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="321" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:16" ht="30">
       <c r="A321" s="25" t="s">
         <v>21</v>
       </c>
@@ -70943,7 +70943,7 @@
       <c r="O321" s="21"/>
       <c r="P321" s="21"/>
     </row>
-    <row r="322" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:16" ht="30">
       <c r="A322" s="35" t="s">
         <v>21</v>
       </c>
@@ -70977,7 +70977,7 @@
       <c r="O322" s="31"/>
       <c r="P322" s="31"/>
     </row>
-    <row r="323" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:16" ht="30">
       <c r="A323" s="25" t="s">
         <v>21</v>
       </c>
@@ -71013,7 +71013,7 @@
       <c r="O323" s="21"/>
       <c r="P323" s="21"/>
     </row>
-    <row r="324" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:16" ht="30">
       <c r="A324" s="35" t="s">
         <v>21</v>
       </c>
@@ -71045,7 +71045,7 @@
       <c r="O324" s="31"/>
       <c r="P324" s="31"/>
     </row>
-    <row r="325" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:16" ht="30">
       <c r="A325" s="35" t="s">
         <v>21</v>
       </c>
@@ -71077,7 +71077,7 @@
       <c r="O325" s="31"/>
       <c r="P325" s="31"/>
     </row>
-    <row r="326" spans="1:16" ht="96" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:16" ht="96">
       <c r="A326" s="25" t="s">
         <v>21</v>
       </c>
@@ -71113,7 +71113,7 @@
       <c r="O326" s="21"/>
       <c r="P326" s="21"/>
     </row>
-    <row r="327" spans="1:16" ht="156" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:16" ht="156">
       <c r="A327" s="25" t="s">
         <v>21</v>
       </c>
@@ -71147,7 +71147,7 @@
       <c r="O327" s="21"/>
       <c r="P327" s="21"/>
     </row>
-    <row r="328" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:16" ht="30">
       <c r="A328" s="25" t="s">
         <v>21</v>
       </c>
@@ -71181,7 +71181,7 @@
       <c r="O328" s="21"/>
       <c r="P328" s="21"/>
     </row>
-    <row r="329" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:16" ht="48">
       <c r="A329" s="35" t="s">
         <v>21</v>
       </c>
@@ -71215,7 +71215,7 @@
       <c r="O329" s="31"/>
       <c r="P329" s="31"/>
     </row>
-    <row r="330" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:16" ht="30">
       <c r="A330" s="25" t="s">
         <v>21</v>
       </c>
@@ -71251,7 +71251,7 @@
       <c r="O330" s="21"/>
       <c r="P330" s="21"/>
     </row>
-    <row r="331" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:16" ht="30">
       <c r="A331" s="35" t="s">
         <v>21</v>
       </c>
@@ -71287,7 +71287,7 @@
       <c r="O331" s="31"/>
       <c r="P331" s="31"/>
     </row>
-    <row r="332" spans="1:16" ht="108" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:16" ht="108">
       <c r="A332" s="25" t="s">
         <v>21</v>
       </c>
@@ -71325,7 +71325,7 @@
       <c r="O332" s="21"/>
       <c r="P332" s="21"/>
     </row>
-    <row r="333" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:16" ht="30">
       <c r="A333" s="35" t="s">
         <v>21</v>
       </c>
@@ -71357,7 +71357,7 @@
       <c r="O333" s="31"/>
       <c r="P333" s="31"/>
     </row>
-    <row r="334" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:16" ht="15.95">
       <c r="A334" s="35" t="s">
         <v>324</v>
       </c>
@@ -71389,7 +71389,7 @@
       <c r="O334" s="31"/>
       <c r="P334" s="31"/>
     </row>
-    <row r="335" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:16" ht="15.95">
       <c r="A335" s="25" t="s">
         <v>324</v>
       </c>
@@ -71421,7 +71421,7 @@
       <c r="O335" s="21"/>
       <c r="P335" s="21"/>
     </row>
-    <row r="336" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:16" ht="30">
       <c r="A336" s="25" t="s">
         <v>21</v>
       </c>
@@ -71455,7 +71455,7 @@
       <c r="O336" s="21"/>
       <c r="P336" s="21"/>
     </row>
-    <row r="337" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:16" ht="30">
       <c r="A337" s="25" t="s">
         <v>21</v>
       </c>
@@ -71487,7 +71487,7 @@
       <c r="O337" s="21"/>
       <c r="P337" s="21"/>
     </row>
-    <row r="338" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:16" ht="32.1">
       <c r="A338" s="25" t="s">
         <v>21</v>
       </c>
@@ -71521,7 +71521,7 @@
       <c r="O338" s="21"/>
       <c r="P338" s="21"/>
     </row>
-    <row r="339" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:16" ht="30">
       <c r="A339" s="35" t="s">
         <v>21</v>
       </c>
@@ -71555,7 +71555,7 @@
       <c r="O339" s="31"/>
       <c r="P339" s="31"/>
     </row>
-    <row r="340" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:16" ht="48">
       <c r="A340" s="25" t="s">
         <v>21</v>
       </c>
@@ -71591,7 +71591,7 @@
       <c r="O340" s="21"/>
       <c r="P340" s="21"/>
     </row>
-    <row r="341" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:16" ht="30">
       <c r="A341" s="35" t="s">
         <v>21</v>
       </c>
@@ -71623,7 +71623,7 @@
       <c r="O341" s="31"/>
       <c r="P341" s="31"/>
     </row>
-    <row r="342" spans="1:16" ht="90" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:16" ht="90">
       <c r="A342" s="25" t="s">
         <v>21</v>
       </c>
@@ -71657,7 +71657,7 @@
       <c r="O342" s="21"/>
       <c r="P342" s="21"/>
     </row>
-    <row r="343" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:16" ht="30">
       <c r="A343" s="25" t="s">
         <v>21</v>
       </c>
@@ -71689,7 +71689,7 @@
       <c r="O343" s="21"/>
       <c r="P343" s="21"/>
     </row>
-    <row r="344" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:16" ht="30">
       <c r="A344" s="35" t="s">
         <v>21</v>
       </c>
@@ -71721,7 +71721,7 @@
       <c r="O344" s="31"/>
       <c r="P344" s="31"/>
     </row>
-    <row r="345" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:16" ht="30">
       <c r="A345" s="35" t="s">
         <v>21</v>
       </c>
@@ -71753,7 +71753,7 @@
       <c r="O345" s="31"/>
       <c r="P345" s="31"/>
     </row>
-    <row r="346" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:16" ht="30">
       <c r="A346" s="25" t="s">
         <v>21</v>
       </c>
@@ -71785,7 +71785,7 @@
       <c r="O346" s="21"/>
       <c r="P346" s="21"/>
     </row>
-    <row r="347" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:16" ht="60">
       <c r="A347" s="35" t="s">
         <v>21</v>
       </c>
@@ -71817,7 +71817,7 @@
       <c r="O347" s="31"/>
       <c r="P347" s="31"/>
     </row>
-    <row r="348" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:16" ht="60">
       <c r="A348" s="25" t="s">
         <v>21</v>
       </c>
@@ -71849,7 +71849,7 @@
       <c r="O348" s="21"/>
       <c r="P348" s="21"/>
     </row>
-    <row r="349" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:16" ht="48">
       <c r="A349" s="35" t="s">
         <v>21</v>
       </c>
@@ -71885,7 +71885,7 @@
       <c r="O349" s="31"/>
       <c r="P349" s="31"/>
     </row>
-    <row r="350" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:16" ht="45">
       <c r="A350" s="25" t="s">
         <v>21</v>
       </c>
@@ -71919,7 +71919,7 @@
       <c r="O350" s="21"/>
       <c r="P350" s="21"/>
     </row>
-    <row r="351" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:16" ht="30">
       <c r="A351" s="35" t="s">
         <v>21</v>
       </c>
@@ -71953,7 +71953,7 @@
       <c r="O351" s="31"/>
       <c r="P351" s="31"/>
     </row>
-    <row r="352" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:16" ht="30">
       <c r="A352" s="25" t="s">
         <v>21</v>
       </c>
@@ -71985,7 +71985,7 @@
       <c r="O352" s="21"/>
       <c r="P352" s="21"/>
     </row>
-    <row r="353" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:16" ht="30">
       <c r="A353" s="35" t="s">
         <v>21</v>
       </c>
@@ -72017,7 +72017,7 @@
       <c r="O353" s="31"/>
       <c r="P353" s="31"/>
     </row>
-    <row r="354" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:16" ht="30">
       <c r="A354" s="25" t="s">
         <v>21</v>
       </c>
@@ -72049,7 +72049,7 @@
       <c r="O354" s="21"/>
       <c r="P354" s="21"/>
     </row>
-    <row r="355" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:16" ht="30">
       <c r="A355" s="35" t="s">
         <v>21</v>
       </c>
@@ -72081,7 +72081,7 @@
       <c r="O355" s="31"/>
       <c r="P355" s="31"/>
     </row>
-    <row r="356" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:16" ht="30">
       <c r="A356" s="25" t="s">
         <v>21</v>
       </c>
@@ -72113,7 +72113,7 @@
       <c r="O356" s="21"/>
       <c r="P356" s="21"/>
     </row>
-    <row r="357" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:16" ht="30">
       <c r="A357" s="35" t="s">
         <v>21</v>
       </c>
@@ -72145,7 +72145,7 @@
       <c r="O357" s="31"/>
       <c r="P357" s="31"/>
     </row>
-    <row r="358" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:16" ht="30">
       <c r="A358" s="25" t="s">
         <v>21</v>
       </c>
@@ -72177,7 +72177,7 @@
       <c r="O358" s="21"/>
       <c r="P358" s="21"/>
     </row>
-    <row r="359" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:16" ht="48">
       <c r="A359" s="35" t="s">
         <v>21</v>
       </c>
@@ -72211,7 +72211,7 @@
       <c r="O359" s="31"/>
       <c r="P359" s="31"/>
     </row>
-    <row r="360" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:16" ht="30">
       <c r="A360" s="35" t="s">
         <v>21</v>
       </c>
@@ -72245,7 +72245,7 @@
       <c r="O360" s="31"/>
       <c r="P360" s="31"/>
     </row>
-    <row r="361" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:16" ht="48">
       <c r="A361" s="25" t="s">
         <v>21</v>
       </c>
@@ -72279,7 +72279,7 @@
       <c r="O361" s="21"/>
       <c r="P361" s="21"/>
     </row>
-    <row r="362" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:16" ht="30">
       <c r="A362" s="25" t="s">
         <v>21</v>
       </c>
@@ -72311,7 +72311,7 @@
       <c r="O362" s="21"/>
       <c r="P362" s="21"/>
     </row>
-    <row r="363" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:16" ht="30">
       <c r="A363" s="35" t="s">
         <v>21</v>
       </c>
@@ -72343,7 +72343,7 @@
       <c r="O363" s="31"/>
       <c r="P363" s="31"/>
     </row>
-    <row r="364" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:16" ht="60">
       <c r="A364" s="25" t="s">
         <v>21</v>
       </c>
@@ -72379,7 +72379,7 @@
       <c r="O364" s="21"/>
       <c r="P364" s="21"/>
     </row>
-    <row r="365" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:16" ht="48">
       <c r="A365" s="35" t="s">
         <v>21</v>
       </c>
@@ -72417,7 +72417,7 @@
       <c r="O365" s="31"/>
       <c r="P365" s="31"/>
     </row>
-    <row r="366" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:16" ht="48">
       <c r="A366" s="25" t="s">
         <v>21</v>
       </c>
@@ -72453,7 +72453,7 @@
       <c r="O366" s="21"/>
       <c r="P366" s="21"/>
     </row>
-    <row r="367" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:16" ht="30">
       <c r="A367" s="25" t="s">
         <v>21</v>
       </c>
@@ -72485,7 +72485,7 @@
       <c r="O367" s="21"/>
       <c r="P367" s="21"/>
     </row>
-    <row r="368" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:16" ht="45">
       <c r="A368" s="25" t="s">
         <v>21</v>
       </c>
@@ -72517,7 +72517,7 @@
       <c r="O368" s="21"/>
       <c r="P368" s="21"/>
     </row>
-    <row r="369" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:16" ht="60">
       <c r="A369" s="25" t="s">
         <v>21</v>
       </c>
@@ -72553,7 +72553,7 @@
       <c r="O369" s="21"/>
       <c r="P369" s="21"/>
     </row>
-    <row r="370" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:16" ht="30">
       <c r="A370" s="25" t="s">
         <v>21</v>
       </c>
@@ -72585,7 +72585,7 @@
       <c r="O370" s="48"/>
       <c r="P370" s="48"/>
     </row>
-    <row r="371" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:16" ht="30">
       <c r="A371" s="35" t="s">
         <v>21</v>
       </c>
@@ -72617,7 +72617,7 @@
       <c r="O371" s="65"/>
       <c r="P371" s="65"/>
     </row>
-    <row r="372" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:16" ht="30">
       <c r="A372" s="25" t="s">
         <v>21</v>
       </c>
@@ -72649,7 +72649,7 @@
       <c r="O372" s="21"/>
       <c r="P372" s="21"/>
     </row>
-    <row r="373" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:16" ht="60">
       <c r="A373" s="35" t="s">
         <v>21</v>
       </c>
@@ -72683,7 +72683,7 @@
       <c r="O373" s="65"/>
       <c r="P373" s="65"/>
     </row>
-    <row r="374" spans="1:16" ht="75" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:16" ht="75">
       <c r="A374" s="25" t="s">
         <v>21</v>
       </c>
@@ -72715,7 +72715,7 @@
       <c r="O374" s="21"/>
       <c r="P374" s="21"/>
     </row>
-    <row r="375" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:16" ht="30">
       <c r="A375" s="35" t="s">
         <v>21</v>
       </c>
@@ -72747,7 +72747,7 @@
       <c r="O375" s="31"/>
       <c r="P375" s="31"/>
     </row>
-    <row r="376" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:16" ht="30">
       <c r="A376" s="25" t="s">
         <v>21</v>
       </c>
@@ -72781,7 +72781,7 @@
       <c r="O376" s="21"/>
       <c r="P376" s="21"/>
     </row>
-    <row r="377" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:16" ht="30">
       <c r="A377" s="25" t="s">
         <v>21</v>
       </c>
@@ -72813,7 +72813,7 @@
       <c r="O377" s="21"/>
       <c r="P377" s="21"/>
     </row>
-    <row r="378" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:16" ht="30">
       <c r="A378" s="35" t="s">
         <v>21</v>
       </c>
@@ -72845,7 +72845,7 @@
       <c r="O378" s="31"/>
       <c r="P378" s="31"/>
     </row>
-    <row r="379" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:16" ht="30">
       <c r="A379" s="25" t="s">
         <v>21</v>
       </c>
@@ -72875,7 +72875,7 @@
       <c r="O379" s="21"/>
       <c r="P379" s="21"/>
     </row>
-    <row r="380" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:16" ht="30">
       <c r="A380" s="25" t="s">
         <v>21</v>
       </c>
@@ -72907,7 +72907,7 @@
       <c r="O380" s="21"/>
       <c r="P380" s="21"/>
     </row>
-    <row r="381" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:16" ht="30">
       <c r="A381" s="35" t="s">
         <v>21</v>
       </c>
@@ -72939,7 +72939,7 @@
       <c r="O381" s="31"/>
       <c r="P381" s="31"/>
     </row>
-    <row r="382" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:16" ht="45">
       <c r="A382" s="25" t="s">
         <v>21</v>
       </c>
@@ -72971,7 +72971,7 @@
       <c r="O382" s="21"/>
       <c r="P382" s="21"/>
     </row>
-    <row r="383" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:16" ht="30">
       <c r="A383" s="35" t="s">
         <v>21</v>
       </c>
@@ -73003,7 +73003,7 @@
       <c r="O383" s="31"/>
       <c r="P383" s="31"/>
     </row>
-    <row r="384" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:16" ht="60">
       <c r="A384" s="35" t="s">
         <v>21</v>
       </c>
@@ -73039,7 +73039,7 @@
       <c r="O384" s="31"/>
       <c r="P384" s="31"/>
     </row>
-    <row r="385" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:16" ht="60">
       <c r="A385" s="35" t="s">
         <v>324</v>
       </c>
@@ -73075,7 +73075,7 @@
       <c r="O385" s="31"/>
       <c r="P385" s="31"/>
     </row>
-    <row r="386" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:16" ht="30">
       <c r="A386" s="35" t="s">
         <v>21</v>
       </c>
@@ -73105,7 +73105,7 @@
       <c r="O386" s="31"/>
       <c r="P386" s="31"/>
     </row>
-    <row r="387" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:16" ht="30">
       <c r="A387" s="25" t="s">
         <v>21</v>
       </c>
@@ -73137,7 +73137,7 @@
       <c r="O387" s="21"/>
       <c r="P387" s="21"/>
     </row>
-    <row r="388" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:16" ht="30">
       <c r="A388" s="35" t="s">
         <v>21</v>
       </c>
@@ -73169,7 +73169,7 @@
       <c r="O388" s="31"/>
       <c r="P388" s="31"/>
     </row>
-    <row r="389" spans="1:16" ht="180" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:16" ht="180">
       <c r="A389" s="25" t="s">
         <v>21</v>
       </c>
@@ -73211,7 +73211,7 @@
       <c r="O389" s="21"/>
       <c r="P389" s="21"/>
     </row>
-    <row r="390" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:16" ht="30">
       <c r="A390" s="25" t="s">
         <v>21</v>
       </c>
@@ -73245,7 +73245,7 @@
       <c r="O390" s="21"/>
       <c r="P390" s="21"/>
     </row>
-    <row r="391" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:16" ht="30">
       <c r="A391" s="35" t="s">
         <v>21</v>
       </c>
@@ -73283,7 +73283,7 @@
       <c r="O391" s="31"/>
       <c r="P391" s="31"/>
     </row>
-    <row r="392" spans="1:16" ht="108" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:16" ht="108">
       <c r="A392" s="25" t="s">
         <v>21</v>
       </c>
@@ -73321,7 +73321,7 @@
       <c r="O392" s="21"/>
       <c r="P392" s="21"/>
     </row>
-    <row r="393" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:16" ht="32.1">
       <c r="A393" s="35" t="s">
         <v>21</v>
       </c>
@@ -73357,7 +73357,7 @@
       <c r="O393" s="31"/>
       <c r="P393" s="31"/>
     </row>
-    <row r="394" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:16" ht="30">
       <c r="A394" s="25" t="s">
         <v>21</v>
       </c>
@@ -73389,7 +73389,7 @@
       <c r="O394" s="21"/>
       <c r="P394" s="21"/>
     </row>
-    <row r="395" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:16" ht="30">
       <c r="A395" s="35" t="s">
         <v>21</v>
       </c>
@@ -73421,7 +73421,7 @@
       <c r="O395" s="31"/>
       <c r="P395" s="31"/>
     </row>
-    <row r="396" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:16" ht="30">
       <c r="A396" s="25" t="s">
         <v>21</v>
       </c>
@@ -73453,7 +73453,7 @@
       <c r="O396" s="21"/>
       <c r="P396" s="21"/>
     </row>
-    <row r="397" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:16" ht="30">
       <c r="A397" s="35" t="s">
         <v>21</v>
       </c>
@@ -73485,7 +73485,7 @@
       <c r="O397" s="31"/>
       <c r="P397" s="31"/>
     </row>
-    <row r="398" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:16" ht="30">
       <c r="A398" s="25" t="s">
         <v>21</v>
       </c>
@@ -73517,7 +73517,7 @@
       <c r="O398" s="21"/>
       <c r="P398" s="21"/>
     </row>
-    <row r="399" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:16" ht="30">
       <c r="A399" s="35" t="s">
         <v>21</v>
       </c>
@@ -73549,7 +73549,7 @@
       <c r="O399" s="31"/>
       <c r="P399" s="31"/>
     </row>
-    <row r="400" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:16" ht="30">
       <c r="A400" s="25" t="s">
         <v>21</v>
       </c>
@@ -73581,7 +73581,7 @@
       <c r="O400" s="21"/>
       <c r="P400" s="21"/>
     </row>
-    <row r="401" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:16" ht="30">
       <c r="A401" s="35" t="s">
         <v>21</v>
       </c>
@@ -73613,7 +73613,7 @@
       <c r="O401" s="31"/>
       <c r="P401" s="31"/>
     </row>
-    <row r="402" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:16" ht="30">
       <c r="A402" s="25" t="s">
         <v>21</v>
       </c>
@@ -73645,7 +73645,7 @@
       <c r="O402" s="21"/>
       <c r="P402" s="21"/>
     </row>
-    <row r="403" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:16" ht="30">
       <c r="A403" s="35" t="s">
         <v>21</v>
       </c>
@@ -73677,7 +73677,7 @@
       <c r="O403" s="31"/>
       <c r="P403" s="31"/>
     </row>
-    <row r="404" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:16" ht="30">
       <c r="A404" s="25" t="s">
         <v>21</v>
       </c>
@@ -73709,7 +73709,7 @@
       <c r="O404" s="21"/>
       <c r="P404" s="21"/>
     </row>
-    <row r="405" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:16" ht="30">
       <c r="A405" s="35" t="s">
         <v>21</v>
       </c>
@@ -73741,7 +73741,7 @@
       <c r="O405" s="31"/>
       <c r="P405" s="31"/>
     </row>
-    <row r="406" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:16" ht="60">
       <c r="A406" s="25" t="s">
         <v>21</v>
       </c>
@@ -73779,7 +73779,7 @@
       <c r="O406" s="21"/>
       <c r="P406" s="21"/>
     </row>
-    <row r="407" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:16" ht="30">
       <c r="A407" s="35" t="s">
         <v>21</v>
       </c>
@@ -73811,7 +73811,7 @@
       <c r="O407" s="31"/>
       <c r="P407" s="31"/>
     </row>
-    <row r="408" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:16" ht="30">
       <c r="A408" s="35" t="s">
         <v>21</v>
       </c>
@@ -73843,7 +73843,7 @@
       <c r="O408" s="31"/>
       <c r="P408" s="31"/>
     </row>
-    <row r="409" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:16" ht="48">
       <c r="A409" s="35" t="s">
         <v>21</v>
       </c>
@@ -73881,7 +73881,7 @@
       <c r="O409" s="45"/>
       <c r="P409" s="45"/>
     </row>
-    <row r="410" spans="1:16" ht="176" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:16" ht="176.1">
       <c r="A410" s="25" t="s">
         <v>21</v>
       </c>
@@ -73921,7 +73921,7 @@
       <c r="O410" s="21"/>
       <c r="P410" s="21"/>
     </row>
-    <row r="411" spans="1:16" ht="349" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:16" ht="348.95">
       <c r="A411" s="35" t="s">
         <v>21</v>
       </c>
@@ -73961,7 +73961,7 @@
       <c r="O411" s="31"/>
       <c r="P411" s="31"/>
     </row>
-    <row r="412" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:16" ht="36">
       <c r="A412" s="35" t="s">
         <v>21</v>
       </c>
@@ -73997,7 +73997,7 @@
       <c r="O412" s="31"/>
       <c r="P412" s="31"/>
     </row>
-    <row r="413" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:16" ht="30">
       <c r="A413" s="35" t="s">
         <v>21</v>
       </c>
@@ -74029,7 +74029,7 @@
       <c r="O413" s="31"/>
       <c r="P413" s="31"/>
     </row>
-    <row r="414" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:16" ht="30">
       <c r="A414" s="25" t="s">
         <v>21</v>
       </c>
@@ -74061,7 +74061,7 @@
       <c r="O414" s="21"/>
       <c r="P414" s="21"/>
     </row>
-    <row r="415" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:16" ht="30">
       <c r="A415" s="35" t="s">
         <v>21</v>
       </c>
@@ -74093,7 +74093,7 @@
       <c r="O415" s="31"/>
       <c r="P415" s="31"/>
     </row>
-    <row r="416" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:16" ht="30">
       <c r="A416" s="35" t="s">
         <v>21</v>
       </c>
@@ -74125,7 +74125,7 @@
       <c r="O416" s="31"/>
       <c r="P416" s="31"/>
     </row>
-    <row r="417" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:16" ht="30">
       <c r="A417" s="35" t="s">
         <v>21</v>
       </c>
@@ -74157,7 +74157,7 @@
       <c r="O417" s="31"/>
       <c r="P417" s="31"/>
     </row>
-    <row r="418" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:16" ht="30">
       <c r="A418" s="25" t="s">
         <v>21</v>
       </c>
@@ -74189,7 +74189,7 @@
       <c r="O418" s="21"/>
       <c r="P418" s="21"/>
     </row>
-    <row r="419" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:16" ht="30">
       <c r="A419" s="35" t="s">
         <v>21</v>
       </c>
@@ -74221,7 +74221,7 @@
       <c r="O419" s="31"/>
       <c r="P419" s="31"/>
     </row>
-    <row r="420" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:16" ht="30">
       <c r="A420" s="25" t="s">
         <v>21</v>
       </c>
@@ -74253,7 +74253,7 @@
       <c r="O420" s="21"/>
       <c r="P420" s="21"/>
     </row>
-    <row r="421" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:16" ht="30">
       <c r="A421" s="35" t="s">
         <v>21</v>
       </c>
@@ -74285,7 +74285,7 @@
       <c r="O421" s="31"/>
       <c r="P421" s="31"/>
     </row>
-    <row r="422" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:16" ht="30">
       <c r="A422" s="25" t="s">
         <v>21</v>
       </c>
@@ -74317,7 +74317,7 @@
       <c r="O422" s="21"/>
       <c r="P422" s="21"/>
     </row>
-    <row r="423" spans="1:16" ht="96" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:16" ht="96">
       <c r="A423" s="25" t="s">
         <v>21</v>
       </c>
@@ -74357,7 +74357,7 @@
       <c r="O423" s="21"/>
       <c r="P423" s="21"/>
     </row>
-    <row r="424" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:16" ht="60">
       <c r="A424" s="25" t="s">
         <v>21</v>
       </c>
@@ -74393,7 +74393,7 @@
       <c r="O424" s="21"/>
       <c r="P424" s="21"/>
     </row>
-    <row r="425" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:16" ht="30">
       <c r="A425" s="25" t="s">
         <v>21</v>
       </c>
@@ -74425,7 +74425,7 @@
       <c r="O425" s="21"/>
       <c r="P425" s="21"/>
     </row>
-    <row r="426" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:16" ht="30">
       <c r="A426" s="35" t="s">
         <v>21</v>
       </c>
@@ -74457,7 +74457,7 @@
       <c r="O426" s="31"/>
       <c r="P426" s="31"/>
     </row>
-    <row r="427" spans="1:16" ht="112" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:16" ht="111.95">
       <c r="A427" s="35" t="s">
         <v>21</v>
       </c>
@@ -74493,7 +74493,7 @@
       <c r="O427" s="31"/>
       <c r="P427" s="31"/>
     </row>
-    <row r="428" spans="1:16" ht="132" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:16" ht="132">
       <c r="A428" s="25" t="s">
         <v>21</v>
       </c>
@@ -74539,7 +74539,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="429" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:16" ht="30">
       <c r="A429" s="35" t="s">
         <v>21</v>
       </c>
@@ -74573,7 +74573,7 @@
       <c r="O429" s="31"/>
       <c r="P429" s="31"/>
     </row>
-    <row r="430" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:16" ht="30">
       <c r="A430" s="35" t="s">
         <v>21</v>
       </c>
@@ -74605,7 +74605,7 @@
       <c r="O430" s="31"/>
       <c r="P430" s="31"/>
     </row>
-    <row r="431" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:16" ht="30">
       <c r="A431" s="25" t="s">
         <v>21</v>
       </c>
@@ -74637,7 +74637,7 @@
       <c r="O431" s="21"/>
       <c r="P431" s="21"/>
     </row>
-    <row r="432" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:16" ht="32.1">
       <c r="A432" s="35" t="s">
         <v>21</v>
       </c>
@@ -74669,7 +74669,7 @@
       <c r="O432" s="31"/>
       <c r="P432" s="31"/>
     </row>
-    <row r="433" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:16" ht="30">
       <c r="A433" s="25" t="s">
         <v>21</v>
       </c>
@@ -74701,7 +74701,7 @@
       <c r="O433" s="21"/>
       <c r="P433" s="21"/>
     </row>
-    <row r="434" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:16" ht="30">
       <c r="A434" s="35" t="s">
         <v>21</v>
       </c>
@@ -74733,7 +74733,7 @@
       <c r="O434" s="31"/>
       <c r="P434" s="31"/>
     </row>
-    <row r="435" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:16" ht="30">
       <c r="A435" s="25" t="s">
         <v>21</v>
       </c>
@@ -74765,7 +74765,7 @@
       <c r="O435" s="21"/>
       <c r="P435" s="21"/>
     </row>
-    <row r="436" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:16" ht="32.1">
       <c r="A436" s="25" t="s">
         <v>21</v>
       </c>
@@ -74799,7 +74799,7 @@
       <c r="O436" s="21"/>
       <c r="P436" s="21"/>
     </row>
-    <row r="437" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:16" ht="30">
       <c r="A437" s="25" t="s">
         <v>21</v>
       </c>
@@ -74831,7 +74831,7 @@
       <c r="O437" s="21"/>
       <c r="P437" s="21"/>
     </row>
-    <row r="438" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:16" ht="30">
       <c r="A438" s="25" t="s">
         <v>21</v>
       </c>
@@ -74863,7 +74863,7 @@
       <c r="O438" s="21"/>
       <c r="P438" s="21"/>
     </row>
-    <row r="439" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:16" ht="30">
       <c r="A439" s="35" t="s">
         <v>21</v>
       </c>
@@ -74895,7 +74895,7 @@
       <c r="O439" s="31"/>
       <c r="P439" s="31"/>
     </row>
-    <row r="440" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:16" ht="45">
       <c r="A440" s="35" t="s">
         <v>21</v>
       </c>
@@ -74927,7 +74927,7 @@
       <c r="O440" s="31"/>
       <c r="P440" s="31"/>
     </row>
-    <row r="441" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:16" ht="30">
       <c r="A441" s="25" t="s">
         <v>21</v>
       </c>
@@ -74959,7 +74959,7 @@
       <c r="O441" s="21"/>
       <c r="P441" s="21"/>
     </row>
-    <row r="442" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:16" ht="30">
       <c r="A442" s="35" t="s">
         <v>21</v>
       </c>
@@ -74991,7 +74991,7 @@
       <c r="O442" s="31"/>
       <c r="P442" s="31"/>
     </row>
-    <row r="443" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:16" ht="30">
       <c r="A443" s="25" t="s">
         <v>21</v>
       </c>
@@ -75023,7 +75023,7 @@
       <c r="O443" s="21"/>
       <c r="P443" s="21"/>
     </row>
-    <row r="444" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:16" ht="30">
       <c r="A444" s="35" t="s">
         <v>21</v>
       </c>
@@ -75055,7 +75055,7 @@
       <c r="O444" s="31"/>
       <c r="P444" s="31"/>
     </row>
-    <row r="445" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:16" ht="30">
       <c r="A445" s="25" t="s">
         <v>21</v>
       </c>
@@ -75087,7 +75087,7 @@
       <c r="O445" s="21"/>
       <c r="P445" s="21"/>
     </row>
-    <row r="446" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:16" ht="30">
       <c r="A446" s="35" t="s">
         <v>21</v>
       </c>
@@ -75119,7 +75119,7 @@
       <c r="O446" s="31"/>
       <c r="P446" s="31"/>
     </row>
-    <row r="447" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:16" ht="30">
       <c r="A447" s="25" t="s">
         <v>21</v>
       </c>
@@ -75151,7 +75151,7 @@
       <c r="O447" s="21"/>
       <c r="P447" s="21"/>
     </row>
-    <row r="448" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:16" ht="30">
       <c r="A448" s="35" t="s">
         <v>21</v>
       </c>
@@ -75183,7 +75183,7 @@
       <c r="O448" s="31"/>
       <c r="P448" s="31"/>
     </row>
-    <row r="449" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:16" ht="30">
       <c r="A449" s="35" t="s">
         <v>21</v>
       </c>
@@ -75215,7 +75215,7 @@
       <c r="O449" s="31"/>
       <c r="P449" s="31"/>
     </row>
-    <row r="450" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:16" ht="30">
       <c r="A450" s="25" t="s">
         <v>21</v>
       </c>
@@ -75247,7 +75247,7 @@
       <c r="O450" s="21"/>
       <c r="P450" s="21"/>
     </row>
-    <row r="451" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:16" ht="30">
       <c r="A451" s="35" t="s">
         <v>21</v>
       </c>
@@ -75279,7 +75279,7 @@
       <c r="O451" s="31"/>
       <c r="P451" s="31"/>
     </row>
-    <row r="452" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:16" ht="30">
       <c r="A452" s="25" t="s">
         <v>21</v>
       </c>
@@ -75311,7 +75311,7 @@
       <c r="O452" s="21"/>
       <c r="P452" s="21"/>
     </row>
-    <row r="453" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:16" ht="30">
       <c r="A453" s="25" t="s">
         <v>21</v>
       </c>
@@ -75343,7 +75343,7 @@
       <c r="O453" s="21"/>
       <c r="P453" s="21"/>
     </row>
-    <row r="454" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:16" ht="30">
       <c r="A454" s="35" t="s">
         <v>21</v>
       </c>
@@ -75375,7 +75375,7 @@
       <c r="O454" s="31"/>
       <c r="P454" s="31"/>
     </row>
-    <row r="455" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:16" ht="45">
       <c r="A455" s="25" t="s">
         <v>21</v>
       </c>
@@ -75407,7 +75407,7 @@
       <c r="O455" s="21"/>
       <c r="P455" s="21"/>
     </row>
-    <row r="456" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:16" ht="30">
       <c r="A456" s="35" t="s">
         <v>21</v>
       </c>
@@ -75439,7 +75439,7 @@
       <c r="O456" s="31"/>
       <c r="P456" s="31"/>
     </row>
-    <row r="457" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:16" ht="30">
       <c r="A457" s="25" t="s">
         <v>21</v>
       </c>
@@ -75471,7 +75471,7 @@
       <c r="O457" s="21"/>
       <c r="P457" s="21"/>
     </row>
-    <row r="458" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:16" ht="30">
       <c r="A458" s="35" t="s">
         <v>21</v>
       </c>
@@ -75503,7 +75503,7 @@
       <c r="O458" s="31"/>
       <c r="P458" s="31"/>
     </row>
-    <row r="459" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:16" ht="30">
       <c r="A459" s="25" t="s">
         <v>21</v>
       </c>
@@ -75535,7 +75535,7 @@
       <c r="O459" s="21"/>
       <c r="P459" s="21"/>
     </row>
-    <row r="460" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:16" ht="30">
       <c r="A460" s="35" t="s">
         <v>21</v>
       </c>
@@ -75567,7 +75567,7 @@
       <c r="O460" s="31"/>
       <c r="P460" s="31"/>
     </row>
-    <row r="461" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:16" ht="30">
       <c r="A461" s="25" t="s">
         <v>21</v>
       </c>
@@ -75599,7 +75599,7 @@
       <c r="O461" s="21"/>
       <c r="P461" s="21"/>
     </row>
-    <row r="462" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:16" ht="30">
       <c r="A462" s="35" t="s">
         <v>21</v>
       </c>
@@ -75631,7 +75631,7 @@
       <c r="O462" s="31"/>
       <c r="P462" s="31"/>
     </row>
-    <row r="463" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:16" ht="30">
       <c r="A463" s="25" t="s">
         <v>21</v>
       </c>
@@ -75663,7 +75663,7 @@
       <c r="O463" s="21"/>
       <c r="P463" s="21"/>
     </row>
-    <row r="464" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:16" ht="30">
       <c r="A464" s="35" t="s">
         <v>21</v>
       </c>
@@ -75695,7 +75695,7 @@
       <c r="O464" s="31"/>
       <c r="P464" s="31"/>
     </row>
-    <row r="465" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:16" ht="30">
       <c r="A465" s="25" t="s">
         <v>21</v>
       </c>
@@ -75727,7 +75727,7 @@
       <c r="O465" s="21"/>
       <c r="P465" s="21"/>
     </row>
-    <row r="466" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:16" ht="30">
       <c r="A466" s="35" t="s">
         <v>21</v>
       </c>
@@ -75759,7 +75759,7 @@
       <c r="O466" s="31"/>
       <c r="P466" s="31"/>
     </row>
-    <row r="467" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:16" ht="30">
       <c r="A467" s="25" t="s">
         <v>21</v>
       </c>
@@ -75791,7 +75791,7 @@
       <c r="O467" s="21"/>
       <c r="P467" s="21"/>
     </row>
-    <row r="468" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:16" ht="30">
       <c r="A468" s="35" t="s">
         <v>21</v>
       </c>
@@ -75823,7 +75823,7 @@
       <c r="O468" s="31"/>
       <c r="P468" s="31"/>
     </row>
-    <row r="469" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:16" ht="30">
       <c r="A469" s="25" t="s">
         <v>21</v>
       </c>
@@ -75855,7 +75855,7 @@
       <c r="O469" s="21"/>
       <c r="P469" s="21"/>
     </row>
-    <row r="470" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:16" ht="30">
       <c r="A470" s="35" t="s">
         <v>21</v>
       </c>
@@ -75887,7 +75887,7 @@
       <c r="O470" s="31"/>
       <c r="P470" s="31"/>
     </row>
-    <row r="471" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:16" ht="45">
       <c r="A471" s="25" t="s">
         <v>21</v>
       </c>
@@ -75919,7 +75919,7 @@
       <c r="O471" s="21"/>
       <c r="P471" s="21"/>
     </row>
-    <row r="472" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:16" ht="30">
       <c r="A472" s="35" t="s">
         <v>21</v>
       </c>
@@ -75951,7 +75951,7 @@
       <c r="O472" s="31"/>
       <c r="P472" s="31"/>
     </row>
-    <row r="473" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:16" ht="30">
       <c r="A473" s="25" t="s">
         <v>21</v>
       </c>
@@ -75983,7 +75983,7 @@
       <c r="O473" s="21"/>
       <c r="P473" s="21"/>
     </row>
-    <row r="474" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:16" ht="30">
       <c r="A474" s="35" t="s">
         <v>21</v>
       </c>
@@ -76015,7 +76015,7 @@
       <c r="O474" s="31"/>
       <c r="P474" s="31"/>
     </row>
-    <row r="475" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:16" ht="30">
       <c r="A475" s="25" t="s">
         <v>21</v>
       </c>
@@ -76047,7 +76047,7 @@
       <c r="O475" s="21"/>
       <c r="P475" s="21"/>
     </row>
-    <row r="476" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:16" ht="30">
       <c r="A476" s="35" t="s">
         <v>21</v>
       </c>
@@ -76079,7 +76079,7 @@
       <c r="O476" s="31"/>
       <c r="P476" s="31"/>
     </row>
-    <row r="477" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:16" ht="30">
       <c r="A477" s="25" t="s">
         <v>21</v>
       </c>
@@ -76111,7 +76111,7 @@
       <c r="O477" s="21"/>
       <c r="P477" s="21"/>
     </row>
-    <row r="478" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:16" ht="30">
       <c r="A478" s="35" t="s">
         <v>21</v>
       </c>
@@ -76143,7 +76143,7 @@
       <c r="O478" s="31"/>
       <c r="P478" s="31"/>
     </row>
-    <row r="479" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:16" ht="30">
       <c r="A479" s="25" t="s">
         <v>21</v>
       </c>
@@ -76175,7 +76175,7 @@
       <c r="O479" s="21"/>
       <c r="P479" s="21"/>
     </row>
-    <row r="480" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:16" ht="30">
       <c r="A480" s="35" t="s">
         <v>21</v>
       </c>
@@ -76207,7 +76207,7 @@
       <c r="O480" s="31"/>
       <c r="P480" s="31"/>
     </row>
-    <row r="481" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:16" ht="30">
       <c r="A481" s="25" t="s">
         <v>21</v>
       </c>
@@ -76239,7 +76239,7 @@
       <c r="O481" s="21"/>
       <c r="P481" s="21"/>
     </row>
-    <row r="482" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:16" ht="30">
       <c r="A482" s="35" t="s">
         <v>21</v>
       </c>
@@ -76271,7 +76271,7 @@
       <c r="O482" s="31"/>
       <c r="P482" s="31"/>
     </row>
-    <row r="483" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:16" ht="48">
       <c r="A483" s="35" t="s">
         <v>21</v>
       </c>
@@ -76309,7 +76309,7 @@
       <c r="O483" s="31"/>
       <c r="P483" s="31"/>
     </row>
-    <row r="484" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:16" ht="30">
       <c r="A484" s="35" t="s">
         <v>21</v>
       </c>
@@ -76339,7 +76339,7 @@
       <c r="O484" s="31"/>
       <c r="P484" s="31"/>
     </row>
-    <row r="485" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:16" ht="30">
       <c r="A485" s="25" t="s">
         <v>21</v>
       </c>
@@ -76373,7 +76373,7 @@
       <c r="O485" s="21"/>
       <c r="P485" s="21"/>
     </row>
-    <row r="486" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:16" ht="30">
       <c r="A486" s="25" t="s">
         <v>21</v>
       </c>
@@ -76405,7 +76405,7 @@
       <c r="O486" s="21"/>
       <c r="P486" s="21"/>
     </row>
-    <row r="487" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:16" ht="30">
       <c r="A487" s="35" t="s">
         <v>21</v>
       </c>
@@ -76437,7 +76437,7 @@
       <c r="O487" s="31"/>
       <c r="P487" s="31"/>
     </row>
-    <row r="488" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:16" ht="30">
       <c r="A488" s="25" t="s">
         <v>21</v>
       </c>
@@ -76473,7 +76473,7 @@
       <c r="O488" s="21"/>
       <c r="P488" s="21"/>
     </row>
-    <row r="489" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:16" ht="30">
       <c r="A489" s="35" t="s">
         <v>21</v>
       </c>
@@ -76513,7 +76513,7 @@
       <c r="O489" s="31"/>
       <c r="P489" s="31"/>
     </row>
-    <row r="490" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:16" ht="48">
       <c r="A490" s="25" t="s">
         <v>21</v>
       </c>
@@ -76549,7 +76549,7 @@
       <c r="O490" s="21"/>
       <c r="P490" s="21"/>
     </row>
-    <row r="491" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:16" ht="30">
       <c r="A491" s="35" t="s">
         <v>21</v>
       </c>
@@ -76583,7 +76583,7 @@
       <c r="O491" s="31"/>
       <c r="P491" s="31"/>
     </row>
-    <row r="492" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:16" ht="32.1">
       <c r="A492" s="25" t="s">
         <v>21</v>
       </c>
@@ -76618,7 +76618,7 @@
       <c r="O492" s="21"/>
       <c r="P492" s="21"/>
     </row>
-    <row r="493" spans="1:16" ht="112" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:16" ht="111.95">
       <c r="A493" s="25" t="s">
         <v>21</v>
       </c>
@@ -76658,7 +76658,7 @@
       <c r="O493" s="21"/>
       <c r="P493" s="21"/>
     </row>
-    <row r="494" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:16" ht="36">
       <c r="A494" s="25" t="s">
         <v>21</v>
       </c>
@@ -76692,7 +76692,7 @@
       <c r="O494" s="21"/>
       <c r="P494" s="21"/>
     </row>
-    <row r="495" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:16" ht="36">
       <c r="A495" s="25" t="s">
         <v>21</v>
       </c>
@@ -76730,7 +76730,7 @@
       <c r="O495" s="21"/>
       <c r="P495" s="21"/>
     </row>
-    <row r="496" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:16" ht="32.1">
       <c r="A496" s="25" t="s">
         <v>21</v>
       </c>
@@ -76764,7 +76764,7 @@
       <c r="O496" s="21"/>
       <c r="P496" s="21"/>
     </row>
-    <row r="497" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:16" ht="30">
       <c r="A497" s="25" t="s">
         <v>21</v>
       </c>
@@ -76798,7 +76798,7 @@
       <c r="O497" s="21"/>
       <c r="P497" s="21"/>
     </row>
-    <row r="498" spans="1:16" ht="30" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:16" ht="30">
       <c r="A498" s="35" t="s">
         <v>21</v>
       </c>
@@ -76828,7 +76828,7 @@
       <c r="O498" s="31"/>
       <c r="P498" s="31"/>
     </row>
-    <row r="499" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:16" ht="32.1">
       <c r="A499" s="35" t="s">
         <v>21</v>
       </c>
@@ -76866,7 +76866,7 @@
       <c r="O499" s="31"/>
       <c r="P499" s="31"/>
     </row>
-    <row r="500" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:16" ht="32.1">
       <c r="A500" s="35" t="s">
         <v>21</v>
       </c>
@@ -76904,7 +76904,7 @@
       <c r="O500" s="45"/>
       <c r="P500" s="45"/>
     </row>
-    <row r="501" spans="1:16" ht="256" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:16" ht="255.95">
       <c r="A501" s="35" t="s">
         <v>21</v>
       </c>
@@ -76944,7 +76944,7 @@
       <c r="O501" s="31"/>
       <c r="P501" s="31"/>
     </row>
-    <row r="502" spans="1:16" ht="224" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:16" ht="224.1">
       <c r="A502" s="25" t="s">
         <v>21</v>
       </c>
@@ -76984,7 +76984,7 @@
       <c r="O502" s="21"/>
       <c r="P502" s="21"/>
     </row>
-    <row r="503" spans="1:16" ht="168" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:16" ht="168">
       <c r="A503" s="35" t="s">
         <v>21</v>
       </c>
@@ -77032,7 +77032,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="504" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:16" ht="32.1">
       <c r="A504" s="35" t="s">
         <v>21</v>
       </c>
@@ -77066,7 +77066,7 @@
       <c r="O504" s="31"/>
       <c r="P504" s="31"/>
     </row>
-    <row r="505" spans="1:16" ht="273" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:16" ht="273">
       <c r="A505" s="25" t="s">
         <v>21</v>
       </c>
@@ -77106,7 +77106,7 @@
       <c r="O505" s="21"/>
       <c r="P505" s="21"/>
     </row>
-    <row r="506" spans="1:16" ht="251" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:16" ht="251.1">
       <c r="A506" s="35" t="s">
         <v>21</v>
       </c>
@@ -77144,7 +77144,7 @@
       <c r="O506" s="31"/>
       <c r="P506" s="31"/>
     </row>
-    <row r="507" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:16" ht="32.1">
       <c r="A507" s="35" t="s">
         <v>21</v>
       </c>
@@ -77180,7 +77180,7 @@
       <c r="O507" s="31"/>
       <c r="P507" s="31"/>
     </row>
-    <row r="508" spans="1:16" ht="70" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:16" ht="69.95">
       <c r="A508" s="25" t="s">
         <v>21</v>
       </c>
@@ -77220,7 +77220,7 @@
       <c r="O508" s="21"/>
       <c r="P508" s="21"/>
     </row>
-    <row r="509" spans="1:16" ht="168" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:16" ht="168">
       <c r="A509" s="35" t="s">
         <v>21</v>
       </c>
@@ -77260,7 +77260,7 @@
       <c r="O509" s="31"/>
       <c r="P509" s="31"/>
     </row>
-    <row r="510" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:16" ht="409.6">
       <c r="A510" s="25" t="s">
         <v>21</v>
       </c>
@@ -77300,7 +77300,7 @@
       <c r="O510" s="21"/>
       <c r="P510" s="21"/>
     </row>
-    <row r="511" spans="1:16" ht="82" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:16" ht="81.95">
       <c r="A511" s="35" t="s">
         <v>21</v>
       </c>
@@ -77340,7 +77340,7 @@
       <c r="O511" s="31"/>
       <c r="P511" s="31"/>
     </row>
-    <row r="512" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:16" ht="36">
       <c r="A512" s="35" t="s">
         <v>21</v>
       </c>
@@ -77376,7 +77376,7 @@
       <c r="O512" s="31"/>
       <c r="P512" s="31"/>
     </row>
-    <row r="513" spans="1:16" ht="96" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:16" ht="96">
       <c r="A513" s="25" t="s">
         <v>21</v>
       </c>
@@ -77412,7 +77412,7 @@
       <c r="O513" s="21"/>
       <c r="P513" s="21"/>
     </row>
-    <row r="514" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:16" ht="48">
       <c r="A514" s="25" t="s">
         <v>21</v>
       </c>
@@ -77448,7 +77448,7 @@
       <c r="O514" s="21"/>
       <c r="P514" s="21"/>
     </row>
-    <row r="515" spans="1:16" ht="72" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:16" ht="72">
       <c r="A515" s="35" t="s">
         <v>21</v>
       </c>
@@ -77484,7 +77484,7 @@
       <c r="O515" s="31"/>
       <c r="P515" s="31"/>
     </row>
-    <row r="516" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:16" ht="32.1">
       <c r="A516" s="35" t="s">
         <v>21</v>
       </c>
@@ -77520,7 +77520,7 @@
       <c r="O516" s="31"/>
       <c r="P516" s="31"/>
     </row>
-    <row r="517" spans="1:16" ht="328" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:16" ht="327.95">
       <c r="A517" s="25" t="s">
         <v>21</v>
       </c>
@@ -77568,7 +77568,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="518" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:16" ht="32.1">
       <c r="A518" s="35" t="s">
         <v>21</v>
       </c>
@@ -77602,7 +77602,7 @@
       <c r="O518" s="31"/>
       <c r="P518" s="31"/>
     </row>
-    <row r="519" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:16" ht="48">
       <c r="A519" s="25" t="s">
         <v>21</v>
       </c>
@@ -77636,7 +77636,7 @@
       <c r="O519" s="21"/>
       <c r="P519" s="21"/>
     </row>
-    <row r="520" spans="1:16" s="24" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:16" s="24" customFormat="1" ht="36">
       <c r="A520" s="25" t="s">
         <v>21</v>
       </c>
@@ -77672,7 +77672,7 @@
       <c r="O520" s="21"/>
       <c r="P520" s="21"/>
     </row>
-    <row r="521" spans="1:16" ht="64" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:16" ht="63.95">
       <c r="A521" s="25" t="s">
         <v>21</v>
       </c>
@@ -77710,7 +77710,7 @@
       <c r="O521" s="21"/>
       <c r="P521" s="21"/>
     </row>
-    <row r="522" spans="1:16" s="24" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:16" s="24" customFormat="1" ht="36">
       <c r="A522" s="25" t="s">
         <v>21</v>
       </c>
@@ -77746,7 +77746,7 @@
       <c r="O522" s="21"/>
       <c r="P522" s="21"/>
     </row>
-    <row r="523" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:16" ht="409.6">
       <c r="A523" s="35" t="s">
         <v>21</v>
       </c>
@@ -77784,7 +77784,7 @@
       <c r="O523" s="31"/>
       <c r="P523" s="31"/>
     </row>
-    <row r="524" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:16" ht="48">
       <c r="A524" s="25" t="s">
         <v>21</v>
       </c>
@@ -77816,7 +77816,7 @@
       <c r="O524" s="21"/>
       <c r="P524" s="21"/>
     </row>
-    <row r="525" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:16" ht="36">
       <c r="A525" s="35" t="s">
         <v>21</v>
       </c>
@@ -77848,7 +77848,7 @@
       <c r="O525" s="31"/>
       <c r="P525" s="31"/>
     </row>
-    <row r="526" spans="1:16" ht="350" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:16" ht="350.1">
       <c r="A526" s="25" t="s">
         <v>21</v>
       </c>
@@ -77880,7 +77880,7 @@
       <c r="O526" s="21"/>
       <c r="P526" s="21"/>
     </row>
-    <row r="527" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:16" ht="36">
       <c r="A527" s="35" t="s">
         <v>21</v>
       </c>
@@ -77916,7 +77916,7 @@
       <c r="O527" s="31"/>
       <c r="P527" s="31"/>
     </row>
-    <row r="528" spans="1:16" ht="192" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:16" ht="192">
       <c r="A528" s="35" t="s">
         <v>21</v>
       </c>
@@ -77963,7 +77963,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="529" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:16" ht="32.1">
       <c r="A529" s="25" t="s">
         <v>21</v>
       </c>
@@ -77999,7 +77999,7 @@
       <c r="O529" s="21"/>
       <c r="P529" s="21"/>
     </row>
-    <row r="530" spans="1:16" ht="96" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:16" ht="96">
       <c r="A530" s="35" t="s">
         <v>21</v>
       </c>
@@ -78037,7 +78037,7 @@
       <c r="O530" s="31"/>
       <c r="P530" s="31"/>
     </row>
-    <row r="531" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:16" ht="32.1">
       <c r="A531" s="35" t="s">
         <v>21</v>
       </c>
@@ -78071,7 +78071,7 @@
       <c r="O531" s="31"/>
       <c r="P531" s="31"/>
     </row>
-    <row r="532" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:16" ht="32.1">
       <c r="A532" s="25" t="s">
         <v>21</v>
       </c>
@@ -78103,7 +78103,7 @@
       <c r="O532" s="31"/>
       <c r="P532" s="31"/>
     </row>
-    <row r="533" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:16" ht="48">
       <c r="A533" s="25" t="s">
         <v>21</v>
       </c>
@@ -78137,7 +78137,7 @@
       <c r="O533" s="21"/>
       <c r="P533" s="21"/>
     </row>
-    <row r="534" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:16" ht="36">
       <c r="A534" s="35" t="s">
         <v>21</v>
       </c>
@@ -78173,7 +78173,7 @@
       <c r="O534" s="31"/>
       <c r="P534" s="31"/>
     </row>
-    <row r="535" spans="1:16" s="24" customFormat="1" ht="82" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:16" s="24" customFormat="1" ht="81.95">
       <c r="A535" s="35" t="s">
         <v>21</v>
       </c>
@@ -78211,7 +78211,7 @@
       <c r="O535" s="31"/>
       <c r="P535" s="31"/>
     </row>
-    <row r="536" spans="1:16" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:16" s="24" customFormat="1" ht="32.1">
       <c r="A536" s="25" t="s">
         <v>21</v>
       </c>
@@ -78247,7 +78247,7 @@
       <c r="O536" s="21"/>
       <c r="P536" s="21"/>
     </row>
-    <row r="537" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:16" ht="32.1">
       <c r="A537" s="25"/>
       <c r="B537" s="25"/>
       <c r="C537" s="77"/>
@@ -78281,7 +78281,7 @@
       <c r="O537" s="21"/>
       <c r="P537" s="21"/>
     </row>
-    <row r="538" spans="1:16" ht="72" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:16" ht="72">
       <c r="A538" s="35" t="s">
         <v>21</v>
       </c>
@@ -78321,7 +78321,7 @@
       <c r="O538" s="31"/>
       <c r="P538" s="31"/>
     </row>
-    <row r="539" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:16" ht="32.1">
       <c r="A539" s="25" t="s">
         <v>21</v>
       </c>
@@ -78359,7 +78359,7 @@
       <c r="O539" s="21"/>
       <c r="P539" s="21"/>
     </row>
-    <row r="540" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:16" ht="48">
       <c r="A540" s="35" t="s">
         <v>21</v>
       </c>
@@ -78397,7 +78397,7 @@
       <c r="O540" s="31"/>
       <c r="P540" s="31"/>
     </row>
-    <row r="541" spans="1:16" ht="72" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:16" ht="72">
       <c r="A541" s="35" t="s">
         <v>21</v>
       </c>
@@ -78435,7 +78435,7 @@
       <c r="O541" s="31"/>
       <c r="P541" s="31"/>
     </row>
-    <row r="542" spans="1:16" ht="72" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:16" ht="72">
       <c r="A542" s="35" t="s">
         <v>21</v>
       </c>
@@ -78473,7 +78473,7 @@
       <c r="O542" s="31"/>
       <c r="P542" s="31"/>
     </row>
-    <row r="543" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:16" ht="32.1">
       <c r="A543" s="25" t="s">
         <v>21</v>
       </c>
@@ -78509,7 +78509,7 @@
       <c r="O543" s="21"/>
       <c r="P543" s="21"/>
     </row>
-    <row r="544" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:16" ht="32.1">
       <c r="A544" s="35" t="s">
         <v>21</v>
       </c>
@@ -78547,7 +78547,7 @@
       <c r="O544" s="31"/>
       <c r="P544" s="31"/>
     </row>
-    <row r="545" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:16" ht="45">
       <c r="A545" s="35" t="s">
         <v>21</v>
       </c>
@@ -78581,7 +78581,7 @@
       <c r="O545" s="31"/>
       <c r="P545" s="31"/>
     </row>
-    <row r="546" spans="1:16" ht="60" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:16" ht="60">
       <c r="A546" s="35" t="s">
         <v>21</v>
       </c>
@@ -78615,7 +78615,7 @@
       <c r="O546" s="31"/>
       <c r="P546" s="31"/>
     </row>
-    <row r="547" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:16" ht="32.1">
       <c r="A547" s="25" t="s">
         <v>21</v>
       </c>
@@ -78653,7 +78653,7 @@
       <c r="O547" s="21"/>
       <c r="P547" s="21"/>
     </row>
-    <row r="548" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:16" ht="36">
       <c r="A548" s="25" t="s">
         <v>21</v>
       </c>
@@ -78691,7 +78691,7 @@
       <c r="O548" s="21"/>
       <c r="P548" s="21"/>
     </row>
-    <row r="549" spans="1:16" ht="120" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:16" ht="120">
       <c r="A549" s="35" t="s">
         <v>21</v>
       </c>
@@ -78729,7 +78729,7 @@
       <c r="O549" s="31"/>
       <c r="P549" s="31"/>
     </row>
-    <row r="550" spans="1:16" ht="350" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:16" ht="350.1">
       <c r="A550" s="25" t="s">
         <v>21</v>
       </c>
@@ -78777,7 +78777,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="551" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:16" ht="32.1">
       <c r="A551" s="35" t="s">
         <v>21</v>
       </c>
@@ -78811,7 +78811,7 @@
       <c r="O551" s="31"/>
       <c r="P551" s="31"/>
     </row>
-    <row r="552" spans="1:16" ht="75" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:16" ht="75">
       <c r="A552" s="35" t="s">
         <v>21</v>
       </c>
@@ -78849,7 +78849,7 @@
       <c r="O552" s="31"/>
       <c r="P552" s="31"/>
     </row>
-    <row r="553" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:16" ht="32.1">
       <c r="A553" s="25" t="s">
         <v>324</v>
       </c>
@@ -78881,7 +78881,7 @@
       <c r="O553" s="21"/>
       <c r="P553" s="21"/>
     </row>
-    <row r="554" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:16" ht="32.1">
       <c r="A554" s="25" t="s">
         <v>21</v>
       </c>
@@ -78917,7 +78917,7 @@
       <c r="O554" s="51"/>
       <c r="P554" s="51"/>
     </row>
-    <row r="555" spans="1:16" ht="295" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:16" ht="294.95">
       <c r="A555" s="35" t="s">
         <v>21</v>
       </c>
@@ -78963,7 +78963,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="556" spans="1:16" ht="272" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:16" ht="272.10000000000002">
       <c r="A556" s="25" t="s">
         <v>21</v>
       </c>
@@ -79004,7 +79004,7 @@
       <c r="O556" s="74"/>
       <c r="P556" s="74"/>
     </row>
-    <row r="557" spans="1:16" ht="160" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:16" ht="159.94999999999999">
       <c r="A557" s="35" t="s">
         <v>21</v>
       </c>
@@ -79044,7 +79044,7 @@
       <c r="O557" s="56"/>
       <c r="P557" s="56"/>
     </row>
-    <row r="558" spans="1:16" ht="320" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:16" ht="320.10000000000002">
       <c r="A558" s="35" t="s">
         <v>21</v>
       </c>
@@ -79091,7 +79091,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="559" spans="1:16" ht="288" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:16" ht="288">
       <c r="A559" s="25" t="s">
         <v>21</v>
       </c>
@@ -79125,7 +79125,7 @@
       <c r="O559" s="51"/>
       <c r="P559" s="51"/>
     </row>
-    <row r="560" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:16" ht="32.1">
       <c r="A560" s="25" t="s">
         <v>21</v>
       </c>
@@ -79161,7 +79161,7 @@
       <c r="O560" s="51"/>
       <c r="P560" s="51"/>
     </row>
-    <row r="561" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:16" ht="32.1">
       <c r="A561" s="25" t="s">
         <v>21</v>
       </c>
@@ -79199,7 +79199,7 @@
       <c r="O561" s="21"/>
       <c r="P561" s="21"/>
     </row>
-    <row r="562" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:16" ht="48">
       <c r="A562" s="25" t="s">
         <v>21</v>
       </c>
@@ -79235,7 +79235,7 @@
       <c r="O562" s="31"/>
       <c r="P562" s="31"/>
     </row>
-    <row r="563" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:16" ht="32.1">
       <c r="A563" s="25" t="s">
         <v>21</v>
       </c>
@@ -79267,7 +79267,7 @@
       <c r="O563" s="21"/>
       <c r="P563" s="21"/>
     </row>
-    <row r="564" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:16" ht="48">
       <c r="A564" s="25" t="s">
         <v>21</v>
       </c>
@@ -79301,7 +79301,7 @@
       <c r="O564" s="21"/>
       <c r="P564" s="21"/>
     </row>
-    <row r="565" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:16" ht="32.1">
       <c r="A565" s="25" t="s">
         <v>21</v>
       </c>
@@ -79335,7 +79335,7 @@
       <c r="O565" s="21"/>
       <c r="P565" s="21"/>
     </row>
-    <row r="566" spans="1:16" ht="168" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:16" ht="168">
       <c r="A566" s="25" t="s">
         <v>21</v>
       </c>
@@ -79369,7 +79369,7 @@
       <c r="O566" s="21"/>
       <c r="P566" s="21"/>
     </row>
-    <row r="567" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:16" ht="32.1">
       <c r="A567" s="25" t="s">
         <v>21</v>
       </c>
@@ -79403,7 +79403,7 @@
       <c r="O567" s="21"/>
       <c r="P567" s="21"/>
     </row>
-    <row r="568" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:16" ht="32.1">
       <c r="A568" s="25" t="s">
         <v>21</v>
       </c>
@@ -79439,7 +79439,7 @@
       <c r="O568" s="21"/>
       <c r="P568" s="21"/>
     </row>
-    <row r="569" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:16" ht="32.1">
       <c r="A569" s="25" t="s">
         <v>21</v>
       </c>
@@ -79469,7 +79469,7 @@
       <c r="O569" s="21"/>
       <c r="P569" s="21"/>
     </row>
-    <row r="570" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:16" ht="32.1">
       <c r="A570" s="25" t="s">
         <v>21</v>
       </c>
@@ -79503,7 +79503,7 @@
       <c r="O570" s="21"/>
       <c r="P570" s="21"/>
     </row>
-    <row r="571" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:16" ht="32.1">
       <c r="A571" s="25" t="s">
         <v>21</v>
       </c>
@@ -79537,7 +79537,7 @@
       <c r="O571" s="21"/>
       <c r="P571" s="21"/>
     </row>
-    <row r="572" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:16" ht="32.1">
       <c r="A572" s="25" t="s">
         <v>21</v>
       </c>
@@ -79569,7 +79569,7 @@
       <c r="O572" s="21"/>
       <c r="P572" s="21"/>
     </row>
-    <row r="573" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:16" ht="32.1">
       <c r="A573" s="35" t="s">
         <v>21</v>
       </c>
@@ -79601,7 +79601,7 @@
       <c r="O573" s="31"/>
       <c r="P573" s="31"/>
     </row>
-    <row r="574" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:16" ht="32.1">
       <c r="A574" s="35" t="s">
         <v>21</v>
       </c>
@@ -79633,7 +79633,7 @@
       <c r="O574" s="31"/>
       <c r="P574" s="31"/>
     </row>
-    <row r="575" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:16" ht="32.1">
       <c r="A575" s="25" t="s">
         <v>21</v>
       </c>
@@ -79665,7 +79665,7 @@
       <c r="O575" s="21"/>
       <c r="P575" s="21"/>
     </row>
-    <row r="576" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:16" ht="32.1">
       <c r="A576" s="35" t="s">
         <v>21</v>
       </c>
@@ -79697,7 +79697,7 @@
       <c r="O576" s="31"/>
       <c r="P576" s="31"/>
     </row>
-    <row r="577" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:16" ht="32.1">
       <c r="A577" s="25" t="s">
         <v>21</v>
       </c>
@@ -79729,7 +79729,7 @@
       <c r="O577" s="21"/>
       <c r="P577" s="21"/>
     </row>
-    <row r="578" spans="1:16" s="24" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:16" s="24" customFormat="1" ht="32.1">
       <c r="A578" s="35" t="s">
         <v>21</v>
       </c>
@@ -79761,7 +79761,7 @@
       <c r="O578" s="31"/>
       <c r="P578" s="31"/>
     </row>
-    <row r="579" spans="1:16" ht="176" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:16" ht="176.1">
       <c r="A579" s="35" t="s">
         <v>21</v>
       </c>
@@ -79797,7 +79797,7 @@
       <c r="O579" s="31"/>
       <c r="P579" s="31"/>
     </row>
-    <row r="580" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:16" ht="32.1">
       <c r="A580" s="25" t="s">
         <v>21</v>
       </c>
@@ -79829,7 +79829,7 @@
       <c r="O580" s="21"/>
       <c r="P580" s="21"/>
     </row>
-    <row r="581" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:16" ht="32.1">
       <c r="A581" s="35" t="s">
         <v>21</v>
       </c>
@@ -79865,7 +79865,7 @@
       <c r="O581" s="31"/>
       <c r="P581" s="31"/>
     </row>
-    <row r="582" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:16" ht="32.1">
       <c r="A582" s="25" t="s">
         <v>21</v>
       </c>
@@ -79897,7 +79897,7 @@
       <c r="O582" s="21"/>
       <c r="P582" s="21"/>
     </row>
-    <row r="583" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:16" ht="32.1">
       <c r="A583" s="35" t="s">
         <v>21</v>
       </c>
@@ -79929,7 +79929,7 @@
       <c r="O583" s="31"/>
       <c r="P583" s="31"/>
     </row>
-    <row r="584" spans="1:16" ht="84" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:16" ht="84">
       <c r="A584" s="25" t="s">
         <v>21</v>
       </c>
@@ -79963,7 +79963,7 @@
       <c r="O584" s="21"/>
       <c r="P584" s="21"/>
     </row>
-    <row r="585" spans="1:16" ht="45" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:16" ht="45">
       <c r="A585" s="35" t="s">
         <v>21</v>
       </c>
@@ -79995,7 +79995,7 @@
       <c r="O585" s="31"/>
       <c r="P585" s="31"/>
     </row>
-    <row r="586" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:16" ht="32.1">
       <c r="A586" s="25" t="s">
         <v>21</v>
       </c>
@@ -80027,7 +80027,7 @@
       <c r="O586" s="21"/>
       <c r="P586" s="21"/>
     </row>
-    <row r="587" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:16" ht="32.1">
       <c r="A587" s="25" t="s">
         <v>21</v>
       </c>
@@ -80063,7 +80063,7 @@
       <c r="O587" s="21"/>
       <c r="P587" s="21"/>
     </row>
-    <row r="588" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:16" ht="32.1">
       <c r="A588" s="35" t="s">
         <v>21</v>
       </c>
@@ -80095,7 +80095,7 @@
       <c r="O588" s="31"/>
       <c r="P588" s="31"/>
     </row>
-    <row r="589" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:16" ht="32.1">
       <c r="A589" s="25" t="s">
         <v>21</v>
       </c>
@@ -80129,7 +80129,7 @@
       <c r="O589" s="21"/>
       <c r="P589" s="21"/>
     </row>
-    <row r="590" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:16" ht="32.1">
       <c r="A590" s="35" t="s">
         <v>21</v>
       </c>
@@ -80161,7 +80161,7 @@
       <c r="O590" s="31"/>
       <c r="P590" s="31"/>
     </row>
-    <row r="591" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:16" ht="32.1">
       <c r="A591" s="25" t="s">
         <v>21</v>
       </c>
@@ -80195,7 +80195,7 @@
       <c r="O591" s="21"/>
       <c r="P591" s="21"/>
     </row>
-    <row r="592" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:16" ht="48">
       <c r="A592" s="25" t="s">
         <v>21</v>
       </c>
@@ -80229,7 +80229,7 @@
       <c r="O592" s="21"/>
       <c r="P592" s="21"/>
     </row>
-    <row r="593" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:16" ht="48">
       <c r="A593" s="35" t="s">
         <v>21</v>
       </c>
@@ -80263,7 +80263,7 @@
       <c r="O593" s="31"/>
       <c r="P593" s="31"/>
     </row>
-    <row r="594" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:16" ht="32.1">
       <c r="A594" s="25" t="s">
         <v>21</v>
       </c>
@@ -80295,7 +80295,7 @@
       <c r="O594" s="21"/>
       <c r="P594" s="21"/>
     </row>
-    <row r="595" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:16" ht="36">
       <c r="A595" s="35" t="s">
         <v>21</v>
       </c>
@@ -80329,7 +80329,7 @@
       <c r="O595" s="31"/>
       <c r="P595" s="31"/>
     </row>
-    <row r="596" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:16" ht="48">
       <c r="A596" s="25" t="s">
         <v>21</v>
       </c>
@@ -80363,7 +80363,7 @@
       <c r="O596" s="21"/>
       <c r="P596" s="21"/>
     </row>
-    <row r="597" spans="1:16" ht="120" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:16" ht="120">
       <c r="A597" s="35" t="s">
         <v>21</v>
       </c>
@@ -80395,7 +80395,7 @@
       <c r="O597" s="31"/>
       <c r="P597" s="31"/>
     </row>
-    <row r="598" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:16" ht="32.1">
       <c r="A598" s="35" t="s">
         <v>21</v>
       </c>
@@ -80427,7 +80427,7 @@
       <c r="O598" s="31"/>
       <c r="P598" s="31"/>
     </row>
-    <row r="599" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:16" ht="32.1">
       <c r="A599" s="35" t="s">
         <v>21</v>
       </c>
@@ -80463,7 +80463,7 @@
       <c r="O599" s="31"/>
       <c r="P599" s="31"/>
     </row>
-    <row r="600" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:16" ht="32.1">
       <c r="A600" s="40" t="s">
         <v>21</v>
       </c>
@@ -80499,7 +80499,7 @@
       <c r="O600" s="39"/>
       <c r="P600" s="39"/>
     </row>
-    <row r="601" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:16" ht="32.1">
       <c r="A601" s="25" t="s">
         <v>21</v>
       </c>
@@ -80533,7 +80533,7 @@
       <c r="O601" s="21"/>
       <c r="P601" s="21"/>
     </row>
-    <row r="602" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:16" ht="32.1">
       <c r="A602" s="35" t="s">
         <v>21</v>
       </c>
@@ -80567,7 +80567,7 @@
       <c r="O602" s="31"/>
       <c r="P602" s="31"/>
     </row>
-    <row r="603" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:16" ht="32.1">
       <c r="A603" s="25" t="s">
         <v>21</v>
       </c>
@@ -80599,7 +80599,7 @@
       <c r="O603" s="21"/>
       <c r="P603" s="21"/>
     </row>
-    <row r="604" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:16" ht="32.1">
       <c r="A604" s="25" t="s">
         <v>21</v>
       </c>
@@ -80633,7 +80633,7 @@
       <c r="O604" s="21"/>
       <c r="P604" s="21"/>
     </row>
-    <row r="605" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:16" ht="32.1">
       <c r="A605" s="25" t="s">
         <v>21</v>
       </c>
@@ -80667,7 +80667,7 @@
       <c r="O605" s="21"/>
       <c r="P605" s="21"/>
     </row>
-    <row r="606" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:16" ht="32.1">
       <c r="A606" s="35" t="s">
         <v>21</v>
       </c>
@@ -80703,7 +80703,7 @@
       <c r="O606" s="31"/>
       <c r="P606" s="31"/>
     </row>
-    <row r="607" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:16" ht="36">
       <c r="A607" s="25" t="s">
         <v>21</v>
       </c>
@@ -80737,7 +80737,7 @@
       <c r="O607" s="21"/>
       <c r="P607" s="21"/>
     </row>
-    <row r="608" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:16" ht="36">
       <c r="A608" s="25" t="s">
         <v>21</v>
       </c>
@@ -80771,7 +80771,7 @@
       <c r="O608" s="21"/>
       <c r="P608" s="21"/>
     </row>
-    <row r="609" spans="1:16" ht="256" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:16" ht="255.95">
       <c r="A609" s="35" t="s">
         <v>21</v>
       </c>
@@ -80803,7 +80803,7 @@
       <c r="O609" s="31"/>
       <c r="P609" s="31"/>
     </row>
-    <row r="610" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:16" ht="32.1">
       <c r="A610" s="25" t="s">
         <v>21</v>
       </c>
@@ -80835,7 +80835,7 @@
       <c r="O610" s="21"/>
       <c r="P610" s="21"/>
     </row>
-    <row r="611" spans="1:16" ht="156" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:16" ht="156">
       <c r="A611" s="35" t="s">
         <v>21</v>
       </c>
@@ -80871,7 +80871,7 @@
       <c r="O611" s="31"/>
       <c r="P611" s="31"/>
     </row>
-    <row r="612" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:16" ht="36">
       <c r="A612" s="35" t="s">
         <v>21</v>
       </c>
@@ -80909,7 +80909,7 @@
       <c r="O612" s="31"/>
       <c r="P612" s="31"/>
     </row>
-    <row r="613" spans="1:16" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:16" ht="33" thickBot="1">
       <c r="A613" s="35" t="s">
         <v>21</v>
       </c>
@@ -81012,8 +81012,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010036634E75948AF6478BDD5B6ECE439029" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="689acecceb92d855f609934e3bacd9aa">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e0a64e4-7fea-442c-b385-37491aef63de" xmlns:ns3="2b3e05ff-c908-49af-94f9-52f298489e32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6720c8b3d948ac14627f0ba1b583f722" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010036634E75948AF6478BDD5B6ECE439029" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="230aa62340b51c1aa2e2c28be48e6118">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e0a64e4-7fea-442c-b385-37491aef63de" xmlns:ns3="2b3e05ff-c908-49af-94f9-52f298489e32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c9ee5b7f6d6f2c3a51178921bc3c9373" ns2:_="" ns3:_="">
     <xsd:import namespace="1e0a64e4-7fea-442c-b385-37491aef63de"/>
     <xsd:import namespace="2b3e05ff-c908-49af-94f9-52f298489e32"/>
     <xsd:element name="properties">
@@ -81042,7 +81051,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1e0a64e4-7fea-442c-b385-37491aef63de" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Freigegeben für" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -81061,7 +81070,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Freigegeben für - Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -81124,8 +81133,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhaltstyp"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -81214,15 +81223,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -81230,30 +81230,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E909A67-9990-4A04-A51F-97B27EF8950E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A9C9B1F-0468-4B16-903D-8E1C20933A80}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A9C9B1F-0468-4B16-903D-8E1C20933A80}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87932034-9BF0-4E1F-9B56-17EEEF7AF3E5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9064EE4-D465-4757-B274-EF5914D4D854}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1e0a64e4-7fea-442c-b385-37491aef63de"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="2b3e05ff-c908-49af-94f9-52f298489e32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9064EE4-D465-4757-B274-EF5914D4D854}"/>
 </file>